--- a/database/sidis/expdata/3445.xlsx
+++ b/database/sidis/expdata/3445.xlsx
@@ -565,13 +565,13 @@
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="n">
-        <v>-7.430049109119441e-05</v>
+        <v>-0.000129735478922869</v>
       </c>
       <c r="P2" t="n">
         <v>0.000688</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.367129036077977e-05</v>
+        <v>2.38713281218079e-05</v>
       </c>
     </row>
     <row r="3">
@@ -624,13 +624,13 @@
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>-4.382000864682499e-05</v>
+        <v>-7.474520335187449e-05</v>
       </c>
       <c r="P3" t="n">
         <v>0.00092</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.347848660617429e-05</v>
+        <v>5.710533536083211e-05</v>
       </c>
     </row>
     <row r="4">
@@ -683,13 +683,13 @@
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>-3.640294429513233e-05</v>
+        <v>-4.756813966640577e-05</v>
       </c>
       <c r="P4" t="n">
         <v>0.00117</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.398954029049221e-05</v>
+        <v>3.13474040401614e-05</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>-2.614144132863752e-05</v>
+        <v>-3.752243053184216e-05</v>
       </c>
       <c r="P5" t="n">
         <v>0.00142</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.741019992487259e-06</v>
+        <v>2.498993873420688e-06</v>
       </c>
     </row>
     <row r="6">
@@ -801,13 +801,13 @@
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>-9.051202885575801e-05</v>
+        <v>-0.0001879689470637416</v>
       </c>
       <c r="P6" t="n">
         <v>0.000464</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0002099879069453586</v>
+        <v>0.0004360879571878804</v>
       </c>
     </row>
     <row r="7">
@@ -860,13 +860,13 @@
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>-6.615801779069364e-05</v>
+        <v>-0.0001206827209406695</v>
       </c>
       <c r="P7" t="n">
         <v>0.000614</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0001204075923790624</v>
+        <v>0.0002196425521120185</v>
       </c>
     </row>
     <row r="8">
@@ -919,13 +919,13 @@
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>-5.955658112785555e-05</v>
+        <v>-7.806631880521859e-05</v>
       </c>
       <c r="P8" t="n">
         <v>0.0007739999999999999</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.149442015767612e-05</v>
+        <v>1.506679952940719e-05</v>
       </c>
     </row>
     <row r="9">
@@ -978,13 +978,13 @@
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>-4.420514206267987e-05</v>
+        <v>-6.184628950722213e-05</v>
       </c>
       <c r="P9" t="n">
         <v>0.000953</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.129724058037734e-05</v>
+        <v>4.378717297111326e-05</v>
       </c>
     </row>
     <row r="10">
@@ -1037,13 +1037,13 @@
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>-8.368113213763056e-05</v>
+        <v>-0.0002638657452659903</v>
       </c>
       <c r="P10" t="n">
         <v>0.000564</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.001623413963470033</v>
+        <v>0.005118995458160211</v>
       </c>
     </row>
     <row r="11">
@@ -1096,13 +1096,13 @@
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>-8.83263436388852e-05</v>
+        <v>-0.0001914846611559444</v>
       </c>
       <c r="P11" t="n">
         <v>0.000755</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.62447577291639e-05</v>
+        <v>0.0001436134958669583</v>
       </c>
     </row>
     <row r="12">
@@ -1155,13 +1155,13 @@
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>-9.33065122227428e-05</v>
+        <v>-0.0001260877439699742</v>
       </c>
       <c r="P12" t="n">
         <v>0.00096</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0001017040983227896</v>
+        <v>0.0001374356409272719</v>
       </c>
     </row>
     <row r="13">
@@ -1214,13 +1214,13 @@
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>-7.484448240569378e-05</v>
+        <v>-0.0001010236792008726</v>
       </c>
       <c r="P13" t="n">
         <v>0.00119</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.634137205380765e-05</v>
+        <v>0.0001030441527848901</v>
       </c>
     </row>
     <row r="14">
@@ -1273,13 +1273,13 @@
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>-5.677729365061493e-05</v>
+        <v>-0.0003671044040186394</v>
       </c>
       <c r="P14" t="n">
         <v>0.000811</v>
       </c>
       <c r="Q14" t="n">
-        <v>7.892043817435475e-05</v>
+        <v>0.0005102751215859088</v>
       </c>
     </row>
     <row r="15">
@@ -1332,13 +1332,13 @@
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="n">
-        <v>-0.0001017966799598252</v>
+        <v>-0.0002968347241828551</v>
       </c>
       <c r="P15" t="n">
         <v>0.00107</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.049115326007329e-05</v>
+        <v>0.0001472300231946961</v>
       </c>
     </row>
     <row r="16">
@@ -1391,13 +1391,13 @@
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="n">
-        <v>-0.0001361436479102026</v>
+        <v>-0.000198535192914542</v>
       </c>
       <c r="P16" t="n">
         <v>0.00137</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0003022388983606498</v>
+        <v>0.0004407481282702834</v>
       </c>
     </row>
     <row r="17">
@@ -1450,13 +1450,13 @@
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="n">
-        <v>-0.0001202684334358708</v>
+        <v>-0.0001584057582697406</v>
       </c>
       <c r="P17" t="n">
         <v>0.00175</v>
       </c>
       <c r="Q17" t="n">
-        <v>8.887837230910851e-05</v>
+        <v>0.0001170618553613383</v>
       </c>
     </row>
     <row r="18">
@@ -1509,13 +1509,13 @@
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
-        <v>-0.0002421078318262291</v>
+        <v>-0.0003319194202239056</v>
       </c>
       <c r="P18" t="n">
         <v>0.000653</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0002258866070938717</v>
+        <v>0.0003096808190689039</v>
       </c>
     </row>
     <row r="19">
@@ -1568,13 +1568,13 @@
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
-        <v>-0.0001448237809960957</v>
+        <v>-0.0001903576082567235</v>
       </c>
       <c r="P19" t="n">
         <v>0.00088</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.05220222338292e-05</v>
+        <v>0.0001058388301907383</v>
       </c>
     </row>
     <row r="20">
@@ -1627,13 +1627,13 @@
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
-        <v>-0.0001195779406349631</v>
+        <v>-0.0001295531833180497</v>
       </c>
       <c r="P20" t="n">
         <v>0.00111</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0001482766463873542</v>
+        <v>0.0001606459473143817</v>
       </c>
     </row>
     <row r="21">
@@ -1686,13 +1686,13 @@
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="n">
-        <v>-8.598747636144522e-05</v>
+        <v>-0.0001019070489669846</v>
       </c>
       <c r="P21" t="n">
         <v>0.00136</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.155740382465039e-05</v>
+        <v>3.739988697088335e-05</v>
       </c>
     </row>
     <row r="22">
@@ -1745,13 +1745,13 @@
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="n">
-        <v>-0.0002999306382960191</v>
+        <v>-0.0004656592393494653</v>
       </c>
       <c r="P22" t="n">
         <v>0.000442</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.0002969313319130589</v>
+        <v>0.0004610026469559706</v>
       </c>
     </row>
     <row r="23">
@@ -1804,13 +1804,13 @@
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="n">
-        <v>-0.0002139592678839459</v>
+        <v>-0.0002956893024833798</v>
       </c>
       <c r="P23" t="n">
         <v>0.0005999999999999999</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0005348981697098649</v>
+        <v>0.0007392232562084496</v>
       </c>
     </row>
     <row r="24">
@@ -1863,13 +1863,13 @@
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="n">
-        <v>-0.0001925697388381106</v>
+        <v>-0.0002078797283113485</v>
       </c>
       <c r="P24" t="n">
         <v>0.000764</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.068672057316835e-05</v>
+        <v>8.710160616245502e-05</v>
       </c>
     </row>
     <row r="25">
@@ -1922,13 +1922,13 @@
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="n">
-        <v>-0.000143113871909599</v>
+        <v>-0.0001652051029602351</v>
       </c>
       <c r="P25" t="n">
         <v>0.000926</v>
       </c>
       <c r="Q25" t="n">
-        <v>8.300604570756744e-05</v>
+        <v>9.581895971693638e-05</v>
       </c>
     </row>
     <row r="26">
@@ -1981,13 +1981,13 @@
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="n">
-        <v>-0.0002785577478706434</v>
+        <v>-0.0006019612786476521</v>
       </c>
       <c r="P26" t="n">
         <v>0.000554</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.001005593469813023</v>
+        <v>0.002173080215918024</v>
       </c>
     </row>
     <row r="27">
@@ -2040,13 +2040,13 @@
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="n">
-        <v>-0.0002888443336523492</v>
+        <v>-0.0004563323164520702</v>
       </c>
       <c r="P27" t="n">
         <v>0.000751</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.0003899398504306714</v>
+        <v>0.0006160486272102949</v>
       </c>
     </row>
     <row r="28">
@@ -2099,13 +2099,13 @@
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="n">
-        <v>-0.0003043900159287742</v>
+        <v>-0.0003314021700473572</v>
       </c>
       <c r="P28" t="n">
         <v>0.000958</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.0003074339160880619</v>
+        <v>0.0003347161917478308</v>
       </c>
     </row>
     <row r="29">
@@ -2158,13 +2158,13 @@
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
-        <v>-0.0002431572809798203</v>
+        <v>-0.0002679050288488275</v>
       </c>
       <c r="P29" t="n">
         <v>0.00117</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0004085042320460981</v>
+        <v>0.0004500804484660302</v>
       </c>
     </row>
     <row r="30">
@@ -2217,13 +2217,13 @@
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="n">
-        <v>-0.0001966930229572633</v>
+        <v>-0.0007722852782729687</v>
       </c>
       <c r="P30" t="n">
         <v>0.000803</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.0002557009298444423</v>
+        <v>0.001003970861754859</v>
       </c>
     </row>
     <row r="31">
@@ -2276,13 +2276,13 @@
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="n">
-        <v>-0.000338846680646421</v>
+        <v>-0.0006717152554646814</v>
       </c>
       <c r="P31" t="n">
         <v>0.00107</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.602342507364513e-05</v>
+        <v>5.158773161968753e-05</v>
       </c>
     </row>
     <row r="32">
@@ -2335,13 +2335,13 @@
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="n">
-        <v>-0.0004534123559944819</v>
+        <v>-0.000515230462871348</v>
       </c>
       <c r="P32" t="n">
         <v>0.00139</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.0003541150500316903</v>
+        <v>0.0004023949915025228</v>
       </c>
     </row>
     <row r="33">
@@ -2394,13 +2394,13 @@
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="n">
-        <v>-0.0003958030990362723</v>
+        <v>-0.000417910297654307</v>
       </c>
       <c r="P33" t="n">
         <v>0.00176</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.0002643964701562299</v>
+        <v>0.0002791640788330771</v>
       </c>
     </row>
     <row r="34">
@@ -2453,13 +2453,13 @@
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="n">
-        <v>-0.0007592448680295551</v>
+        <v>-0.0008918739847509166</v>
       </c>
       <c r="P34" t="n">
         <v>0.0006400000000000001</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.001328678519051721</v>
+        <v>0.001560779473314104</v>
       </c>
     </row>
     <row r="35">
@@ -2512,13 +2512,13 @@
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="n">
-        <v>-0.0004550694716605858</v>
+        <v>-0.0005089600435811614</v>
       </c>
       <c r="P35" t="n">
         <v>0.000841</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.0007235604599403314</v>
+        <v>0.0008092464692940467</v>
       </c>
     </row>
     <row r="36">
@@ -2571,13 +2571,13 @@
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="n">
-        <v>-0.0003805713687122435</v>
+        <v>-0.0003723814098650422</v>
       </c>
       <c r="P36" t="n">
         <v>0.00106</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.0005023542067001614</v>
+        <v>0.0004915434610218558</v>
       </c>
     </row>
     <row r="37">
@@ -2630,13 +2630,13 @@
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="n">
-        <v>-0.0002755043539399949</v>
+        <v>-0.0002926994092120613</v>
       </c>
       <c r="P37" t="n">
         <v>0.00132</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.790778300609967e-06</v>
+        <v>1.902546159878398e-06</v>
       </c>
     </row>
     <row r="38">
@@ -2689,13 +2689,13 @@
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="n">
-        <v>-0.0009676349628592534</v>
+        <v>-0.001230567436128252</v>
       </c>
       <c r="P38" t="n">
         <v>0.000445</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.001606274038346361</v>
+        <v>0.002042741943972898</v>
       </c>
     </row>
     <row r="39">
@@ -2748,13 +2748,13 @@
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="n">
-        <v>-0.0006839809692280183</v>
+        <v>-0.0007855954703265547</v>
       </c>
       <c r="P39" t="n">
         <v>0.000588</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.001190126886456752</v>
+        <v>0.001366936118368205</v>
       </c>
     </row>
     <row r="40">
@@ -2807,13 +2807,13 @@
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="n">
-        <v>-0.0006191933536321355</v>
+        <v>-0.000598112160459428</v>
       </c>
       <c r="P40" t="n">
         <v>0.000734</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.01034052900565666</v>
+        <v>0.009988473079672447</v>
       </c>
     </row>
     <row r="41">
@@ -2866,13 +2866,13 @@
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="n">
-        <v>-0.0004622696288786664</v>
+        <v>-0.0004759797620904968</v>
       </c>
       <c r="P41" t="n">
         <v>0.000893</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.0001862946604381026</v>
+        <v>0.0001918198441224702</v>
       </c>
     </row>
     <row r="42">
@@ -2925,13 +2925,13 @@
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="n">
-        <v>-0.0009371180413573698</v>
+        <v>-0.001504761896871075</v>
       </c>
       <c r="P42" t="n">
         <v>0.000571</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.001836751361060445</v>
+        <v>0.002949333317867307</v>
       </c>
     </row>
     <row r="43">
@@ -2984,13 +2984,13 @@
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="n">
-        <v>-0.0009489775663825836</v>
+        <v>-0.001182087030782891</v>
       </c>
       <c r="P43" t="n">
         <v>0.000749</v>
       </c>
       <c r="Q43" t="n">
-        <v>6.680802067333388e-05</v>
+        <v>8.321892696711551e-05</v>
       </c>
     </row>
     <row r="44">
@@ -3043,13 +3043,13 @@
       </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="n">
-        <v>-0.000997433236486233</v>
+        <v>-0.0009532460173643973</v>
       </c>
       <c r="P44" t="n">
         <v>0.000947</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.0006184086066214644</v>
+        <v>0.0005910125307659264</v>
       </c>
     </row>
     <row r="45">
@@ -3102,13 +3102,13 @@
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="n">
-        <v>-0.000795007805282743</v>
+        <v>-0.0007743892647976609</v>
       </c>
       <c r="P45" t="n">
         <v>0.00115</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.002210121698686025</v>
+        <v>0.002152802156137497</v>
       </c>
     </row>
     <row r="46">
@@ -3161,13 +3161,13 @@
       </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="n">
-        <v>-0.0007027956734957865</v>
+        <v>-0.001779261065701729</v>
       </c>
       <c r="P46" t="n">
         <v>0.000835</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.0007519913706404915</v>
+        <v>0.00190380934030085</v>
       </c>
     </row>
     <row r="47">
@@ -3220,13 +3220,13 @@
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="n">
-        <v>-0.001151253045598695</v>
+        <v>-0.001691626651902458</v>
       </c>
       <c r="P47" t="n">
         <v>0.0011</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.0001335453532894486</v>
+        <v>0.0001962286916206851</v>
       </c>
     </row>
     <row r="48">
@@ -3279,13 +3279,13 @@
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="n">
-        <v>-0.001503154366649931</v>
+        <v>-0.001458867176910556</v>
       </c>
       <c r="P48" t="n">
         <v>0.0014</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.01211542419519845</v>
+        <v>0.01175846944589908</v>
       </c>
     </row>
     <row r="49">
@@ -3338,13 +3338,13 @@
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="n">
-        <v>-0.001308237804320379</v>
+        <v>-0.001205758232658299</v>
       </c>
       <c r="P49" t="n">
         <v>0.00175</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.002315580913647071</v>
+        <v>0.00213419207180519</v>
       </c>
     </row>
     <row r="50">
@@ -3397,13 +3397,13 @@
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="n">
-        <v>-0.002444649074550785</v>
+        <v>-0.002608339664225521</v>
       </c>
       <c r="P50" t="n">
         <v>0.000674</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.04815958676865046</v>
+        <v>0.05138429138524276</v>
       </c>
     </row>
     <row r="51">
@@ -3456,13 +3456,13 @@
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="n">
-        <v>-0.001462185808360258</v>
+        <v>-0.001491695664949799</v>
       </c>
       <c r="P51" t="n">
         <v>0.0008630000000000001</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.007340172757968493</v>
+        <v>0.007488312238047991</v>
       </c>
     </row>
     <row r="52">
@@ -3515,13 +3515,13 @@
       </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="n">
-        <v>-0.001202964896532955</v>
+        <v>-0.00112340682959924</v>
       </c>
       <c r="P52" t="n">
         <v>0.00109</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.03909635913732105</v>
+        <v>0.03651072196197529</v>
       </c>
     </row>
     <row r="53">
@@ -3574,13 +3574,13 @@
       </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="n">
-        <v>-0.0008953752977880781</v>
+        <v>-0.0008985706843991826</v>
       </c>
       <c r="P53" t="n">
         <v>0.00133</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.000332184235479377</v>
+        <v>0.0003333697239120967</v>
       </c>
     </row>
     <row r="54">
@@ -3633,13 +3633,13 @@
       </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="n">
-        <v>-0.003196781491317913</v>
+        <v>-0.003551333079854781</v>
       </c>
       <c r="P54" t="n">
         <v>0.00047</v>
       </c>
       <c r="Q54" t="n">
-        <v>8.823116916037439e-05</v>
+        <v>9.801679300399196e-05</v>
       </c>
     </row>
     <row r="55">
@@ -3692,13 +3692,13 @@
       </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="n">
-        <v>-0.002229429718262902</v>
+        <v>-0.00229011378467739</v>
       </c>
       <c r="P55" t="n">
         <v>0.000603</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.001950751003480039</v>
+        <v>0.002003849561592717</v>
       </c>
     </row>
     <row r="56">
@@ -3751,13 +3751,13 @@
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="n">
-        <v>-0.001987020407713501</v>
+        <v>-0.00181792262711824</v>
       </c>
       <c r="P56" t="n">
         <v>0.000743</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.003675987754269978</v>
+        <v>0.003363156860168743</v>
       </c>
     </row>
     <row r="57">
@@ -3810,13 +3810,13 @@
       </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="n">
-        <v>-0.001501299020427465</v>
+        <v>-0.001455039394748204</v>
       </c>
       <c r="P57" t="n">
         <v>0.000897</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.0004443845100465295</v>
+        <v>0.0004306916608454683</v>
       </c>
     </row>
     <row r="58">
@@ -3869,13 +3869,13 @@
       </c>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="n">
-        <v>-0.003217021164968514</v>
+        <v>-0.004128166084143862</v>
       </c>
       <c r="P58" t="n">
         <v>0.0005999999999999999</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.005211574287248993</v>
+        <v>0.006687629056313057</v>
       </c>
     </row>
     <row r="59">
@@ -3928,13 +3928,13 @@
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="n">
-        <v>-0.003144537710480149</v>
+        <v>-0.003355279385199704</v>
       </c>
       <c r="P59" t="n">
         <v>0.00078</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.001201213405403417</v>
+        <v>0.001281716725146287</v>
       </c>
     </row>
     <row r="60">
@@ -3987,13 +3987,13 @@
       </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="n">
-        <v>-0.003264078187959147</v>
+        <v>-0.002905883333919218</v>
       </c>
       <c r="P60" t="n">
         <v>0.000967</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.002510076126540584</v>
+        <v>0.002234624283783878</v>
       </c>
     </row>
     <row r="61">
@@ -4046,13 +4046,13 @@
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="n">
-        <v>-0.002591692891667039</v>
+        <v>-0.002360680469954861</v>
       </c>
       <c r="P61" t="n">
         <v>0.00114</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.004690964133917341</v>
+        <v>0.004272831650618299</v>
       </c>
     </row>
     <row r="62">
@@ -4105,13 +4105,13 @@
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="n">
-        <v>-0.002571656011939869</v>
+        <v>-0.004530830692489429</v>
       </c>
       <c r="P62" t="n">
         <v>0.000877</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.003574601856596417</v>
+        <v>0.006297854662560306</v>
       </c>
     </row>
     <row r="63">
@@ -4164,13 +4164,13 @@
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="n">
-        <v>-0.004076390568317092</v>
+        <v>-0.004747148142097176</v>
       </c>
       <c r="P63" t="n">
         <v>0.00114</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.00169577847641991</v>
+        <v>0.001974813627112425</v>
       </c>
     </row>
     <row r="64">
@@ -4223,13 +4223,13 @@
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="n">
-        <v>-0.005117137758645759</v>
+        <v>-0.004502262083963879</v>
       </c>
       <c r="P64" t="n">
         <v>0.00144</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.002875831420358917</v>
+        <v>0.0025302712911877</v>
       </c>
     </row>
     <row r="65">
@@ -4282,13 +4282,13 @@
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="n">
-        <v>-0.004331065212480996</v>
+        <v>-0.003691587747267369</v>
       </c>
       <c r="P65" t="n">
         <v>0.00174</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.008229023903713892</v>
+        <v>0.007014016719808</v>
       </c>
     </row>
     <row r="66">
@@ -4341,13 +4341,13 @@
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="n">
-        <v>-0.007025357522851054</v>
+        <v>-0.007058064403917227</v>
       </c>
       <c r="P66" t="n">
         <v>0.000815</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.01482350437321572</v>
+        <v>0.01489251589226535</v>
       </c>
     </row>
     <row r="67">
@@ -4400,13 +4400,13 @@
       </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="n">
-        <v>-0.004037903747834115</v>
+        <v>-0.003944000575023832</v>
       </c>
       <c r="P67" t="n">
         <v>0.00104</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.01966459125195214</v>
+        <v>0.01920728280036606</v>
       </c>
     </row>
     <row r="68">
@@ -4459,13 +4459,13 @@
       </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="n">
-        <v>-0.003335585617116096</v>
+        <v>-0.003069502778754756</v>
       </c>
       <c r="P68" t="n">
         <v>0.00131</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.004636464007791373</v>
+        <v>0.004266608862469111</v>
       </c>
     </row>
     <row r="69">
@@ -4518,13 +4518,13 @@
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="n">
-        <v>-0.002463779926987698</v>
+        <v>-0.00241920657900503</v>
       </c>
       <c r="P69" t="n">
         <v>0.00163</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.003055087109464746</v>
+        <v>0.002999816157966237</v>
       </c>
     </row>
     <row r="70">
@@ -4577,13 +4577,13 @@
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="n">
-        <v>-0.009109362668242865</v>
+        <v>-0.009271432544393535</v>
       </c>
       <c r="P70" t="n">
         <v>0.000584</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.01011139256174958</v>
+        <v>0.01029129012427682</v>
       </c>
     </row>
     <row r="71">
@@ -4636,13 +4636,13 @@
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="n">
-        <v>-0.006147440425286419</v>
+        <v>-0.00595346442748508</v>
       </c>
       <c r="P71" t="n">
         <v>0.000738</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.2372912004160558</v>
+        <v>0.2298037269009241</v>
       </c>
     </row>
     <row r="72">
@@ -4695,13 +4695,13 @@
       </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="n">
-        <v>-0.005510626838595854</v>
+        <v>-0.004938626344337167</v>
       </c>
       <c r="P72" t="n">
         <v>0.000901</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.07439346232104403</v>
+        <v>0.06667145564855176</v>
       </c>
     </row>
     <row r="73">
@@ -4754,13 +4754,13 @@
       </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="n">
-        <v>-0.004193632197218643</v>
+        <v>-0.003952498829954093</v>
       </c>
       <c r="P73" t="n">
         <v>0.00108</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.05451721856384237</v>
+        <v>0.05138248478940321</v>
       </c>
     </row>
     <row r="74">
@@ -4813,13 +4813,13 @@
       </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="n">
-        <v>-0.00945314192325831</v>
+        <v>-0.01036811830449762</v>
       </c>
       <c r="P74" t="n">
         <v>0.000749</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.008082436344385855</v>
+        <v>0.008864741150345461</v>
       </c>
     </row>
     <row r="75">
@@ -4872,13 +4872,13 @@
       </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="n">
-        <v>-0.008958742138820724</v>
+        <v>-0.00868638532687346</v>
       </c>
       <c r="P75" t="n">
         <v>0.000973</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.00493626691849022</v>
+        <v>0.004786198315107277</v>
       </c>
     </row>
     <row r="76">
@@ -4931,13 +4931,13 @@
       </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="n">
-        <v>-0.009201759457949057</v>
+        <v>-0.007907505288724853</v>
       </c>
       <c r="P76" t="n">
         <v>0.00118</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.002604097926599583</v>
+        <v>0.002237823996709134</v>
       </c>
     </row>
     <row r="77">
@@ -4990,13 +4990,13 @@
       </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="n">
-        <v>-0.007347320792025847</v>
+        <v>-0.006475102588585789</v>
       </c>
       <c r="P77" t="n">
         <v>0.00139</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.02307058728696116</v>
+        <v>0.02033182212815938</v>
       </c>
     </row>
     <row r="78">
@@ -5049,13 +5049,13 @@
       </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="n">
-        <v>-0.007888095852584676</v>
+        <v>-0.01059890926183244</v>
       </c>
       <c r="P78" t="n">
         <v>0.00109</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.0546645042584118</v>
+        <v>0.0734504411844988</v>
       </c>
     </row>
     <row r="79">
@@ -5108,13 +5108,13 @@
       </c>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="n">
-        <v>-0.01198827404068041</v>
+        <v>-0.01200273096634216</v>
       </c>
       <c r="P79" t="n">
         <v>0.00142</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.006701445188740347</v>
+        <v>0.006709526610185268</v>
       </c>
     </row>
     <row r="80">
@@ -5167,13 +5167,13 @@
       </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="n">
-        <v>-0.0148096196953456</v>
+        <v>-0.01226391898627409</v>
       </c>
       <c r="P80" t="n">
         <v>0.00178</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.01001130291405363</v>
+        <v>0.008290409234721284</v>
       </c>
     </row>
     <row r="81">
@@ -5226,13 +5226,13 @@
       </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="n">
-        <v>-0.0127713781830908</v>
+        <v>-0.01039165575176256</v>
       </c>
       <c r="P81" t="n">
         <v>0.00213</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.03461043487617608</v>
+        <v>0.02816138708727654</v>
       </c>
     </row>
     <row r="82">
@@ -5285,13 +5285,13 @@
       </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="n">
-        <v>-0.01554876070795073</v>
+        <v>-0.01506854394653546</v>
       </c>
       <c r="P82" t="n">
         <v>0.00209</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.02472252952564166</v>
+        <v>0.02395898487499138</v>
       </c>
     </row>
     <row r="83">
@@ -5344,13 +5344,13 @@
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="n">
-        <v>-0.008878750054530295</v>
+        <v>-0.008504088681316102</v>
       </c>
       <c r="P83" t="n">
         <v>0.00273</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.2947745018104058</v>
+        <v>0.2823357442196947</v>
       </c>
     </row>
     <row r="84">
@@ -5403,13 +5403,13 @@
       </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="n">
-        <v>-0.007439729137421289</v>
+        <v>-0.006838892217051022</v>
       </c>
       <c r="P84" t="n">
         <v>0.00354</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.00727605509639802</v>
+        <v>0.006688436588275899</v>
       </c>
     </row>
     <row r="85">
@@ -5462,13 +5462,13 @@
       </c>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="n">
-        <v>-0.005553740814406492</v>
+        <v>-0.005418979429743234</v>
       </c>
       <c r="P85" t="n">
         <v>0.00456</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.002676903072543929</v>
+        <v>0.002611948085136239</v>
       </c>
     </row>
     <row r="86">
@@ -5521,13 +5521,13 @@
       </c>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="n">
-        <v>-0.02036842883056498</v>
+        <v>-0.01959061043488851</v>
       </c>
       <c r="P86" t="n">
         <v>0.00154</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.06049423362677799</v>
+        <v>0.05818411299161887</v>
       </c>
     </row>
     <row r="87">
@@ -5580,13 +5580,13 @@
       </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="n">
-        <v>-0.0136975857394294</v>
+        <v>-0.0128506817794751</v>
       </c>
       <c r="P87" t="n">
         <v>0.00194</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.0161631511725267</v>
+        <v>0.01516380449978062</v>
       </c>
     </row>
     <row r="88">
@@ -5639,13 +5639,13 @@
       </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="n">
-        <v>-0.01224351167298126</v>
+        <v>-0.01089950337893399</v>
       </c>
       <c r="P88" t="n">
         <v>0.0024</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.01310055749008995</v>
+        <v>0.01166246861545937</v>
       </c>
     </row>
     <row r="89">
@@ -5698,13 +5698,13 @@
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="n">
-        <v>-0.009587012055039847</v>
+        <v>-0.0089586402512078</v>
       </c>
       <c r="P89" t="n">
         <v>0.00294</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.02732298435686356</v>
+        <v>0.02553212471594223</v>
       </c>
     </row>
     <row r="90">
@@ -5757,13 +5757,13 @@
       </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="n">
-        <v>-0.02147152860633058</v>
+        <v>-0.02122565804457528</v>
       </c>
       <c r="P90" t="n">
         <v>0.00201</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.02683941075791323</v>
+        <v>0.0265320725557191</v>
       </c>
     </row>
     <row r="91">
@@ -5816,13 +5816,13 @@
       </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="n">
-        <v>-0.02037496917224272</v>
+        <v>-0.01860893585098982</v>
       </c>
       <c r="P91" t="n">
         <v>0.00261</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.008292612453102786</v>
+        <v>0.007573836891352857</v>
       </c>
     </row>
     <row r="92">
@@ -5875,13 +5875,13 @@
       </c>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="n">
-        <v>-0.02079143009689075</v>
+        <v>-0.01753556602609087</v>
       </c>
       <c r="P92" t="n">
         <v>0.00308</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.0469886320189731</v>
+        <v>0.03963037921896537</v>
       </c>
     </row>
     <row r="93">
@@ -5934,13 +5934,13 @@
       </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="n">
-        <v>-0.01705559219377261</v>
+        <v>-0.01478092828014308</v>
       </c>
       <c r="P93" t="n">
         <v>0.0037</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.002080782247640259</v>
+        <v>0.001803273250177455</v>
       </c>
     </row>
     <row r="94">
@@ -5993,13 +5993,13 @@
       </c>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="n">
-        <v>-0.01836609745884232</v>
+        <v>-0.02061608681431048</v>
       </c>
       <c r="P94" t="n">
         <v>0.00299</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.02497789254402555</v>
+        <v>0.02803787806746226</v>
       </c>
     </row>
     <row r="95">
@@ -6052,13 +6052,13 @@
       </c>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="n">
-        <v>-0.02764695552263181</v>
+        <v>-0.02512345125574718</v>
       </c>
       <c r="P95" t="n">
         <v>0.00376</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.006994679747225849</v>
+        <v>0.006356233167704037</v>
       </c>
     </row>
     <row r="96">
@@ -6111,13 +6111,13 @@
       </c>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="n">
-        <v>-0.03434763107441967</v>
+        <v>-0.02734751283626911</v>
       </c>
       <c r="P96" t="n">
         <v>0.00478</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.03008852482119163</v>
+        <v>0.02395642124457174</v>
       </c>
     </row>
     <row r="97">
@@ -6170,13 +6170,13 @@
       </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="n">
-        <v>-0.03005706476845871</v>
+        <v>-0.02379153829764286</v>
       </c>
       <c r="P97" t="n">
         <v>0.00571</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.04538616780037265</v>
+        <v>0.03592522282944072</v>
       </c>
     </row>
     <row r="98">
@@ -6229,13 +6229,13 @@
       </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="n">
-        <v>-2.771853531660546e-05</v>
+        <v>-5.715023538120793e-05</v>
       </c>
       <c r="P98" t="n">
         <v>0.00835</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.630489001545858e-05</v>
+        <v>5.423557337676633e-05</v>
       </c>
     </row>
     <row r="99">
@@ -6288,13 +6288,13 @@
       </c>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="n">
-        <v>-1.697573756886643e-05</v>
+        <v>-3.558650449031342e-05</v>
       </c>
       <c r="P99" t="n">
         <v>0.0162</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.074564188109245e-05</v>
+        <v>2.25262573423684e-05</v>
       </c>
     </row>
     <row r="100">
@@ -6347,13 +6347,13 @@
       </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="n">
-        <v>-1.482108963245777e-05</v>
+        <v>-2.2782097786478e-05</v>
       </c>
       <c r="P100" t="n">
         <v>0.0262</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.208342355236208e-06</v>
+        <v>3.394532570185222e-06</v>
       </c>
     </row>
     <row r="101">
@@ -6406,13 +6406,13 @@
       </c>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="n">
-        <v>-1.049718010765428e-05</v>
+        <v>-1.829770407180323e-05</v>
       </c>
       <c r="P101" t="n">
         <v>0.0327</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.112701091411353e-05</v>
+        <v>1.939556631611143e-05</v>
       </c>
     </row>
     <row r="102">
@@ -6465,13 +6465,13 @@
       </c>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="n">
-        <v>-3.342181723477037e-05</v>
+        <v>-8.343028887700461e-05</v>
       </c>
       <c r="P102" t="n">
         <v>0.00526</v>
       </c>
       <c r="Q102" t="n">
-        <v>0.0001119630877364807</v>
+        <v>0.0002794914677379655</v>
       </c>
     </row>
     <row r="103">
@@ -6524,13 +6524,13 @@
       </c>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="n">
-        <v>-2.513067092515557e-05</v>
+        <v>-5.726338689616408e-05</v>
       </c>
       <c r="P103" t="n">
         <v>0.00834</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.548049328989583e-05</v>
+        <v>3.527424632803707e-05</v>
       </c>
     </row>
     <row r="104">
@@ -6583,13 +6583,13 @@
       </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="n">
-        <v>-2.334466299205652e-05</v>
+        <v>-3.625427178527179e-05</v>
       </c>
       <c r="P104" t="n">
         <v>0.0125</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.451189614165935e-05</v>
+        <v>3.806698537453538e-05</v>
       </c>
     </row>
     <row r="105">
@@ -6642,13 +6642,13 @@
       </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="n">
-        <v>-1.818710561002132e-05</v>
+        <v>-3.015824780693458e-05</v>
       </c>
       <c r="P105" t="n">
         <v>0.024</v>
       </c>
       <c r="Q105" t="n">
-        <v>3.091807953703624e-05</v>
+        <v>5.126902127178879e-05</v>
       </c>
     </row>
     <row r="106">
@@ -6701,13 +6701,13 @@
       </c>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="n">
-        <v>-2.99866598004853e-05</v>
+        <v>-0.0001194315364415418</v>
       </c>
       <c r="P106" t="n">
         <v>0.00664</v>
       </c>
       <c r="Q106" t="n">
-        <v>9.985557713561606e-06</v>
+        <v>3.977070163503341e-05</v>
       </c>
     </row>
     <row r="107">
@@ -6760,13 +6760,13 @@
       </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="n">
-        <v>-3.285666839804226e-05</v>
+        <v>-8.987360555407772e-05</v>
       </c>
       <c r="P107" t="n">
         <v>0.009769999999999999</v>
       </c>
       <c r="Q107" t="n">
-        <v>4.698503580920042e-05</v>
+        <v>0.0001285192559423311</v>
       </c>
     </row>
     <row r="108">
@@ -6819,13 +6819,13 @@
       </c>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="n">
-        <v>-3.593739008784013e-05</v>
+        <v>-5.804588546372946e-05</v>
       </c>
       <c r="P108" t="n">
         <v>0.0142</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.0001017028139485876</v>
+        <v>0.0001642698558623544</v>
       </c>
     </row>
     <row r="109">
@@ -6878,13 +6878,13 @@
       </c>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="n">
-        <v>-2.993857964518398e-05</v>
+        <v>-4.831261691974697e-05</v>
       </c>
       <c r="P109" t="n">
         <v>0.0228</v>
       </c>
       <c r="Q109" t="n">
-        <v>8.322925141361147e-06</v>
+        <v>1.343090750368966e-05</v>
       </c>
     </row>
     <row r="110">
@@ -6937,13 +6937,13 @@
       </c>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="n">
-        <v>-1.969876075538024e-05</v>
+        <v>-0.0001696069298276652</v>
       </c>
       <c r="P110" t="n">
         <v>0.009769999999999999</v>
       </c>
       <c r="Q110" t="n">
-        <v>0.0001688183796736087</v>
+        <v>0.001453531388623091</v>
       </c>
     </row>
     <row r="111">
@@ -6996,13 +6996,13 @@
       </c>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="n">
-        <v>-3.723489866353569e-05</v>
+        <v>-0.0001395762137036802</v>
       </c>
       <c r="P111" t="n">
         <v>0.0152</v>
       </c>
       <c r="Q111" t="n">
-        <v>0.0002766552970700701</v>
+        <v>0.001037051267818344</v>
       </c>
     </row>
     <row r="112">
@@ -7055,13 +7055,13 @@
       </c>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="n">
-        <v>-5.246148407757187e-05</v>
+        <v>-9.156068763044091e-05</v>
       </c>
       <c r="P112" t="n">
         <v>0.0191</v>
       </c>
       <c r="Q112" t="n">
-        <v>8.551221904644214e-05</v>
+        <v>0.0001492439208376187</v>
       </c>
     </row>
     <row r="113">
@@ -7114,13 +7114,13 @@
       </c>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="n">
-        <v>-4.758906883774852e-05</v>
+        <v>-7.682950849381446e-05</v>
       </c>
       <c r="P113" t="n">
         <v>0.0244</v>
       </c>
       <c r="Q113" t="n">
-        <v>8.661210528470232e-05</v>
+        <v>0.0001398297054587423</v>
       </c>
     </row>
     <row r="114">
@@ -7173,13 +7173,13 @@
       </c>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="n">
-        <v>-5.533056866796902e-05</v>
+        <v>-9.312108869582669e-05</v>
       </c>
       <c r="P114" t="n">
         <v>0.00149</v>
       </c>
       <c r="Q114" t="n">
-        <v>0.00039284703754258</v>
+        <v>0.0006611597297403695</v>
       </c>
     </row>
     <row r="115">
@@ -7232,13 +7232,13 @@
       </c>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="n">
-        <v>-3.588521612067867e-05</v>
+        <v>-5.898826341064865e-05</v>
       </c>
       <c r="P115" t="n">
         <v>0.00214</v>
       </c>
       <c r="Q115" t="n">
-        <v>7.392354520859807e-05</v>
+        <v>0.0001215158226259362</v>
       </c>
     </row>
     <row r="116">
@@ -7291,13 +7291,13 @@
       </c>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="n">
-        <v>-3.068814151052009e-05</v>
+        <v>-3.945131530063818e-05</v>
       </c>
       <c r="P116" t="n">
         <v>0.00303</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.249007359478168e-05</v>
+        <v>1.605668532735974e-05</v>
       </c>
     </row>
     <row r="117">
@@ -7350,13 +7350,13 @@
       </c>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="n">
-        <v>-2.254533766679541e-05</v>
+        <v>-3.252000316665615e-05</v>
       </c>
       <c r="P117" t="n">
         <v>0.00427</v>
       </c>
       <c r="Q117" t="n">
-        <v>0.0003201437948684949</v>
+        <v>0.0004617840449665172</v>
       </c>
     </row>
     <row r="118">
@@ -7409,13 +7409,13 @@
       </c>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="n">
-        <v>-6.826880467676221e-05</v>
+        <v>-0.000134605008064745</v>
       </c>
       <c r="P118" t="n">
         <v>0.000998</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.73402763878976e-05</v>
+        <v>3.418967204844524e-05</v>
       </c>
     </row>
     <row r="119">
@@ -7468,13 +7468,13 @@
       </c>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="n">
-        <v>-5.231831492904978e-05</v>
+        <v>-9.230518645775075e-05</v>
       </c>
       <c r="P119" t="n">
         <v>0.00148</v>
       </c>
       <c r="Q119" t="n">
-        <v>3.892482630721304e-05</v>
+        <v>6.867505872456655e-05</v>
       </c>
     </row>
     <row r="120">
@@ -7527,13 +7527,13 @@
       </c>
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="n">
-        <v>-4.980500724394654e-05</v>
+        <v>-6.417710246393608e-05</v>
       </c>
       <c r="P120" t="n">
         <v>0.00202</v>
       </c>
       <c r="Q120" t="n">
-        <v>5.578160811322013e-05</v>
+        <v>7.187835475960841e-05</v>
       </c>
     </row>
     <row r="121">
@@ -7586,13 +7586,13 @@
       </c>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="n">
-        <v>-3.843554069084853e-05</v>
+        <v>-5.383657297093859e-05</v>
       </c>
       <c r="P121" t="n">
         <v>0.00271</v>
       </c>
       <c r="Q121" t="n">
-        <v>1.160753328863626e-05</v>
+        <v>1.625864503722345e-05</v>
       </c>
     </row>
     <row r="122">
@@ -7645,13 +7645,13 @@
       </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="n">
-        <v>-6.238019272441939e-05</v>
+        <v>-0.0001836886409969651</v>
       </c>
       <c r="P122" t="n">
         <v>0.00125</v>
       </c>
       <c r="Q122" t="n">
-        <v>4.584944165244825e-05</v>
+        <v>0.0001350111511327693</v>
       </c>
     </row>
     <row r="123">
@@ -7704,13 +7704,13 @@
       </c>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="n">
-        <v>-6.932703143327429e-05</v>
+        <v>-0.0001436813485744003</v>
       </c>
       <c r="P123" t="n">
         <v>0.00172</v>
       </c>
       <c r="Q123" t="n">
-        <v>3.66739996282021e-07</v>
+        <v>7.600743339585778e-07</v>
       </c>
     </row>
     <row r="124">
@@ -7763,13 +7763,13 @@
       </c>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="n">
-        <v>-7.706801164412899e-05</v>
+        <v>-0.0001019750322336092</v>
       </c>
       <c r="P124" t="n">
         <v>0.00242</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.764857466650554e-05</v>
+        <v>2.33522823814965e-05</v>
       </c>
     </row>
     <row r="125">
@@ -7822,13 +7822,13 @@
       </c>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="n">
-        <v>-6.437968213551082e-05</v>
+        <v>-8.688062341430555e-05</v>
       </c>
       <c r="P125" t="n">
         <v>0.00321</v>
       </c>
       <c r="Q125" t="n">
-        <v>7.532422809854766e-05</v>
+        <v>0.0001016503293947375</v>
       </c>
     </row>
     <row r="126">
@@ -7881,13 +7881,13 @@
       </c>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="n">
-        <v>-4.302338841489536e-05</v>
+        <v>-0.0002493860345161283</v>
       </c>
       <c r="P126" t="n">
         <v>0.00176</v>
       </c>
       <c r="Q126" t="n">
-        <v>4.345362229904432e-05</v>
+        <v>0.0002518798948612896</v>
       </c>
     </row>
     <row r="127">
@@ -7940,13 +7940,13 @@
       </c>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="n">
-        <v>-7.964785817400243e-05</v>
+        <v>-0.0002158810352653343</v>
       </c>
       <c r="P127" t="n">
         <v>0.00239</v>
       </c>
       <c r="Q127" t="n">
-        <v>2.325717458680871e-05</v>
+        <v>6.30372622974776e-05</v>
       </c>
     </row>
     <row r="128">
@@ -7999,13 +7999,13 @@
       </c>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="n">
-        <v>-0.0001115804730396002</v>
+        <v>-0.0001578377698417741</v>
       </c>
       <c r="P128" t="n">
         <v>0.00313</v>
       </c>
       <c r="Q128" t="n">
-        <v>0.0001785287568633604</v>
+        <v>0.0002525404317468386</v>
       </c>
     </row>
     <row r="129">
@@ -8058,13 +8058,13 @@
       </c>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="n">
-        <v>-0.0001008221964851811</v>
+        <v>-0.0001326018997338431</v>
       </c>
       <c r="P129" t="n">
         <v>0.00447</v>
       </c>
       <c r="Q129" t="n">
-        <v>7.481006979200441e-05</v>
+        <v>9.839060960251155e-05</v>
       </c>
     </row>
     <row r="130">
@@ -8117,13 +8117,13 @@
       </c>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="n">
-        <v>-0.0001520777701801774</v>
+        <v>-0.0002070613698182887</v>
       </c>
       <c r="P130" t="n">
         <v>0.00111</v>
       </c>
       <c r="Q130" t="n">
-        <v>0.0004227762011008932</v>
+        <v>0.0005756306080948425</v>
       </c>
     </row>
     <row r="131">
@@ -8176,13 +8176,13 @@
       </c>
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="n">
-        <v>-9.742216029252284e-05</v>
+        <v>-0.0001283726219268842</v>
       </c>
       <c r="P131" t="n">
         <v>0.00156</v>
       </c>
       <c r="Q131" t="n">
-        <v>2.055607582172232e-05</v>
+        <v>2.708662322657257e-05</v>
       </c>
     </row>
     <row r="132">
@@ -8235,13 +8235,13 @@
       </c>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="n">
-        <v>-8.392312715349849e-05</v>
+        <v>-9.232700301422954e-05</v>
       </c>
       <c r="P132" t="n">
         <v>0.00218</v>
       </c>
       <c r="Q132" t="n">
-        <v>0.0004280079484828423</v>
+        <v>0.0004708677153725706</v>
       </c>
     </row>
     <row r="133">
@@ -8294,13 +8294,13 @@
       </c>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="n">
-        <v>-6.290734571192767e-05</v>
+        <v>-7.730675132693018e-05</v>
       </c>
       <c r="P133" t="n">
         <v>0.00288</v>
       </c>
       <c r="Q133" t="n">
-        <v>3.195693162165926e-05</v>
+        <v>3.927182967408053e-05</v>
       </c>
     </row>
     <row r="134">
@@ -8353,13 +8353,13 @@
       </c>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="n">
-        <v>-0.0001909893624439988</v>
+        <v>-0.0002919482963386061</v>
       </c>
       <c r="P134" t="n">
         <v>0.000768</v>
       </c>
       <c r="Q134" t="n">
-        <v>0.003953479802590774</v>
+        <v>0.006043329734209146</v>
       </c>
     </row>
     <row r="135">
@@ -8412,13 +8412,13 @@
       </c>
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="n">
-        <v>-0.000143930561236818</v>
+        <v>-0.0001979885581293277</v>
       </c>
       <c r="P135" t="n">
         <v>0.00106</v>
       </c>
       <c r="Q135" t="n">
-        <v>0.0001413398111345552</v>
+        <v>0.0001944247640829998</v>
       </c>
     </row>
     <row r="136">
@@ -8471,13 +8471,13 @@
       </c>
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="n">
-        <v>-0.0001356964171857346</v>
+        <v>-0.000148221449774179</v>
       </c>
       <c r="P136" t="n">
         <v>0.00143</v>
       </c>
       <c r="Q136" t="n">
-        <v>6.214895907106645e-05</v>
+        <v>6.788542399657398e-05</v>
       </c>
     </row>
     <row r="137">
@@ -8530,13 +8530,13 @@
       </c>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="n">
-        <v>-0.0001062911642995678</v>
+        <v>-0.000126544800147467</v>
       </c>
       <c r="P137" t="n">
         <v>0.00189</v>
       </c>
       <c r="Q137" t="n">
-        <v>5.559027892867397e-05</v>
+        <v>6.618293047712522e-05</v>
       </c>
     </row>
     <row r="138">
@@ -8589,13 +8589,13 @@
       </c>
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="n">
-        <v>-0.0001768598401325955</v>
+        <v>-0.0003720950776118948</v>
       </c>
       <c r="P138" t="n">
         <v>0.000942</v>
       </c>
       <c r="Q138" t="n">
-        <v>6.260838340693879e-05</v>
+        <v>0.0001317216574746108</v>
       </c>
     </row>
     <row r="139">
@@ -8648,13 +8648,13 @@
       </c>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="n">
-        <v>-0.0001922604810013287</v>
+        <v>-0.0002985922845272949</v>
       </c>
       <c r="P139" t="n">
         <v>0.0013</v>
       </c>
       <c r="Q139" t="n">
-        <v>0.0001401578906499686</v>
+        <v>0.000217673775420398</v>
       </c>
     </row>
     <row r="140">
@@ -8707,13 +8707,13 @@
       </c>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="n">
-        <v>-0.00021648479741445</v>
+        <v>-0.0002364612620202182</v>
       </c>
       <c r="P140" t="n">
         <v>0.00172</v>
       </c>
       <c r="Q140" t="n">
-        <v>0.000471936858363501</v>
+        <v>0.0005154855512040758</v>
       </c>
     </row>
     <row r="141">
@@ -8766,13 +8766,13 @@
       </c>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="n">
-        <v>-0.0001793046222632919</v>
+        <v>-0.0002029023394168586</v>
       </c>
       <c r="P141" t="n">
         <v>0.00224</v>
       </c>
       <c r="Q141" t="n">
-        <v>0.0001151135674930334</v>
+        <v>0.0001302633019056233</v>
       </c>
     </row>
     <row r="142">
@@ -8825,13 +8825,13 @@
       </c>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="n">
-        <v>-0.0001250397705574847</v>
+        <v>-0.000467168971010684</v>
       </c>
       <c r="P142" t="n">
         <v>0.0013</v>
       </c>
       <c r="Q142" t="n">
-        <v>4.964078891132143e-05</v>
+        <v>0.0001854660814912416</v>
       </c>
     </row>
     <row r="143">
@@ -8884,13 +8884,13 @@
       </c>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="n">
-        <v>-0.0002261665414030786</v>
+        <v>-0.0004363164149788514</v>
       </c>
       <c r="P143" t="n">
         <v>0.00178</v>
       </c>
       <c r="Q143" t="n">
-        <v>0.0002578298571995096</v>
+        <v>0.0004974007130758906</v>
       </c>
     </row>
     <row r="144">
@@ -8943,13 +8943,13 @@
       </c>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="n">
-        <v>-0.0003168309196216944</v>
+        <v>-0.0003600283070563563</v>
       </c>
       <c r="P144" t="n">
         <v>0.00238</v>
       </c>
       <c r="Q144" t="n">
-        <v>0.004530682150590231</v>
+        <v>0.005148404790905896</v>
       </c>
     </row>
     <row r="145">
@@ -9002,13 +9002,13 @@
       </c>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="n">
-        <v>-0.000290290484510395</v>
+        <v>-0.0003136305303297305</v>
       </c>
       <c r="P145" t="n">
         <v>0.00313</v>
       </c>
       <c r="Q145" t="n">
-        <v>0.0001306307180296778</v>
+        <v>0.0001411337386483787</v>
       </c>
     </row>
     <row r="146">
@@ -9061,13 +9061,13 @@
       </c>
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="n">
-        <v>-0.0005108356936592393</v>
+        <v>-0.0005995361652814998</v>
       </c>
       <c r="P146" t="n">
         <v>0.0009990000000000001</v>
       </c>
       <c r="Q146" t="n">
-        <v>0.001236222378655359</v>
+        <v>0.001450877519981229</v>
       </c>
     </row>
     <row r="147">
@@ -9120,13 +9120,13 @@
       </c>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="n">
-        <v>-0.0003142818257561537</v>
+        <v>-0.0003546904894490684</v>
       </c>
       <c r="P147" t="n">
         <v>0.00143</v>
       </c>
       <c r="Q147" t="n">
-        <v>0.0001929690410142784</v>
+        <v>0.000217779960521728</v>
       </c>
     </row>
     <row r="148">
@@ -9179,13 +9179,13 @@
       </c>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="n">
-        <v>-0.0002687381957714804</v>
+        <v>-0.0002679290098637248</v>
       </c>
       <c r="P148" t="n">
         <v>0.00197</v>
       </c>
       <c r="Q148" t="n">
-        <v>0.004353558771497983</v>
+        <v>0.004340449959792342</v>
       </c>
     </row>
     <row r="149">
@@ -9238,13 +9238,13 @@
       </c>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="n">
-        <v>-0.0002009515132783566</v>
+        <v>-0.0002229476076303175</v>
       </c>
       <c r="P149" t="n">
         <v>0.00265</v>
       </c>
       <c r="Q149" t="n">
-        <v>0.0004541504200090859</v>
+        <v>0.0005038615932445175</v>
       </c>
     </row>
     <row r="150">
@@ -9297,13 +9297,13 @@
       </c>
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="n">
-        <v>-0.0006319423936207736</v>
+        <v>-0.0008002390320053273</v>
       </c>
       <c r="P150" t="n">
         <v>0.000733</v>
       </c>
       <c r="Q150" t="n">
-        <v>0.0004316166548429884</v>
+        <v>0.0005465632588596386</v>
       </c>
     </row>
     <row r="151">
@@ -9356,13 +9356,13 @@
       </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="n">
-        <v>-0.0004691144807291919</v>
+        <v>-0.0005405063832450702</v>
       </c>
       <c r="P151" t="n">
         <v>0.0009879999999999999</v>
       </c>
       <c r="Q151" t="n">
-        <v>2.894436346099114e-05</v>
+        <v>3.334924384622083e-05</v>
       </c>
     </row>
     <row r="152">
@@ -9415,13 +9415,13 @@
       </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="n">
-        <v>-0.0004379547532564972</v>
+        <v>-0.0004298733789886094</v>
       </c>
       <c r="P152" t="n">
         <v>0.00133</v>
       </c>
       <c r="Q152" t="n">
-        <v>5.781002742985763e-05</v>
+        <v>5.674328602649644e-05</v>
       </c>
     </row>
     <row r="153">
@@ -9474,13 +9474,13 @@
       </c>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="n">
-        <v>-0.0003390523769759912</v>
+        <v>-0.000362239125631763</v>
       </c>
       <c r="P153" t="n">
         <v>0.00173</v>
       </c>
       <c r="Q153" t="n">
-        <v>0.07187910391891013</v>
+        <v>0.07679469463393376</v>
       </c>
     </row>
     <row r="154">
@@ -9533,13 +9533,13 @@
       </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="n">
-        <v>-0.0006070487578782593</v>
+        <v>-0.0009610179252673087</v>
       </c>
       <c r="P154" t="n">
         <v>0.0009210000000000001</v>
       </c>
       <c r="Q154" t="n">
-        <v>0.00257388673340382</v>
+        <v>0.004074716003133389</v>
       </c>
     </row>
     <row r="155">
@@ -9592,13 +9592,13 @@
       </c>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="n">
-        <v>-0.000638521784510001</v>
+        <v>-0.0007928697972904994</v>
       </c>
       <c r="P155" t="n">
         <v>0.00126</v>
       </c>
       <c r="Q155" t="n">
-        <v>0.001315354876090602</v>
+        <v>0.001633311782418429</v>
       </c>
     </row>
     <row r="156">
@@ -9651,13 +9651,13 @@
       </c>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="n">
-        <v>-0.0007035645946135605</v>
+        <v>-0.0006790799243177301</v>
       </c>
       <c r="P156" t="n">
         <v>0.00162</v>
       </c>
       <c r="Q156" t="n">
-        <v>0.0004151031108220007</v>
+        <v>0.0004006571553474607</v>
       </c>
     </row>
     <row r="157">
@@ -9710,13 +9710,13 @@
       </c>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="n">
-        <v>-0.0005777005591910924</v>
+        <v>-0.0005816645980152119</v>
       </c>
       <c r="P157" t="n">
         <v>0.00208</v>
       </c>
       <c r="Q157" t="n">
-        <v>0.0004032349903153825</v>
+        <v>0.0004060018894146179</v>
       </c>
     </row>
     <row r="158">
@@ -9769,13 +9769,13 @@
       </c>
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="n">
-        <v>-0.0004485912503155654</v>
+        <v>-0.001104597854089202</v>
       </c>
       <c r="P158" t="n">
         <v>0.00128</v>
       </c>
       <c r="Q158" t="n">
-        <v>5.203658503660559e-05</v>
+        <v>0.0001281333510743474</v>
       </c>
     </row>
     <row r="159">
@@ -9828,13 +9828,13 @@
       </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="n">
-        <v>-0.0007721832994293386</v>
+        <v>-0.001112745347241281</v>
       </c>
       <c r="P159" t="n">
         <v>0.00175</v>
       </c>
       <c r="Q159" t="n">
-        <v>0.001227771446092648</v>
+        <v>0.001769265102113637</v>
       </c>
     </row>
     <row r="160">
@@ -9887,13 +9887,13 @@
       </c>
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="n">
-        <v>-0.001042628368651927</v>
+        <v>-0.001015112314477844</v>
       </c>
       <c r="P160" t="n">
         <v>0.00229</v>
       </c>
       <c r="Q160" t="n">
-        <v>0.0001219875191322755</v>
+        <v>0.0001187681407939078</v>
       </c>
     </row>
     <row r="161">
@@ -9946,13 +9946,13 @@
       </c>
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="n">
-        <v>-0.0009530681437234082</v>
+        <v>-0.0009003526437994196</v>
       </c>
       <c r="P161" t="n">
         <v>0.00296</v>
       </c>
       <c r="Q161" t="n">
-        <v>0.01734584021576603</v>
+        <v>0.01638641811714944</v>
       </c>
     </row>
     <row r="162">
@@ -10005,13 +10005,13 @@
       </c>
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="n">
-        <v>-0.001670169831768148</v>
+        <v>-0.00179599802801153</v>
       </c>
       <c r="P162" t="n">
         <v>0.000971</v>
       </c>
       <c r="Q162" t="n">
-        <v>0.0004693177227268496</v>
+        <v>0.0005046754458712401</v>
       </c>
     </row>
     <row r="163">
@@ -10064,13 +10064,13 @@
       </c>
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="n">
-        <v>-0.001016716264452621</v>
+        <v>-0.001053173854708427</v>
       </c>
       <c r="P163" t="n">
         <v>0.00139</v>
       </c>
       <c r="Q163" t="n">
-        <v>0.001098053565608831</v>
+        <v>0.001137427763085101</v>
       </c>
     </row>
     <row r="164">
@@ -10123,13 +10123,13 @@
       </c>
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="n">
-        <v>-0.0008725515143232755</v>
+        <v>-0.0008321754720522132</v>
       </c>
       <c r="P164" t="n">
         <v>0.00191</v>
       </c>
       <c r="Q164" t="n">
-        <v>0.005680310358244524</v>
+        <v>0.005417462323059907</v>
       </c>
     </row>
     <row r="165">
@@ -10182,13 +10182,13 @@
       </c>
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="n">
-        <v>-0.0006613139052542493</v>
+        <v>-0.0006924080039914297</v>
       </c>
       <c r="P165" t="n">
         <v>0.00256</v>
       </c>
       <c r="Q165" t="n">
-        <v>0.01626832206925453</v>
+        <v>0.01703323689818917</v>
       </c>
     </row>
     <row r="166">
@@ -10241,13 +10241,13 @@
       </c>
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="n">
-        <v>-0.002117420582132044</v>
+        <v>-0.002365599706601572</v>
       </c>
       <c r="P166" t="n">
         <v>0.000711</v>
       </c>
       <c r="Q166" t="n">
-        <v>0.001238691040547245</v>
+        <v>0.00138387582836192</v>
       </c>
     </row>
     <row r="167">
@@ -10300,13 +10300,13 @@
       </c>
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="n">
-        <v>-0.001540466595675073</v>
+        <v>-0.001599264786635784</v>
       </c>
       <c r="P167" t="n">
         <v>0.000966</v>
       </c>
       <c r="Q167" t="n">
-        <v>0.005237586425295247</v>
+        <v>0.005437500274561666</v>
       </c>
     </row>
     <row r="168">
@@ -10359,13 +10359,13 @@
       </c>
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="n">
-        <v>-0.001428071787606896</v>
+        <v>-0.001331286483399865</v>
       </c>
       <c r="P168" t="n">
         <v>0.0013</v>
       </c>
       <c r="Q168" t="n">
-        <v>0.003455933726008689</v>
+        <v>0.003221713289827674</v>
       </c>
     </row>
     <row r="169">
@@ -10418,13 +10418,13 @@
       </c>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="n">
-        <v>-0.001129162372769954</v>
+        <v>-0.001135421010281586</v>
       </c>
       <c r="P169" t="n">
         <v>0.00167</v>
       </c>
       <c r="Q169" t="n">
-        <v>0.001151745620225353</v>
+        <v>0.001158129430487218</v>
       </c>
     </row>
     <row r="170">
@@ -10477,13 +10477,13 @@
       </c>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="n">
-        <v>-0.002121438724610993</v>
+        <v>-0.002713196887030131</v>
       </c>
       <c r="P170" t="n">
         <v>0.000933</v>
       </c>
       <c r="Q170" t="n">
-        <v>0.0003945876027776446</v>
+        <v>0.0005046546209876044</v>
       </c>
     </row>
     <row r="171">
@@ -10536,13 +10536,13 @@
       </c>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="n">
-        <v>-0.002162044353837595</v>
+        <v>-0.002307655797655907</v>
       </c>
       <c r="P171" t="n">
         <v>0.00124</v>
       </c>
       <c r="Q171" t="n">
-        <v>0.005556453989362618</v>
+        <v>0.005930675399975681</v>
       </c>
     </row>
     <row r="172">
@@ -10595,13 +10595,13 @@
       </c>
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="n">
-        <v>-0.002334022460103612</v>
+        <v>-0.002105885734071443</v>
       </c>
       <c r="P172" t="n">
         <v>0.0016</v>
       </c>
       <c r="Q172" t="n">
-        <v>0.003687755486963707</v>
+        <v>0.003327299459832881</v>
       </c>
     </row>
     <row r="173">
@@ -10654,13 +10654,13 @@
       </c>
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="n">
-        <v>-0.001927946239919438</v>
+        <v>-0.001813015615177418</v>
       </c>
       <c r="P173" t="n">
         <v>0.00202</v>
       </c>
       <c r="Q173" t="n">
-        <v>0.002448491724697686</v>
+        <v>0.002302529831275321</v>
       </c>
     </row>
     <row r="174">
@@ -10713,13 +10713,13 @@
       </c>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="n">
-        <v>-0.001647864623899418</v>
+        <v>-0.002855664996516167</v>
       </c>
       <c r="P174" t="n">
         <v>0.00134</v>
       </c>
       <c r="Q174" t="n">
-        <v>0.003625302172578719</v>
+        <v>0.006282462992335568</v>
       </c>
     </row>
     <row r="175">
@@ -10772,13 +10772,13 @@
       </c>
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="n">
-        <v>-0.00274551748417705</v>
+        <v>-0.003180541797299959</v>
       </c>
       <c r="P175" t="n">
         <v>0.00181</v>
       </c>
       <c r="Q175" t="n">
-        <v>0.005326303919303477</v>
+        <v>0.006170251086761921</v>
       </c>
     </row>
     <row r="176">
@@ -10831,13 +10831,13 @@
       </c>
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="n">
-        <v>-0.003670037596366073</v>
+        <v>-0.003250140969326785</v>
       </c>
       <c r="P176" t="n">
         <v>0.00237</v>
       </c>
       <c r="Q176" t="n">
-        <v>0.001640506805575635</v>
+        <v>0.001452813013289073</v>
       </c>
     </row>
     <row r="177">
@@ -10890,13 +10890,13 @@
       </c>
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="n">
-        <v>-0.003213558026753359</v>
+        <v>-0.002803255647958014</v>
       </c>
       <c r="P177" t="n">
         <v>0.003</v>
       </c>
       <c r="Q177" t="n">
-        <v>0.004402574496652103</v>
+        <v>0.003840460237702479</v>
       </c>
     </row>
     <row r="178">
@@ -10949,13 +10949,13 @@
       </c>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="n">
-        <v>-0.005536127785944879</v>
+        <v>-0.005612076999875881</v>
       </c>
       <c r="P178" t="n">
         <v>0.00101</v>
       </c>
       <c r="Q178" t="n">
-        <v>0.0009300694680387397</v>
+        <v>0.000942828935979148</v>
       </c>
     </row>
     <row r="179">
@@ -11008,13 +11008,13 @@
       </c>
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="n">
-        <v>-0.003333890241133661</v>
+        <v>-0.003298701182134233</v>
       </c>
       <c r="P179" t="n">
         <v>0.00143</v>
       </c>
       <c r="Q179" t="n">
-        <v>0.01213536047772653</v>
+        <v>0.01200727230296861</v>
       </c>
     </row>
     <row r="180">
@@ -11067,13 +11067,13 @@
       </c>
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="n">
-        <v>-0.002835972259514847</v>
+        <v>-0.002660284151681368</v>
       </c>
       <c r="P180" t="n">
         <v>0.00197</v>
       </c>
       <c r="Q180" t="n">
-        <v>0.0006948132035811375</v>
+        <v>0.0006517696171619352</v>
       </c>
     </row>
     <row r="181">
@@ -11126,13 +11126,13 @@
       </c>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="n">
-        <v>-0.002169761044395915</v>
+        <v>-0.002200312907838853</v>
       </c>
       <c r="P181" t="n">
         <v>0.00259</v>
       </c>
       <c r="Q181" t="n">
-        <v>0.01011108646688497</v>
+        <v>0.01025345815052905</v>
       </c>
     </row>
     <row r="182">
@@ -11185,13 +11185,13 @@
       </c>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="n">
-        <v>-0.007153948917476945</v>
+        <v>-0.007311913768667648</v>
       </c>
       <c r="P182" t="n">
         <v>0.000737</v>
       </c>
       <c r="Q182" t="n">
-        <v>0.005651619644806787</v>
+        <v>0.005776411877247442</v>
       </c>
     </row>
     <row r="183">
@@ -11244,13 +11244,13 @@
       </c>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="n">
-        <v>-0.005067968518076327</v>
+        <v>-0.004945795564407927</v>
       </c>
       <c r="P183" t="n">
         <v>0.0009909999999999999</v>
       </c>
       <c r="Q183" t="n">
-        <v>0.00328404359971346</v>
+        <v>0.003204875525736337</v>
       </c>
     </row>
     <row r="184">
@@ -11303,13 +11303,13 @@
       </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="n">
-        <v>-0.004726158938000736</v>
+        <v>-0.004300842127479212</v>
       </c>
       <c r="P184" t="n">
         <v>0.00131</v>
       </c>
       <c r="Q184" t="n">
-        <v>0.0005198774831800809</v>
+        <v>0.0004730926340227133</v>
       </c>
     </row>
     <row r="185">
@@ -11362,13 +11362,13 @@
       </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="n">
-        <v>-0.003711960578597342</v>
+        <v>-0.003610225710890416</v>
       </c>
       <c r="P185" t="n">
         <v>0.00169</v>
       </c>
       <c r="Q185" t="n">
-        <v>0.005419462444752119</v>
+        <v>0.005270929537900008</v>
       </c>
     </row>
     <row r="186">
@@ -11421,13 +11421,13 @@
       </c>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="n">
-        <v>-0.007357877314943917</v>
+        <v>-0.008008456415545545</v>
       </c>
       <c r="P186" t="n">
         <v>0.0009810000000000001</v>
       </c>
       <c r="Q186" t="n">
-        <v>0.01993984752349802</v>
+        <v>0.02170291688612843</v>
       </c>
     </row>
     <row r="187">
@@ -11480,13 +11480,13 @@
       </c>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="n">
-        <v>-0.007261281432489447</v>
+        <v>-0.007027695746764691</v>
       </c>
       <c r="P187" t="n">
         <v>0.00128</v>
       </c>
       <c r="Q187" t="n">
-        <v>0.008568312090337546</v>
+        <v>0.008292680981182335</v>
       </c>
     </row>
     <row r="188">
@@ -11539,13 +11539,13 @@
       </c>
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="n">
-        <v>-0.007826434956032306</v>
+        <v>-0.006790862128334803</v>
       </c>
       <c r="P188" t="n">
         <v>0.00162</v>
       </c>
       <c r="Q188" t="n">
-        <v>0.0193312943413998</v>
+        <v>0.01677342945698697</v>
       </c>
     </row>
     <row r="189">
@@ -11598,13 +11598,13 @@
       </c>
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="n">
-        <v>-0.00649108460835824</v>
+        <v>-0.005848745332179317</v>
       </c>
       <c r="P189" t="n">
         <v>0.00206</v>
       </c>
       <c r="Q189" t="n">
-        <v>0.0006815638838776151</v>
+        <v>0.0006141182598788283</v>
       </c>
     </row>
     <row r="190">
@@ -11657,13 +11657,13 @@
       </c>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="n">
-        <v>-0.006086306836200817</v>
+        <v>-0.00799139354350295</v>
       </c>
       <c r="P190" t="n">
         <v>0.00141</v>
       </c>
       <c r="Q190" t="n">
-        <v>0.001278124435602172</v>
+        <v>0.001678192644135619</v>
       </c>
     </row>
     <row r="191">
@@ -11716,13 +11716,13 @@
       </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="n">
-        <v>-0.009694531376800821</v>
+        <v>-0.009597661461724123</v>
       </c>
       <c r="P191" t="n">
         <v>0.00189</v>
       </c>
       <c r="Q191" t="n">
-        <v>0.01221510953476903</v>
+        <v>0.01209305344177239</v>
       </c>
     </row>
     <row r="192">
@@ -11775,13 +11775,13 @@
       </c>
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="n">
-        <v>-0.01249625992706188</v>
+        <v>-0.01038455288796535</v>
       </c>
       <c r="P192" t="n">
         <v>0.00239</v>
       </c>
       <c r="Q192" t="n">
-        <v>0.01537039971028611</v>
+        <v>0.01277300005219738</v>
       </c>
     </row>
     <row r="193">
@@ -11834,13 +11834,13 @@
       </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="n">
-        <v>-0.01113028827177804</v>
+        <v>-0.009207005367420709</v>
       </c>
       <c r="P193" t="n">
         <v>0.00301</v>
       </c>
       <c r="Q193" t="n">
-        <v>0.00657800036862082</v>
+        <v>0.005441340172145639</v>
       </c>
     </row>
     <row r="194">
@@ -11893,13 +11893,13 @@
       </c>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="n">
-        <v>-0.01724311194720054</v>
+        <v>-0.0166952673358057</v>
       </c>
       <c r="P194" t="n">
         <v>0.00109</v>
       </c>
       <c r="Q194" t="n">
-        <v>0.009776844474062704</v>
+        <v>0.009466216579401828</v>
       </c>
     </row>
     <row r="195">
@@ -11952,13 +11952,13 @@
       </c>
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="n">
-        <v>-0.01021642094771368</v>
+        <v>-0.009836897888224365</v>
       </c>
       <c r="P195" t="n">
         <v>0.00152</v>
       </c>
       <c r="Q195" t="n">
-        <v>0.07396688766144707</v>
+        <v>0.07121914071074441</v>
       </c>
     </row>
     <row r="196">
@@ -12011,13 +12011,13 @@
       </c>
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="n">
-        <v>-0.008819546900392539</v>
+        <v>-0.00819574314001198</v>
       </c>
       <c r="P196" t="n">
         <v>0.00208</v>
       </c>
       <c r="Q196" t="n">
-        <v>0.004656720763407261</v>
+        <v>0.004327352377926325</v>
       </c>
     </row>
     <row r="197">
@@ -12070,13 +12070,13 @@
       </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="n">
-        <v>-0.006773692446723989</v>
+        <v>-0.006720126772669539</v>
       </c>
       <c r="P197" t="n">
         <v>0.00264</v>
       </c>
       <c r="Q197" t="n">
-        <v>0.006976903220125709</v>
+        <v>0.006921730575849626</v>
       </c>
     </row>
     <row r="198">
@@ -12129,13 +12129,13 @@
       </c>
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="n">
-        <v>-0.02250734409147505</v>
+        <v>-0.02149223463903916</v>
       </c>
       <c r="P198" t="n">
         <v>0.000811</v>
       </c>
       <c r="Q198" t="n">
-        <v>0.0441143944192911</v>
+        <v>0.04212477989251676</v>
       </c>
     </row>
     <row r="199">
@@ -12188,13 +12188,13 @@
       </c>
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="n">
-        <v>-0.01566885669536093</v>
+        <v>-0.01468701864557879</v>
       </c>
       <c r="P199" t="n">
         <v>0.00107</v>
       </c>
       <c r="Q199" t="n">
-        <v>0.02256315364131974</v>
+        <v>0.02114930684963346</v>
       </c>
     </row>
     <row r="200">
@@ -12247,13 +12247,13 @@
       </c>
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="n">
-        <v>-0.01452344037790868</v>
+        <v>-0.01302986403394438</v>
       </c>
       <c r="P200" t="n">
         <v>0.00139</v>
       </c>
       <c r="Q200" t="n">
-        <v>0.02033281652907215</v>
+        <v>0.01824180964752213</v>
       </c>
     </row>
     <row r="201">
@@ -12306,13 +12306,13 @@
       </c>
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="n">
-        <v>-0.01162003611892637</v>
+        <v>-0.01101623979313226</v>
       </c>
       <c r="P201" t="n">
         <v>0.00177</v>
       </c>
       <c r="Q201" t="n">
-        <v>0.06472360118241986</v>
+        <v>0.06136045564774668</v>
       </c>
     </row>
     <row r="202">
@@ -12365,13 +12365,13 @@
       </c>
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="n">
-        <v>-0.02394514775972041</v>
+        <v>-0.0231129458244792</v>
       </c>
       <c r="P202" t="n">
         <v>0.00108</v>
       </c>
       <c r="Q202" t="n">
-        <v>0.00706381858911752</v>
+        <v>0.006818319018221364</v>
       </c>
     </row>
     <row r="203">
@@ -12424,13 +12424,13 @@
       </c>
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="n">
-        <v>-0.02316406058282471</v>
+        <v>-0.02095364386488447</v>
       </c>
       <c r="P203" t="n">
         <v>0.00138</v>
       </c>
       <c r="Q203" t="n">
-        <v>0.04702304298313416</v>
+        <v>0.04253589704571547</v>
       </c>
     </row>
     <row r="204">
@@ -12483,13 +12483,13 @@
       </c>
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="n">
-        <v>-0.02452943655835468</v>
+        <v>-0.02072377474421004</v>
       </c>
       <c r="P204" t="n">
         <v>0.00174</v>
       </c>
       <c r="Q204" t="n">
-        <v>0.01211754165982721</v>
+        <v>0.01023754472363976</v>
       </c>
     </row>
     <row r="205">
@@ -12542,13 +12542,13 @@
       </c>
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="n">
-        <v>-0.02079929911867552</v>
+        <v>-0.01817149020993197</v>
       </c>
       <c r="P205" t="n">
         <v>0.00217</v>
       </c>
       <c r="Q205" t="n">
-        <v>0.008049328758927428</v>
+        <v>0.007032366711243672</v>
       </c>
     </row>
     <row r="206">
@@ -12601,13 +12601,13 @@
       </c>
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="n">
-        <v>-0.02023569192473621</v>
+        <v>-0.02181533768827937</v>
       </c>
       <c r="P206" t="n">
         <v>0.00156</v>
       </c>
       <c r="Q206" t="n">
-        <v>0.0001766575905029471</v>
+        <v>0.0001904478980186789</v>
       </c>
     </row>
     <row r="207">
@@ -12660,13 +12660,13 @@
       </c>
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="n">
-        <v>-0.03195582120520012</v>
+        <v>-0.02828795365851925</v>
       </c>
       <c r="P207" t="n">
         <v>0.00204</v>
       </c>
       <c r="Q207" t="n">
-        <v>0.01294210758810605</v>
+        <v>0.0114566212317003</v>
       </c>
     </row>
     <row r="208">
@@ -12719,13 +12719,13 @@
       </c>
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="n">
-        <v>-0.04094596597241599</v>
+        <v>-0.03242340420233372</v>
       </c>
       <c r="P208" t="n">
         <v>0.0025</v>
       </c>
       <c r="Q208" t="n">
-        <v>0.02808893265707737</v>
+        <v>0.02224245528280093</v>
       </c>
     </row>
     <row r="209">
@@ -12778,13 +12778,13 @@
       </c>
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="n">
-        <v>-0.03579210330500361</v>
+        <v>-0.02850773808677904</v>
       </c>
       <c r="P209" t="n">
         <v>0.00313</v>
       </c>
       <c r="Q209" t="n">
-        <v>0.0008339560070065842</v>
+        <v>0.0006642302974219518</v>
       </c>
     </row>
     <row r="210">
@@ -12837,13 +12837,13 @@
       </c>
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="n">
-        <v>-0.0422727040856657</v>
+        <v>-0.03985717560052972</v>
       </c>
       <c r="P210" t="n">
         <v>0.00186</v>
       </c>
       <c r="Q210" t="n">
-        <v>0.1069499413367342</v>
+        <v>0.1008386542693402</v>
       </c>
     </row>
     <row r="211">
@@ -12896,13 +12896,13 @@
       </c>
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="n">
-        <v>-0.02485285604972384</v>
+        <v>-0.0236734369385524</v>
       </c>
       <c r="P211" t="n">
         <v>0.00264</v>
       </c>
       <c r="Q211" t="n">
-        <v>0.008872469609751408</v>
+        <v>0.008451416987063205</v>
       </c>
     </row>
     <row r="212">
@@ -12955,13 +12955,13 @@
       </c>
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="n">
-        <v>-0.02154576784788056</v>
+        <v>-0.0200253220061032</v>
       </c>
       <c r="P212" t="n">
         <v>0.00368</v>
       </c>
       <c r="Q212" t="n">
-        <v>0.03490414391356652</v>
+        <v>0.03244102164988719</v>
       </c>
     </row>
     <row r="213">
@@ -13014,13 +13014,13 @@
       </c>
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="n">
-        <v>-0.01713332650325762</v>
+        <v>-0.01681637181598788</v>
       </c>
       <c r="P213" t="n">
         <v>0.00486</v>
       </c>
       <c r="Q213" t="n">
-        <v>0.03940665095749252</v>
+        <v>0.03867765517677212</v>
       </c>
     </row>
     <row r="214">
@@ -13073,13 +13073,13 @@
       </c>
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="n">
-        <v>-0.05520135230240453</v>
+        <v>-0.05077190782496173</v>
       </c>
       <c r="P214" t="n">
         <v>0.0014</v>
       </c>
       <c r="Q214" t="n">
-        <v>0.04084900070377935</v>
+        <v>0.03757121179047168</v>
       </c>
     </row>
     <row r="215">
@@ -13132,13 +13132,13 @@
       </c>
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="n">
-        <v>-0.03852434710881811</v>
+        <v>-0.03552952681187716</v>
       </c>
       <c r="P215" t="n">
         <v>0.00182</v>
       </c>
       <c r="Q215" t="n">
-        <v>0.02550311778603759</v>
+        <v>0.02352054674946268</v>
       </c>
     </row>
     <row r="216">
@@ -13191,13 +13191,13 @@
       </c>
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="n">
-        <v>-0.03584350682229528</v>
+        <v>-0.03209565290303516</v>
       </c>
       <c r="P216" t="n">
         <v>0.00247</v>
       </c>
       <c r="Q216" t="n">
-        <v>0.1053799100575481</v>
+        <v>0.09436121953492338</v>
       </c>
     </row>
     <row r="217">
@@ -13250,13 +13250,13 @@
       </c>
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="n">
-        <v>-0.0301485941089068</v>
+        <v>-0.0282407561733148</v>
       </c>
       <c r="P217" t="n">
         <v>0.00328</v>
       </c>
       <c r="Q217" t="n">
-        <v>0.6331204762870428</v>
+        <v>0.5930558796396108</v>
       </c>
     </row>
     <row r="218">
@@ -13309,13 +13309,13 @@
       </c>
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="n">
-        <v>-0.0581513410279948</v>
+        <v>-0.05271759361548465</v>
       </c>
       <c r="P218" t="n">
         <v>0.00192</v>
       </c>
       <c r="Q218" t="n">
-        <v>0.04058963603754037</v>
+        <v>0.03679688034360828</v>
       </c>
     </row>
     <row r="219">
@@ -13368,13 +13368,13 @@
       </c>
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="n">
-        <v>-0.05740968434524439</v>
+        <v>-0.05039198707613825</v>
       </c>
       <c r="P219" t="n">
         <v>0.00239</v>
       </c>
       <c r="Q219" t="n">
-        <v>0.05476883886536315</v>
+        <v>0.0480739556706359</v>
       </c>
     </row>
     <row r="220">
@@ -13427,13 +13427,13 @@
       </c>
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="n">
-        <v>-0.06192594595092218</v>
+        <v>-0.05191637887686276</v>
       </c>
       <c r="P220" t="n">
         <v>0.00303</v>
       </c>
       <c r="Q220" t="n">
-        <v>0.05944890811288529</v>
+        <v>0.04983972372178824</v>
       </c>
     </row>
     <row r="221">
@@ -13486,13 +13486,13 @@
       </c>
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="n">
-        <v>-0.05247577224680963</v>
+        <v>-0.04534593942496264</v>
       </c>
       <c r="P221" t="n">
         <v>0.00396</v>
       </c>
       <c r="Q221" t="n">
-        <v>0.08081268926008683</v>
+        <v>0.06983274671444248</v>
       </c>
     </row>
     <row r="222">
@@ -13545,13 +13545,13 @@
       </c>
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="n">
-        <v>-0.04935456503331224</v>
+        <v>-0.04812083278716995</v>
       </c>
       <c r="P222" t="n">
         <v>0.00291</v>
       </c>
       <c r="Q222" t="n">
-        <v>0.05379647588631035</v>
+        <v>0.05245170773801525</v>
       </c>
     </row>
     <row r="223">
@@ -13604,13 +13604,13 @@
       </c>
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="n">
-        <v>-0.07954905284207411</v>
+        <v>-0.06683066854860015</v>
       </c>
       <c r="P223" t="n">
         <v>0.00358</v>
       </c>
       <c r="Q223" t="n">
-        <v>0.1877357647072949</v>
+        <v>0.1577203777746963</v>
       </c>
     </row>
     <row r="224">
@@ -13663,13 +13663,13 @@
       </c>
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="n">
-        <v>-0.1037668194426222</v>
+        <v>-0.08081935802006159</v>
       </c>
       <c r="P224" t="n">
         <v>0.00459</v>
       </c>
       <c r="Q224" t="n">
-        <v>0.01020027835120976</v>
+        <v>0.007944542893372054</v>
       </c>
     </row>
     <row r="225">
@@ -13722,13 +13722,13 @@
       </c>
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="n">
-        <v>-0.09413546103700637</v>
+        <v>-0.07374035748068114</v>
       </c>
       <c r="P225" t="n">
         <v>0.00556</v>
       </c>
       <c r="Q225" t="n">
-        <v>0.0251341680968807</v>
+        <v>0.01968867544734186</v>
       </c>
     </row>
     <row r="226">
@@ -13781,13 +13781,13 @@
       </c>
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="n">
-        <v>-0.07639344871973948</v>
+        <v>-0.07238558023617825</v>
       </c>
       <c r="P226" t="n">
         <v>0.0179</v>
       </c>
       <c r="Q226" t="n">
-        <v>0.03399508468028407</v>
+        <v>0.03221158320509932</v>
       </c>
     </row>
     <row r="227">
@@ -13840,13 +13840,13 @@
       </c>
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="n">
-        <v>-0.04612010690642737</v>
+        <v>-0.04452332523073365</v>
       </c>
       <c r="P227" t="n">
         <v>0.0244</v>
       </c>
       <c r="Q227" t="n">
-        <v>0.02020060682501519</v>
+        <v>0.01950121645106134</v>
       </c>
     </row>
     <row r="228">
@@ -13899,13 +13899,13 @@
       </c>
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="n">
-        <v>-0.04024904149000952</v>
+        <v>-0.0380514138066524</v>
       </c>
       <c r="P228" t="n">
         <v>0.0369</v>
       </c>
       <c r="Q228" t="n">
-        <v>0.1344317985766318</v>
+        <v>0.127091722114219</v>
       </c>
     </row>
     <row r="229">
@@ -13958,13 +13958,13 @@
       </c>
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="n">
-        <v>-0.03177780980085955</v>
+        <v>-0.03142626828574242</v>
       </c>
       <c r="P229" t="n">
         <v>0.0376</v>
       </c>
       <c r="Q229" t="n">
-        <v>0.05847117003358157</v>
+        <v>0.05782433364576606</v>
       </c>
     </row>
     <row r="230">
@@ -14017,13 +14017,13 @@
       </c>
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="n">
-        <v>-0.09844170834253682</v>
+        <v>-0.09110249439275683</v>
       </c>
       <c r="P230" t="n">
         <v>0.013</v>
       </c>
       <c r="Q230" t="n">
-        <v>0.2185405925204318</v>
+        <v>0.2022475375519202</v>
       </c>
     </row>
     <row r="231">
@@ -14076,13 +14076,13 @@
       </c>
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="n">
-        <v>-0.06993747381391448</v>
+        <v>-0.06549416872279795</v>
       </c>
       <c r="P231" t="n">
         <v>0.0174</v>
       </c>
       <c r="Q231" t="n">
-        <v>0.006350322622303435</v>
+        <v>0.005946870520030055</v>
       </c>
     </row>
     <row r="232">
@@ -14135,13 +14135,13 @@
       </c>
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="n">
-        <v>-0.06811493858115265</v>
+        <v>-0.06202300412235393</v>
       </c>
       <c r="P232" t="n">
         <v>0.0283</v>
       </c>
       <c r="Q232" t="n">
-        <v>0.5176735332167601</v>
+        <v>0.4713748313298899</v>
       </c>
     </row>
     <row r="233">
@@ -14194,13 +14194,13 @@
       </c>
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="n">
-        <v>-0.05897422204742515</v>
+        <v>-0.05538299813725604</v>
       </c>
       <c r="P233" t="n">
         <v>0.0349</v>
       </c>
       <c r="Q233" t="n">
-        <v>0.1869482838903377</v>
+        <v>0.1755641040951016</v>
       </c>
     </row>
     <row r="234">
@@ -14253,13 +14253,13 @@
       </c>
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="n">
-        <v>-0.1032990716477406</v>
+        <v>-0.09423722378890646</v>
       </c>
       <c r="P234" t="n">
         <v>0.0199</v>
       </c>
       <c r="Q234" t="n">
-        <v>0.1074310345136503</v>
+        <v>0.09800671274046273</v>
       </c>
     </row>
     <row r="235">
@@ -14312,13 +14312,13 @@
       </c>
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="n">
-        <v>-0.1044577912992712</v>
+        <v>-0.09333615111522416</v>
       </c>
       <c r="P235" t="n">
         <v>0.0237</v>
       </c>
       <c r="Q235" t="n">
-        <v>0.3781372045033619</v>
+        <v>0.3378768670371115</v>
       </c>
     </row>
     <row r="236">
@@ -14371,13 +14371,13 @@
       </c>
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="n">
-        <v>-0.1144583547158197</v>
+        <v>-0.09818891389656753</v>
       </c>
       <c r="P236" t="n">
         <v>0.0307</v>
       </c>
       <c r="Q236" t="n">
-        <v>0.185422534639628</v>
+        <v>0.1590660405124394</v>
       </c>
     </row>
     <row r="237">
@@ -14430,13 +14430,13 @@
       </c>
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="n">
-        <v>-0.0999357072824747</v>
+        <v>-0.08752858355956081</v>
       </c>
       <c r="P237" t="n">
         <v>0.0371</v>
       </c>
       <c r="Q237" t="n">
-        <v>0.01369119189769904</v>
+        <v>0.01199141594765983</v>
       </c>
     </row>
     <row r="238">
@@ -14489,13 +14489,13 @@
       </c>
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="n">
-        <v>-0.08673551692779483</v>
+        <v>-0.08500775769684936</v>
       </c>
       <c r="P238" t="n">
         <v>0.0283</v>
       </c>
       <c r="Q238" t="n">
-        <v>0.2489309335827712</v>
+        <v>0.2439722645899577</v>
       </c>
     </row>
     <row r="239">
@@ -14548,13 +14548,13 @@
       </c>
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="n">
-        <v>-0.13686413553536</v>
+        <v>-0.1175560607105584</v>
       </c>
       <c r="P239" t="n">
         <v>0.0307</v>
       </c>
       <c r="Q239" t="n">
-        <v>19.8452996526272</v>
+        <v>17.04562880303096</v>
       </c>
     </row>
     <row r="240">
@@ -14607,13 +14607,13 @@
       </c>
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="n">
-        <v>-0.1890527506873739</v>
+        <v>-0.1507576126036769</v>
       </c>
       <c r="P240" t="n">
         <v>0.0401</v>
       </c>
       <c r="Q240" t="n">
-        <v>0.9150153133268897</v>
+        <v>0.7296668450017961</v>
       </c>
     </row>
     <row r="241">
@@ -14666,13 +14666,13 @@
       </c>
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="n">
-        <v>-0.1722216016900978</v>
+        <v>-0.1383074945213775</v>
       </c>
       <c r="P241" t="n">
         <v>0.0589</v>
       </c>
       <c r="Q241" t="n">
-        <v>0.2101103540619193</v>
+        <v>0.1687351433160805</v>
       </c>
     </row>
     <row r="242">
@@ -14725,13 +14725,13 @@
       </c>
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="n">
-        <v>-0.0001567149000085263</v>
+        <v>-0.000202505711378698</v>
       </c>
       <c r="P242" t="n">
         <v>0.00423</v>
       </c>
       <c r="Q242" t="n">
-        <v>6.895455600375156e-05</v>
+        <v>8.910251300662714e-05</v>
       </c>
     </row>
     <row r="243">
@@ -14784,13 +14784,13 @@
       </c>
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="n">
-        <v>-9.915310939779676e-05</v>
+        <v>-0.0001256060412732805</v>
       </c>
       <c r="P243" t="n">
         <v>0.00677</v>
       </c>
       <c r="Q243" t="n">
-        <v>0.0002637472709981394</v>
+        <v>0.0003341120697869261</v>
       </c>
     </row>
     <row r="244">
@@ -14843,13 +14843,13 @@
       </c>
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="n">
-        <v>-8.533863703326924e-05</v>
+        <v>-9.228131972870596e-05</v>
       </c>
       <c r="P244" t="n">
         <v>0.0109</v>
       </c>
       <c r="Q244" t="n">
-        <v>0.0001245944100685731</v>
+        <v>0.0001347307268039107</v>
       </c>
     </row>
     <row r="245">
@@ -14902,13 +14902,13 @@
       </c>
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="n">
-        <v>-6.437061927132971e-05</v>
+        <v>-7.858161155951665e-05</v>
       </c>
       <c r="P245" t="n">
         <v>0.0167</v>
       </c>
       <c r="Q245" t="n">
-        <v>3.083352663096693e-05</v>
+        <v>3.764059193700848e-05</v>
       </c>
     </row>
     <row r="246">
@@ -14961,13 +14961,13 @@
       </c>
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="n">
-        <v>-0.0001916028113150986</v>
+        <v>-0.00027686228595945</v>
       </c>
       <c r="P246" t="n">
         <v>0.00287</v>
       </c>
       <c r="Q246" t="n">
-        <v>1.691852823912321e-05</v>
+        <v>2.444693985021944e-05</v>
       </c>
     </row>
     <row r="247">
@@ -15020,13 +15020,13 @@
       </c>
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="n">
-        <v>-0.0001473517050080893</v>
+        <v>-0.0001929859607434895</v>
       </c>
       <c r="P247" t="n">
         <v>0.00439</v>
       </c>
       <c r="Q247" t="n">
-        <v>0.0002799682395153697</v>
+        <v>0.0003666733254126301</v>
       </c>
     </row>
     <row r="248">
@@ -15079,13 +15079,13 @@
       </c>
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="n">
-        <v>-0.000139320815643797</v>
+        <v>-0.0001487753286205641</v>
       </c>
       <c r="P248" t="n">
         <v>0.00691</v>
       </c>
       <c r="Q248" t="n">
-        <v>3.483020391094926e-05</v>
+        <v>3.719383215514103e-05</v>
       </c>
     </row>
     <row r="249">
@@ -15138,13 +15138,13 @@
       </c>
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="n">
-        <v>-0.0001105534856907371</v>
+        <v>-0.00013055528943881</v>
       </c>
       <c r="P249" t="n">
         <v>0.009769999999999999</v>
       </c>
       <c r="Q249" t="n">
-        <v>0.0001381918571134214</v>
+        <v>0.0001631941117985125</v>
       </c>
     </row>
     <row r="250">
@@ -15197,13 +15197,13 @@
       </c>
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="n">
-        <v>-0.0001762357397121517</v>
+        <v>-0.0003414173222766157</v>
       </c>
       <c r="P250" t="n">
         <v>0.00329</v>
       </c>
       <c r="Q250" t="n">
-        <v>8.935152003406092e-05</v>
+        <v>0.0001730985823942441</v>
       </c>
     </row>
     <row r="251">
@@ -15256,13 +15256,13 @@
       </c>
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="n">
-        <v>-0.0001963569369123084</v>
+        <v>-0.0002885420008670059</v>
       </c>
       <c r="P251" t="n">
         <v>0.00502</v>
       </c>
       <c r="Q251" t="n">
-        <v>0.0001637616853848652</v>
+        <v>0.0002406440287230829</v>
       </c>
     </row>
     <row r="252">
@@ -15315,13 +15315,13 @@
       </c>
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="n">
-        <v>-0.0002208575232552621</v>
+        <v>-0.0002353068885737541</v>
       </c>
       <c r="P252" t="n">
         <v>0.00797</v>
       </c>
       <c r="Q252" t="n">
-        <v>0.0003644149133711825</v>
+        <v>0.0003882563661466943</v>
       </c>
     </row>
     <row r="253">
@@ -15374,13 +15374,13 @@
       </c>
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="n">
-        <v>-0.0001900209194800017</v>
+        <v>-0.0002122484924832386</v>
       </c>
       <c r="P253" t="n">
         <v>0.0109</v>
       </c>
       <c r="Q253" t="n">
-        <v>0.0001290242043269211</v>
+        <v>0.0001441167263961191</v>
       </c>
     </row>
     <row r="254">
@@ -15433,13 +15433,13 @@
       </c>
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="n">
-        <v>-0.000124693370248757</v>
+        <v>-0.0004098600758154719</v>
       </c>
       <c r="P254" t="n">
         <v>0.00467</v>
       </c>
       <c r="Q254" t="n">
-        <v>0.0001446443094885582</v>
+        <v>0.0004754376879459474</v>
       </c>
     </row>
     <row r="255">
@@ -15492,13 +15492,13 @@
       </c>
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="n">
-        <v>-0.0002327343160002596</v>
+        <v>-0.0004066440771854564</v>
       </c>
       <c r="P255" t="n">
         <v>0.00684</v>
       </c>
       <c r="Q255" t="n">
-        <v>0.0003235006992403608</v>
+        <v>0.0005652352672877844</v>
       </c>
     </row>
     <row r="256">
@@ -15551,13 +15551,13 @@
       </c>
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="n">
-        <v>-0.0003259445022757944</v>
+        <v>-0.0003551541356914273</v>
       </c>
       <c r="P256" t="n">
         <v>0.0107</v>
       </c>
       <c r="Q256" t="n">
-        <v>0.0003422417273895841</v>
+        <v>0.0003729118424759987</v>
       </c>
     </row>
     <row r="257">
@@ -15610,13 +15610,13 @@
       </c>
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="n">
-        <v>-0.0003068178717182063</v>
+        <v>-0.0003230468396022143</v>
       </c>
       <c r="P257" t="n">
         <v>0.0146</v>
       </c>
       <c r="Q257" t="n">
-        <v>5.154540244865866e-05</v>
+        <v>5.4271869053172e-05</v>
       </c>
     </row>
     <row r="258">
@@ -15669,13 +15669,13 @@
       </c>
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="n">
-        <v>-0.0003982528521393045</v>
+        <v>-0.0004655594572288759</v>
       </c>
       <c r="P258" t="n">
         <v>0.00212</v>
       </c>
       <c r="Q258" t="n">
-        <v>0.0001178828442332341</v>
+        <v>0.0001378055993397473</v>
       </c>
     </row>
     <row r="259">
@@ -15728,13 +15728,13 @@
       </c>
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="n">
-        <v>-0.0002501618891414284</v>
+        <v>-0.0002829806715159959</v>
       </c>
       <c r="P259" t="n">
         <v>0.00324</v>
       </c>
       <c r="Q259" t="n">
-        <v>5.878804394823567e-05</v>
+        <v>6.650045780625904e-05</v>
       </c>
     </row>
     <row r="260">
@@ -15787,13 +15787,13 @@
       </c>
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="n">
-        <v>-0.0002222412244064121</v>
+        <v>-0.000224196461749709</v>
       </c>
       <c r="P260" t="n">
         <v>0.00478</v>
       </c>
       <c r="Q260" t="n">
-        <v>0.0001657919534071834</v>
+        <v>0.0001672505604652829</v>
       </c>
     </row>
     <row r="261">
@@ -15846,13 +15846,13 @@
       </c>
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="n">
-        <v>-0.0001679083932986406</v>
+        <v>-0.000191213051994328</v>
       </c>
       <c r="P261" t="n">
         <v>0.00722</v>
       </c>
       <c r="Q261" t="n">
-        <v>0.0002585789256799065</v>
+        <v>0.0002944681000712651</v>
       </c>
     </row>
     <row r="262">
@@ -15905,13 +15905,13 @@
       </c>
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="n">
-        <v>-0.0004952289869228027</v>
+        <v>-0.0006215567535484916</v>
       </c>
       <c r="P262" t="n">
         <v>0.00147</v>
       </c>
       <c r="Q262" t="n">
-        <v>0.0004541249810082101</v>
+        <v>0.0005699675430039669</v>
       </c>
     </row>
     <row r="263">
@@ -15964,13 +15964,13 @@
       </c>
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="n">
-        <v>-0.0003765188290660717</v>
+        <v>-0.000432933691550442</v>
       </c>
       <c r="P263" t="n">
         <v>0.00219</v>
       </c>
       <c r="Q263" t="n">
-        <v>0.0001931541593108948</v>
+        <v>0.0002220949837653767</v>
       </c>
     </row>
     <row r="264">
@@ -16023,13 +16023,13 @@
       </c>
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="n">
-        <v>-0.000358224728380669</v>
+        <v>-0.0003549698162733402</v>
       </c>
       <c r="P264" t="n">
         <v>0.00315</v>
       </c>
       <c r="Q264" t="n">
-        <v>0.0004728566414624831</v>
+        <v>0.0004685601574808091</v>
       </c>
     </row>
     <row r="265">
@@ -16082,13 +16082,13 @@
       </c>
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="n">
-        <v>-0.0002802225662666672</v>
+        <v>-0.0003077306713054111</v>
       </c>
       <c r="P265" t="n">
         <v>0.00442</v>
       </c>
       <c r="Q265" t="n">
-        <v>0.0001841062260372004</v>
+        <v>0.0002021790510476551</v>
       </c>
     </row>
     <row r="266">
@@ -16141,13 +16141,13 @@
       </c>
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="n">
-        <v>-0.00046891696811237</v>
+        <v>-0.0007257512355815531</v>
       </c>
       <c r="P266" t="n">
         <v>0.00177</v>
       </c>
       <c r="Q266" t="n">
-        <v>0.0004876736468368648</v>
+        <v>0.0007547812850048153</v>
       </c>
     </row>
     <row r="267">
@@ -16200,13 +16200,13 @@
       </c>
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="n">
-        <v>-0.0005159184419478938</v>
+        <v>-0.0006332201886079401</v>
       </c>
       <c r="P267" t="n">
         <v>0.00252</v>
       </c>
       <c r="Q267" t="n">
-        <v>0.0006036245770790358</v>
+        <v>0.00074086762067129</v>
       </c>
     </row>
     <row r="268">
@@ -16259,13 +16259,13 @@
       </c>
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="n">
-        <v>-0.0005878513389357112</v>
+        <v>-0.000569325659260963</v>
       </c>
       <c r="P268" t="n">
         <v>0.00358</v>
       </c>
       <c r="Q268" t="n">
-        <v>0.000409144531899255</v>
+        <v>0.0003962506588456302</v>
       </c>
     </row>
     <row r="269">
@@ -16318,13 +16318,13 @@
       </c>
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="n">
-        <v>-0.000485203894582586</v>
+        <v>-0.0004976981501432618</v>
       </c>
       <c r="P269" t="n">
         <v>0.00505</v>
       </c>
       <c r="Q269" t="n">
-        <v>4.095120870277026e-06</v>
+        <v>4.20057238720913e-06</v>
       </c>
     </row>
     <row r="270">
@@ -16377,13 +16377,13 @@
       </c>
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="n">
-        <v>-0.0003417798696332262</v>
+        <v>-0.0008028505298030681</v>
       </c>
       <c r="P270" t="n">
         <v>0.0024</v>
       </c>
       <c r="Q270" t="n">
-        <v>3.250326560211981e-05</v>
+        <v>7.635108538427178e-05</v>
       </c>
     </row>
     <row r="271">
@@ -16436,13 +16436,13 @@
       </c>
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="n">
-        <v>-0.0006173403931512114</v>
+        <v>-0.0008659781853609578</v>
       </c>
       <c r="P271" t="n">
         <v>0.00332</v>
       </c>
       <c r="Q271" t="n">
-        <v>0.0008827967622062323</v>
+        <v>0.00123834880506617</v>
       </c>
     </row>
     <row r="272">
@@ -16495,13 +16495,13 @@
       </c>
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="n">
-        <v>-0.0008653664618049992</v>
+        <v>-0.0008379149141311622</v>
       </c>
       <c r="P272" t="n">
         <v>0.00481</v>
       </c>
       <c r="Q272" t="n">
-        <v>0.0009951714310757491</v>
+        <v>0.0009636021512508364</v>
       </c>
     </row>
     <row r="273">
@@ -16554,13 +16554,13 @@
       </c>
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="n">
-        <v>-0.0007935178261225983</v>
+        <v>-0.0007604194470866015</v>
       </c>
       <c r="P273" t="n">
         <v>0.00668</v>
       </c>
       <c r="Q273" t="n">
-        <v>1.563230117461518e-05</v>
+        <v>1.498026310760605e-05</v>
       </c>
     </row>
     <row r="274">
@@ -16613,13 +16613,13 @@
       </c>
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="n">
-        <v>-0.001315553994942242</v>
+        <v>-0.001423060956713849</v>
       </c>
       <c r="P274" t="n">
         <v>0.00182</v>
       </c>
       <c r="Q274" t="n">
-        <v>0.0001710220193424914</v>
+        <v>0.0001849979243728004</v>
       </c>
     </row>
     <row r="275">
@@ -16672,13 +16672,13 @@
       </c>
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="n">
-        <v>-0.0008141261031042144</v>
+        <v>-0.0008507834547366355</v>
       </c>
       <c r="P275" t="n">
         <v>0.00278</v>
       </c>
       <c r="Q275" t="n">
-        <v>0.001668958511363639</v>
+        <v>0.001744106082210103</v>
       </c>
     </row>
     <row r="276">
@@ -16731,13 +16731,13 @@
       </c>
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="n">
-        <v>-0.0007271238602954942</v>
+        <v>-0.0007056752973315223</v>
       </c>
       <c r="P276" t="n">
         <v>0.00431</v>
       </c>
       <c r="Q276" t="n">
-        <v>0.000311936136066767</v>
+        <v>0.0003027347025552231</v>
       </c>
     </row>
     <row r="277">
@@ -16790,13 +16790,13 @@
       </c>
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="n">
-        <v>-0.0005363623642455748</v>
+        <v>-0.0005835649296305174</v>
       </c>
       <c r="P277" t="n">
         <v>0.00611</v>
       </c>
       <c r="Q277" t="n">
-        <v>0.001786086672937764</v>
+        <v>0.001943271215669623</v>
       </c>
     </row>
     <row r="278">
@@ -16849,13 +16849,13 @@
       </c>
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="n">
-        <v>-0.001648940500861498</v>
+        <v>-0.001849441605320448</v>
       </c>
       <c r="P278" t="n">
         <v>0.00127</v>
       </c>
       <c r="Q278" t="n">
-        <v>0.002588836586352553</v>
+        <v>0.002903623320353103</v>
       </c>
     </row>
     <row r="279">
@@ -16908,13 +16908,13 @@
       </c>
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="n">
-        <v>-0.001224096617549035</v>
+        <v>-0.001280081531535397</v>
       </c>
       <c r="P279" t="n">
         <v>0.00187</v>
       </c>
       <c r="Q279" t="n">
-        <v>0.0008874700477230504</v>
+        <v>0.0009280591103631625</v>
       </c>
     </row>
     <row r="280">
@@ -16967,13 +16967,13 @@
       </c>
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="n">
-        <v>-0.001174073458113188</v>
+        <v>-0.001110652493344795</v>
       </c>
       <c r="P280" t="n">
         <v>0.00276</v>
       </c>
       <c r="Q280" t="n">
-        <v>0.0006680477976664041</v>
+        <v>0.0006319612687131882</v>
       </c>
     </row>
     <row r="281">
@@ -17026,13 +17026,13 @@
       </c>
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="n">
-        <v>-0.0009213178164204758</v>
+        <v>-0.0009542184065648707</v>
       </c>
       <c r="P281" t="n">
         <v>0.00381</v>
       </c>
       <c r="Q281" t="n">
-        <v>0.0004717147220072836</v>
+        <v>0.0004885598241612138</v>
       </c>
     </row>
     <row r="282">
@@ -17085,13 +17085,13 @@
       </c>
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="n">
-        <v>-0.001642737241204998</v>
+        <v>-0.002087082778005962</v>
       </c>
       <c r="P282" t="n">
         <v>0.00163</v>
       </c>
       <c r="Q282" t="n">
-        <v>0.004123270475424544</v>
+        <v>0.005238577772794965</v>
       </c>
     </row>
     <row r="283">
@@ -17144,13 +17144,13 @@
       </c>
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="n">
-        <v>-0.001716639075213365</v>
+        <v>-0.001833640836640987</v>
       </c>
       <c r="P283" t="n">
         <v>0.00224</v>
       </c>
       <c r="Q283" t="n">
-        <v>0.005888072027981842</v>
+        <v>0.006289388069678586</v>
       </c>
     </row>
     <row r="284">
@@ -17203,13 +17203,13 @@
       </c>
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="n">
-        <v>-0.001917035003508881</v>
+        <v>-0.001747904199164581</v>
       </c>
       <c r="P284" t="n">
         <v>0.00319</v>
       </c>
       <c r="Q284" t="n">
-        <v>0.004926779959017824</v>
+        <v>0.004492113791852973</v>
       </c>
     </row>
     <row r="285">
@@ -17262,13 +17262,13 @@
       </c>
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="n">
-        <v>-0.001637984827562187</v>
+        <v>-0.001578874412658401</v>
       </c>
       <c r="P285" t="n">
         <v>0.0043</v>
       </c>
       <c r="Q285" t="n">
-        <v>0.001703504220664674</v>
+        <v>0.001642029389164737</v>
       </c>
     </row>
     <row r="286">
@@ -17321,13 +17321,13 @@
       </c>
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="n">
-        <v>-0.001287300649835607</v>
+        <v>-0.002170110648706983</v>
       </c>
       <c r="P286" t="n">
         <v>0.0023</v>
       </c>
       <c r="Q286" t="n">
-        <v>0.003334108683074222</v>
+        <v>0.005620586580151086</v>
       </c>
     </row>
     <row r="287">
@@ -17380,13 +17380,13 @@
       </c>
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="n">
-        <v>-0.002150344045144234</v>
+        <v>-0.002463406809287548</v>
       </c>
       <c r="P287" t="n">
         <v>0.00315</v>
       </c>
       <c r="Q287" t="n">
-        <v>0.004623239697060102</v>
+        <v>0.005296324639968228</v>
       </c>
     </row>
     <row r="288">
@@ -17439,13 +17439,13 @@
       </c>
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="n">
-        <v>-0.002937049484962533</v>
+        <v>-0.002611554673479997</v>
       </c>
       <c r="P288" t="n">
         <v>0.00438</v>
       </c>
       <c r="Q288" t="n">
-        <v>0.005110466103834808</v>
+        <v>0.004544105131855196</v>
       </c>
     </row>
     <row r="289">
@@ -17498,13 +17498,13 @@
       </c>
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="n">
-        <v>-0.002684166278319113</v>
+        <v>-0.002382013262081153</v>
       </c>
       <c r="P289" t="n">
         <v>0.00571</v>
       </c>
       <c r="Q289" t="n">
-        <v>0.004912024289323976</v>
+        <v>0.004359084269608511</v>
       </c>
     </row>
     <row r="290">
@@ -17557,13 +17557,13 @@
       </c>
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="n">
-        <v>-0.004470504926004015</v>
+        <v>-0.004583413503376081</v>
       </c>
       <c r="P290" t="n">
         <v>0.00179</v>
       </c>
       <c r="Q290" t="n">
-        <v>0.002020668226553815</v>
+        <v>0.002071702903525989</v>
       </c>
     </row>
     <row r="291">
@@ -17616,13 +17616,13 @@
       </c>
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="n">
-        <v>-0.002709778375262533</v>
+        <v>-0.002717075431035849</v>
       </c>
       <c r="P291" t="n">
         <v>0.00273</v>
       </c>
       <c r="Q291" t="n">
-        <v>0.002701649040136745</v>
+        <v>0.002708924204742742</v>
       </c>
     </row>
     <row r="292">
@@ -17675,13 +17675,13 @@
       </c>
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="n">
-        <v>-0.002370800486013872</v>
+        <v>-0.002268143286856079</v>
       </c>
       <c r="P292" t="n">
         <v>0.00404</v>
       </c>
       <c r="Q292" t="n">
-        <v>0.01024185809957993</v>
+        <v>0.009798378999218264</v>
       </c>
     </row>
     <row r="293">
@@ -17734,13 +17734,13 @@
       </c>
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="n">
-        <v>-0.001828609930832936</v>
+        <v>-0.001926473357244186</v>
       </c>
       <c r="P293" t="n">
         <v>0.00565</v>
       </c>
       <c r="Q293" t="n">
-        <v>0.002358906810774487</v>
+        <v>0.002485150630845001</v>
       </c>
     </row>
     <row r="294">
@@ -17793,13 +17793,13 @@
       </c>
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="n">
-        <v>-0.00576461840234452</v>
+        <v>-0.005944880293319499</v>
       </c>
       <c r="P294" t="n">
         <v>0.00127</v>
       </c>
       <c r="Q294" t="n">
-        <v>0.0005580150613469495</v>
+        <v>0.0005754644123933274</v>
       </c>
     </row>
     <row r="295">
@@ -17852,13 +17852,13 @@
       </c>
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="n">
-        <v>-0.004198989071350367</v>
+        <v>-0.004142134083007689</v>
       </c>
       <c r="P295" t="n">
         <v>0.00184</v>
       </c>
       <c r="Q295" t="n">
-        <v>0.0007054301639868617</v>
+        <v>0.0006958785259452918</v>
       </c>
     </row>
     <row r="296">
@@ -17911,13 +17911,13 @@
       </c>
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="n">
-        <v>-0.004004688429637276</v>
+        <v>-0.003704488063605637</v>
       </c>
       <c r="P296" t="n">
         <v>0.00265</v>
       </c>
       <c r="Q296" t="n">
-        <v>1.113303383439163</v>
+        <v>1.029847681682367</v>
       </c>
     </row>
     <row r="297">
@@ -17970,13 +17970,13 @@
       </c>
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="n">
-        <v>-0.003178399924111509</v>
+        <v>-0.003190065452422036</v>
       </c>
       <c r="P297" t="n">
         <v>0.00363</v>
       </c>
       <c r="Q297" t="n">
-        <v>0.0006547503843669708</v>
+        <v>0.0006571534831989395</v>
       </c>
     </row>
     <row r="298">
@@ -18029,13 +18029,13 @@
       </c>
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="n">
-        <v>-0.005886730565989468</v>
+        <v>-0.006422372860604399</v>
       </c>
       <c r="P298" t="n">
         <v>0.00161</v>
       </c>
       <c r="Q298" t="n">
-        <v>0.01377494952441535</v>
+        <v>0.01502835249381429</v>
       </c>
     </row>
     <row r="299">
@@ -18088,13 +18088,13 @@
       </c>
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="n">
-        <v>-0.005994513348682276</v>
+        <v>-0.005832273395659314</v>
       </c>
       <c r="P299" t="n">
         <v>0.00224</v>
       </c>
       <c r="Q299" t="n">
-        <v>0.1025061782624669</v>
+        <v>0.09973187506577429</v>
       </c>
     </row>
     <row r="300">
@@ -18147,13 +18147,13 @@
       </c>
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="n">
-        <v>-0.006666102225799849</v>
+        <v>-0.005849808628329976</v>
       </c>
       <c r="P300" t="n">
         <v>0.0031</v>
       </c>
       <c r="Q300" t="n">
-        <v>0.008665932893539804</v>
+        <v>0.00760475121682897</v>
       </c>
     </row>
     <row r="301">
@@ -18206,13 +18206,13 @@
       </c>
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="n">
-        <v>-0.005560509823850405</v>
+        <v>-0.005142896538160087</v>
       </c>
       <c r="P301" t="n">
         <v>0.00412</v>
       </c>
       <c r="Q301" t="n">
-        <v>0.002024025575881547</v>
+        <v>0.001872014339890271</v>
       </c>
     </row>
     <row r="302">
@@ -18265,13 +18265,13 @@
       </c>
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="n">
-        <v>-0.004810317642387275</v>
+        <v>-0.006246092548397204</v>
       </c>
       <c r="P302" t="n">
         <v>0.0023</v>
       </c>
       <c r="Q302" t="n">
-        <v>0.03670272361141491</v>
+        <v>0.04765768614427067</v>
       </c>
     </row>
     <row r="303">
@@ -18324,13 +18324,13 @@
       </c>
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="n">
-        <v>-0.007981059993483756</v>
+        <v>-0.007869506480523461</v>
       </c>
       <c r="P303" t="n">
         <v>0.00314</v>
       </c>
       <c r="Q303" t="n">
-        <v>0.002968954317575957</v>
+        <v>0.002927456410754728</v>
       </c>
     </row>
     <row r="304">
@@ -18383,13 +18383,13 @@
       </c>
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="n">
-        <v>-0.01044111542781385</v>
+        <v>-0.008719634619697231</v>
       </c>
       <c r="P304" t="n">
         <v>0.00425</v>
       </c>
       <c r="Q304" t="n">
-        <v>0.04113799478558659</v>
+        <v>0.03435536040160709</v>
       </c>
     </row>
     <row r="305">
@@ -18442,13 +18442,13 @@
       </c>
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="n">
-        <v>-0.009878141201177994</v>
+        <v>-0.008305063273614938</v>
       </c>
       <c r="P305" t="n">
         <v>0.0059</v>
       </c>
       <c r="Q305" t="n">
-        <v>0.01274280214951961</v>
+        <v>0.01071353162296327</v>
       </c>
     </row>
     <row r="306">
@@ -18501,13 +18501,13 @@
       </c>
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="n">
-        <v>-0.01484871542316288</v>
+        <v>-0.01455059862053727</v>
       </c>
       <c r="P306" t="n">
         <v>0.00187</v>
       </c>
       <c r="Q306" t="n">
-        <v>0.02747012353285133</v>
+        <v>0.02691860744799396</v>
       </c>
     </row>
     <row r="307">
@@ -18560,13 +18560,13 @@
       </c>
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="n">
-        <v>-0.008956293706408153</v>
+        <v>-0.008744415680170843</v>
       </c>
       <c r="P307" t="n">
         <v>0.00285</v>
       </c>
       <c r="Q307" t="n">
-        <v>0.01271793706309958</v>
+        <v>0.0124170702658426</v>
       </c>
     </row>
     <row r="308">
@@ -18619,13 +18619,13 @@
       </c>
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="n">
-        <v>-0.007726524172652342</v>
+        <v>-0.007317998724663479</v>
       </c>
       <c r="P308" t="n">
         <v>0.00412</v>
       </c>
       <c r="Q308" t="n">
-        <v>0.02001169760716957</v>
+        <v>0.01895361669687841</v>
       </c>
     </row>
     <row r="309">
@@ -18678,13 +18678,13 @@
       </c>
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="n">
-        <v>-0.006283811617212479</v>
+        <v>-0.006426035557022759</v>
       </c>
       <c r="P309" t="n">
         <v>0.00585</v>
       </c>
       <c r="Q309" t="n">
-        <v>0.006975030895105852</v>
+        <v>0.007132899468295263</v>
       </c>
     </row>
     <row r="310">
@@ -18737,13 +18737,13 @@
       </c>
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="n">
-        <v>-0.01940606935343666</v>
+        <v>-0.018717677217767</v>
       </c>
       <c r="P310" t="n">
         <v>0.00134</v>
       </c>
       <c r="Q310" t="n">
-        <v>0.06442815025340971</v>
+        <v>0.06214268836298644</v>
       </c>
     </row>
     <row r="311">
@@ -18796,13 +18796,13 @@
       </c>
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="n">
-        <v>-0.01379232113338338</v>
+        <v>-0.01308801383998257</v>
       </c>
       <c r="P311" t="n">
         <v>0.00193</v>
       </c>
       <c r="Q311" t="n">
-        <v>0.02579164051942693</v>
+        <v>0.02447458588076741</v>
       </c>
     </row>
     <row r="312">
@@ -18855,13 +18855,13 @@
       </c>
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="n">
-        <v>-0.01314213478190208</v>
+        <v>-0.01198024415173309</v>
       </c>
       <c r="P312" t="n">
         <v>0.00265</v>
       </c>
       <c r="Q312" t="n">
-        <v>0.1272158646888122</v>
+        <v>0.1159687633887763</v>
       </c>
     </row>
     <row r="313">
@@ -18914,13 +18914,13 @@
       </c>
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="n">
-        <v>-0.01069975383892304</v>
+        <v>-0.01045542197858953</v>
       </c>
       <c r="P313" t="n">
         <v>0.00381</v>
       </c>
       <c r="Q313" t="n">
-        <v>0.005959762888280135</v>
+        <v>0.00582367004207437</v>
       </c>
     </row>
     <row r="314">
@@ -18973,13 +18973,13 @@
       </c>
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="n">
-        <v>-0.02021065230184648</v>
+        <v>-0.01962591380187297</v>
       </c>
       <c r="P314" t="n">
         <v>0.00171</v>
       </c>
       <c r="Q314" t="n">
-        <v>0.03718760023539753</v>
+        <v>0.03611168139544627</v>
       </c>
     </row>
     <row r="315">
@@ -19032,13 +19032,13 @@
       </c>
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="n">
-        <v>-0.02031164708605595</v>
+        <v>-0.0184902482897263</v>
       </c>
       <c r="P315" t="n">
         <v>0.00235</v>
       </c>
       <c r="Q315" t="n">
-        <v>0.03981082828866966</v>
+        <v>0.03624088664786354</v>
       </c>
     </row>
     <row r="316">
@@ -19091,13 +19091,13 @@
       </c>
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="n">
-        <v>-0.02219122574262763</v>
+        <v>-0.0189551585231032</v>
       </c>
       <c r="P316" t="n">
         <v>0.00327</v>
       </c>
       <c r="Q316" t="n">
-        <v>0.0834390087922799</v>
+        <v>0.07127139604686804</v>
       </c>
     </row>
     <row r="317">
@@ -19150,13 +19150,13 @@
       </c>
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="n">
-        <v>-0.01938865634860253</v>
+        <v>-0.01736569578588613</v>
       </c>
       <c r="P317" t="n">
         <v>0.00445</v>
       </c>
       <c r="Q317" t="n">
-        <v>0.00851162013703651</v>
+        <v>0.007623540450004011</v>
       </c>
     </row>
     <row r="318">
@@ -19209,13 +19209,13 @@
       </c>
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="n">
-        <v>-0.01705194045885971</v>
+        <v>-0.01838458892611818</v>
       </c>
       <c r="P318" t="n">
         <v>0.0025</v>
       </c>
       <c r="Q318" t="n">
-        <v>0.000164210186618819</v>
+        <v>0.0001770435913585181</v>
       </c>
     </row>
     <row r="319">
@@ -19268,13 +19268,13 @@
       </c>
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="n">
-        <v>-0.02772462007057283</v>
+        <v>-0.02456319658042551</v>
       </c>
       <c r="P319" t="n">
         <v>0.00334</v>
       </c>
       <c r="Q319" t="n">
-        <v>0.001619117812121453</v>
+        <v>0.00143449068029685</v>
       </c>
     </row>
     <row r="320">
@@ -19327,13 +19327,13 @@
       </c>
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="n">
-        <v>-0.03641134809505715</v>
+        <v>-0.02902525069718042</v>
       </c>
       <c r="P320" t="n">
         <v>0.0044</v>
       </c>
       <c r="Q320" t="n">
-        <v>0.005643758954733858</v>
+        <v>0.004498913858062966</v>
       </c>
     </row>
     <row r="321">
@@ -19386,13 +19386,13 @@
       </c>
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="n">
-        <v>-0.0333117034144018</v>
+        <v>-0.02692776054466949</v>
       </c>
       <c r="P321" t="n">
         <v>0.00601</v>
       </c>
       <c r="Q321" t="n">
-        <v>0.01985377523498347</v>
+        <v>0.01604894528462301</v>
       </c>
     </row>
     <row r="322">
@@ -19445,13 +19445,13 @@
       </c>
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="n">
-        <v>-0.04422022302806214</v>
+        <v>-0.04204861356289795</v>
       </c>
       <c r="P322" t="n">
         <v>0.00196</v>
       </c>
       <c r="Q322" t="n">
-        <v>0.01702478586580392</v>
+        <v>0.01618871622171571</v>
       </c>
     </row>
     <row r="323">
@@ -19504,13 +19504,13 @@
       </c>
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="n">
-        <v>-0.02673583836084708</v>
+        <v>-0.02574135050966518</v>
       </c>
       <c r="P323" t="n">
         <v>0.00302</v>
       </c>
       <c r="Q323" t="n">
-        <v>0.1144293881844255</v>
+        <v>0.110172980181367</v>
       </c>
     </row>
     <row r="324">
@@ -19563,13 +19563,13 @@
       </c>
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="n">
-        <v>-0.02342526253246419</v>
+        <v>-0.02207137573185455</v>
       </c>
       <c r="P324" t="n">
         <v>0.00442</v>
       </c>
       <c r="Q324" t="n">
-        <v>0.05809465108051118</v>
+        <v>0.05473701181499927</v>
       </c>
     </row>
     <row r="325">
@@ -19622,13 +19622,13 @@
       </c>
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="n">
-        <v>-0.01879432607912356</v>
+        <v>-0.01882591037047354</v>
       </c>
       <c r="P325" t="n">
         <v>0.00626</v>
       </c>
       <c r="Q325" t="n">
-        <v>0.03871631172299454</v>
+        <v>0.03878137536317548</v>
       </c>
     </row>
     <row r="326">
@@ -19681,13 +19681,13 @@
       </c>
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="n">
-        <v>-0.05798934279702064</v>
+        <v>-0.05365913406113623</v>
       </c>
       <c r="P326" t="n">
         <v>0.00144</v>
       </c>
       <c r="Q326" t="n">
-        <v>0.01084400710304286</v>
+        <v>0.01003425806943248</v>
       </c>
     </row>
     <row r="327">
@@ -19740,13 +19740,13 @@
       </c>
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="n">
-        <v>-0.04103555884504907</v>
+        <v>-0.0381718092815417</v>
       </c>
       <c r="P327" t="n">
         <v>0.00207</v>
       </c>
       <c r="Q327" t="n">
-        <v>0.04074830993313372</v>
+        <v>0.03790460661657091</v>
       </c>
     </row>
     <row r="328">
@@ -19799,13 +19799,13 @@
       </c>
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="n">
-        <v>-0.03979305189249754</v>
+        <v>-0.03603692361946881</v>
       </c>
       <c r="P328" t="n">
         <v>0.00295</v>
       </c>
       <c r="Q328" t="n">
-        <v>0.05292475901702173</v>
+        <v>0.04792910841389351</v>
       </c>
     </row>
     <row r="329">
@@ -19858,13 +19858,13 @@
       </c>
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="n">
-        <v>-0.03364964538821152</v>
+        <v>-0.03208780840405617</v>
       </c>
       <c r="P329" t="n">
         <v>0.00407</v>
       </c>
       <c r="Q329" t="n">
-        <v>0.02466519006955905</v>
+        <v>0.02352036356017317</v>
       </c>
     </row>
     <row r="330">
@@ -19917,13 +19917,13 @@
       </c>
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="n">
-        <v>-0.06046923934680848</v>
+        <v>-0.05500665633948938</v>
       </c>
       <c r="P330" t="n">
         <v>0.00188</v>
       </c>
       <c r="Q330" t="n">
-        <v>0.03223010457184892</v>
+        <v>0.02931854782894784</v>
       </c>
     </row>
     <row r="331">
@@ -19976,13 +19976,13 @@
       </c>
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="n">
-        <v>-0.06129144480704415</v>
+        <v>-0.0540675469286354</v>
       </c>
       <c r="P331" t="n">
         <v>0.00257</v>
       </c>
       <c r="Q331" t="n">
-        <v>0.0009377591055477755</v>
+        <v>0.0008272334680081215</v>
       </c>
     </row>
     <row r="332">
@@ -20035,13 +20035,13 @@
       </c>
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="n">
-        <v>-0.06756157495441489</v>
+        <v>-0.0571686867719494</v>
       </c>
       <c r="P332" t="n">
         <v>0.00343</v>
       </c>
       <c r="Q332" t="n">
-        <v>0.01243132979161234</v>
+        <v>0.01051903836603869</v>
       </c>
     </row>
     <row r="333">
@@ -20094,13 +20094,13 @@
       </c>
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="n">
-        <v>-0.05883170513237159</v>
+        <v>-0.05156714373836502</v>
       </c>
       <c r="P333" t="n">
         <v>0.00489</v>
       </c>
       <c r="Q333" t="n">
-        <v>0.02541529661718453</v>
+        <v>0.02227700609497369</v>
       </c>
     </row>
     <row r="334">
@@ -20153,13 +20153,13 @@
       </c>
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="n">
-        <v>-0.05068067435729577</v>
+        <v>-0.04961757037979336</v>
       </c>
       <c r="P334" t="n">
         <v>0.00277</v>
       </c>
       <c r="Q334" t="n">
-        <v>0.06031000248518197</v>
+        <v>0.0590449087519541</v>
       </c>
     </row>
     <row r="335">
@@ -20212,13 +20212,13 @@
       </c>
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="n">
-        <v>-0.08484751241207816</v>
+        <v>-0.0712870124049093</v>
       </c>
       <c r="P335" t="n">
         <v>0.00362</v>
       </c>
       <c r="Q335" t="n">
-        <v>0.08739293778444052</v>
+        <v>0.07342562277705658</v>
       </c>
     </row>
     <row r="336">
@@ -20271,13 +20271,13 @@
       </c>
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="n">
-        <v>-0.1129870101008348</v>
+        <v>-0.08841720603769573</v>
       </c>
       <c r="P336" t="n">
         <v>0.00493</v>
       </c>
       <c r="Q336" t="n">
-        <v>0.04316103785851891</v>
+        <v>0.03377537270639977</v>
       </c>
     </row>
     <row r="337">
@@ -20330,13 +20330,13 @@
       </c>
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="n">
-        <v>-0.10248740142329</v>
+        <v>-0.08128799730890122</v>
       </c>
       <c r="P337" t="n">
         <v>0.0064</v>
       </c>
       <c r="Q337" t="n">
-        <v>0.1147858895940848</v>
+        <v>0.09104255698596939</v>
       </c>
     </row>
     <row r="338">
@@ -20389,13 +20389,13 @@
       </c>
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="n">
-        <v>-0.09323783665946449</v>
+        <v>-0.09031499764863077</v>
       </c>
       <c r="P338" t="n">
         <v>0.0029</v>
       </c>
       <c r="Q338" t="n">
-        <v>0.02881049152777453</v>
+        <v>0.02790733427342691</v>
       </c>
     </row>
     <row r="339">
@@ -20448,13 +20448,13 @@
       </c>
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="n">
-        <v>-0.05663555348088781</v>
+        <v>-0.05588362295430031</v>
       </c>
       <c r="P339" t="n">
         <v>0.00445</v>
       </c>
       <c r="Q339" t="n">
-        <v>0.1081739071484957</v>
+        <v>0.1067377198427136</v>
       </c>
     </row>
     <row r="340">
@@ -20507,13 +20507,13 @@
       </c>
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="n">
-        <v>-0.05121124605818899</v>
+        <v>-0.04938492161936363</v>
       </c>
       <c r="P340" t="n">
         <v>0.00658</v>
       </c>
       <c r="Q340" t="n">
-        <v>0.01889694979547174</v>
+        <v>0.01822303607754518</v>
       </c>
     </row>
     <row r="341">
@@ -20566,13 +20566,13 @@
       </c>
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="n">
-        <v>-0.04250227718243153</v>
+        <v>-0.04254600965201932</v>
       </c>
       <c r="P341" t="n">
         <v>0.009679999999999999</v>
       </c>
       <c r="Q341" t="n">
-        <v>0.05737807419628257</v>
+        <v>0.05743711303022609</v>
       </c>
     </row>
     <row r="342">
@@ -20625,13 +20625,13 @@
       </c>
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="n">
-        <v>-0.1184435607395977</v>
+        <v>-0.1123906581534115</v>
       </c>
       <c r="P342" t="n">
         <v>0.00211</v>
       </c>
       <c r="Q342" t="n">
-        <v>0.1302879168135575</v>
+        <v>0.1236297239687526</v>
       </c>
     </row>
     <row r="343">
@@ -20684,13 +20684,13 @@
       </c>
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="n">
-        <v>-0.08650336814579881</v>
+        <v>-0.08307700265278602</v>
       </c>
       <c r="P343" t="n">
         <v>0.00306</v>
       </c>
       <c r="Q343" t="n">
-        <v>0.08347575026069586</v>
+        <v>0.08016930755993851</v>
       </c>
     </row>
     <row r="344">
@@ -20743,13 +20743,13 @@
       </c>
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="n">
-        <v>-0.08689554035075561</v>
+        <v>-0.081179762539168</v>
       </c>
       <c r="P344" t="n">
         <v>0.00424</v>
       </c>
       <c r="Q344" t="n">
-        <v>0.02963137925960766</v>
+        <v>0.02768229902585629</v>
       </c>
     </row>
     <row r="345">
@@ -20802,13 +20802,13 @@
       </c>
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="n">
-        <v>-0.07383790247235897</v>
+        <v>-0.07109369956723109</v>
       </c>
       <c r="P345" t="n">
         <v>0.00582</v>
       </c>
       <c r="Q345" t="n">
-        <v>0.08048331369487129</v>
+        <v>0.0774921325282819</v>
       </c>
     </row>
     <row r="346">
@@ -20861,13 +20861,13 @@
       </c>
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="n">
-        <v>-0.1226460793599788</v>
+        <v>-0.1158980815312594</v>
       </c>
       <c r="P346" t="n">
         <v>0.00286</v>
       </c>
       <c r="Q346" t="n">
-        <v>0.1324577657087772</v>
+        <v>0.1251699280537602</v>
       </c>
     </row>
     <row r="347">
@@ -20920,13 +20920,13 @@
       </c>
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="n">
-        <v>-0.1265693168907354</v>
+        <v>-0.1167399643760857</v>
       </c>
       <c r="P347" t="n">
         <v>0.0038</v>
       </c>
       <c r="Q347" t="n">
-        <v>0.0793589616904911</v>
+        <v>0.07319595766380575</v>
       </c>
     </row>
     <row r="348">
@@ -20979,13 +20979,13 @@
       </c>
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="n">
-        <v>-0.1418833361628932</v>
+        <v>-0.1252080042919684</v>
       </c>
       <c r="P348" t="n">
         <v>0.00518</v>
       </c>
       <c r="Q348" t="n">
-        <v>0.02114061708827109</v>
+        <v>0.01865599263950329</v>
       </c>
     </row>
     <row r="349">
@@ -21038,13 +21038,13 @@
       </c>
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="n">
-        <v>-0.1305247081918315</v>
+        <v>-0.1173403929591545</v>
       </c>
       <c r="P349" t="n">
         <v>0.00678</v>
       </c>
       <c r="Q349" t="n">
-        <v>0.01788188502228092</v>
+        <v>0.01607563383540416</v>
       </c>
     </row>
     <row r="350">
@@ -21097,13 +21097,13 @@
       </c>
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="n">
-        <v>-0.1000606745886026</v>
+        <v>-0.1029318874164062</v>
       </c>
       <c r="P350" t="n">
         <v>0.00459</v>
       </c>
       <c r="Q350" t="n">
-        <v>0.1420861579158157</v>
+        <v>0.1461632801312968</v>
       </c>
     </row>
     <row r="351">
@@ -21156,13 +21156,13 @@
       </c>
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="n">
-        <v>-0.1723984764734632</v>
+        <v>-0.1539820566671928</v>
       </c>
       <c r="P351" t="n">
         <v>0.00564</v>
       </c>
       <c r="Q351" t="n">
-        <v>0.001723984764734632</v>
+        <v>0.001539820566671928</v>
       </c>
     </row>
     <row r="352">
@@ -21215,13 +21215,13 @@
       </c>
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="n">
-        <v>-0.2319832502413606</v>
+        <v>-0.1917349376873773</v>
       </c>
       <c r="P352" t="n">
         <v>0.00737</v>
       </c>
       <c r="Q352" t="n">
-        <v>0.2551815752654967</v>
+        <v>0.2109084314561151</v>
       </c>
     </row>
     <row r="353">
@@ -21274,13 +21274,13 @@
       </c>
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="n">
-        <v>-0.221124286986924</v>
+        <v>-0.1829288895157502</v>
       </c>
       <c r="P353" t="n">
         <v>0.00967</v>
       </c>
       <c r="Q353" t="n">
-        <v>0.1799951696073561</v>
+        <v>0.1489041160658207</v>
       </c>
     </row>
     <row r="354">
@@ -21333,13 +21333,13 @@
       </c>
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="n">
-        <v>-0.1883391110971324</v>
+        <v>-0.1961485600737272</v>
       </c>
       <c r="P354" t="n">
         <v>0.0179</v>
       </c>
       <c r="Q354" t="n">
-        <v>107.7299715475597</v>
+        <v>112.196976362172</v>
       </c>
     </row>
     <row r="355">
@@ -21392,13 +21392,13 @@
       </c>
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="n">
-        <v>-0.1186275433702641</v>
+        <v>-0.1239445821308852</v>
       </c>
       <c r="P355" t="n">
         <v>0.0267</v>
       </c>
       <c r="Q355" t="n">
-        <v>6.370299078983183</v>
+        <v>6.655824060428533</v>
       </c>
     </row>
     <row r="356">
@@ -21451,13 +21451,13 @@
       </c>
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="n">
-        <v>-0.1088836363468702</v>
+        <v>-0.1096765382937041</v>
       </c>
       <c r="P356" t="n">
         <v>0.0436</v>
       </c>
       <c r="Q356" t="n">
-        <v>0.2732979272306441</v>
+        <v>0.2752881111171972</v>
       </c>
     </row>
     <row r="357">
@@ -21510,13 +21510,13 @@
       </c>
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="n">
-        <v>-0.1010562385054674</v>
+        <v>-0.1028078487927031</v>
       </c>
       <c r="P357" t="n">
         <v>0.0621</v>
       </c>
       <c r="Q357" t="n">
-        <v>0.1040879256606314</v>
+        <v>0.1058920842564842</v>
       </c>
     </row>
     <row r="358">
@@ -21569,13 +21569,13 @@
       </c>
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="n">
-        <v>-0.2183444366986376</v>
+        <v>-0.2306885993821863</v>
       </c>
       <c r="P358" t="n">
         <v>0.0146</v>
       </c>
       <c r="Q358" t="n">
-        <v>0.237995436001515</v>
+        <v>0.2514505733265831</v>
       </c>
     </row>
     <row r="359">
@@ -21628,13 +21628,13 @@
       </c>
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="n">
-        <v>-0.1804209847948777</v>
+        <v>-0.1889632140901741</v>
       </c>
       <c r="P359" t="n">
         <v>0.0222</v>
       </c>
       <c r="Q359" t="n">
-        <v>0.6459071255656622</v>
+        <v>0.6764883064428233</v>
       </c>
     </row>
     <row r="360">
@@ -21687,13 +21687,13 @@
       </c>
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="n">
-        <v>-0.1779935654574373</v>
+        <v>-0.1775509309805513</v>
       </c>
       <c r="P360" t="n">
         <v>0.0262</v>
       </c>
       <c r="Q360" t="n">
-        <v>0.7297736183754928</v>
+        <v>0.7279588170202603</v>
       </c>
     </row>
     <row r="361">
@@ -21746,13 +21746,13 @@
       </c>
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="n">
-        <v>-0.1611247058283602</v>
+        <v>-0.1610911881703303</v>
       </c>
       <c r="P361" t="n">
         <v>0.0327</v>
       </c>
       <c r="Q361" t="n">
-        <v>1.564520893593378</v>
+        <v>1.564195437133907</v>
       </c>
     </row>
     <row r="362">
@@ -21805,13 +21805,13 @@
       </c>
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="n">
-        <v>-0.213347086921358</v>
+        <v>-0.2419817410495448</v>
       </c>
       <c r="P362" t="n">
         <v>0.018</v>
       </c>
       <c r="Q362" t="n">
-        <v>0.2837516256054061</v>
+        <v>0.3218357155958946</v>
       </c>
     </row>
     <row r="363">
@@ -21864,13 +21864,13 @@
       </c>
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="n">
-        <v>-0.2482869883731162</v>
+        <v>-0.2649873438940079</v>
       </c>
       <c r="P363" t="n">
         <v>0.0254</v>
       </c>
       <c r="Q363" t="n">
-        <v>0.1782700576518974</v>
+        <v>0.1902609129158977</v>
       </c>
     </row>
     <row r="364">
@@ -21923,13 +21923,13 @@
       </c>
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="n">
-        <v>-0.2808672456495063</v>
+        <v>-0.2759429523071614</v>
       </c>
       <c r="P364" t="n">
         <v>0.0319</v>
       </c>
       <c r="Q364" t="n">
-        <v>5.645431637555077</v>
+        <v>5.546453341373944</v>
       </c>
     </row>
     <row r="365">
@@ -21982,13 +21982,13 @@
       </c>
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="n">
-        <v>-0.2747494916164614</v>
+        <v>-0.2650600408735015</v>
       </c>
       <c r="P365" t="n">
         <v>0.037</v>
       </c>
       <c r="Q365" t="n">
-        <v>2.115571085446753</v>
+        <v>2.040962314725962</v>
       </c>
     </row>
     <row r="366">
@@ -22041,13 +22041,13 @@
       </c>
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="n">
-        <v>-0.1601386222283115</v>
+        <v>-0.2208025890246623</v>
       </c>
       <c r="P366" t="n">
         <v>0.0289</v>
       </c>
       <c r="Q366" t="n">
-        <v>0.4996325013523319</v>
+        <v>0.6889040777569465</v>
       </c>
     </row>
     <row r="367">
@@ -22100,13 +22100,13 @@
       </c>
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="n">
-        <v>-0.2824384762711284</v>
+        <v>-0.3139630712733953</v>
       </c>
       <c r="P367" t="n">
         <v>0.0387</v>
       </c>
       <c r="Q367" t="n">
-        <v>0.05225111811015875</v>
+        <v>0.05808316818557814</v>
       </c>
     </row>
     <row r="368">
@@ -22159,13 +22159,13 @@
       </c>
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="n">
-        <v>-0.4527678989524798</v>
+        <v>-0.4504872693641452</v>
       </c>
       <c r="P368" t="n">
         <v>0.047</v>
       </c>
       <c r="Q368" t="n">
-        <v>2.395142185458618</v>
+        <v>2.383077654936328</v>
       </c>
     </row>
     <row r="369">
@@ -22218,13 +22218,13 @@
       </c>
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="n">
-        <v>-0.0005254023015838247</v>
+        <v>-0.0005942845143413387</v>
       </c>
       <c r="P369" t="n">
         <v>0.0289</v>
       </c>
       <c r="Q369" t="n">
-        <v>0.0004996575888062172</v>
+        <v>0.000565164573138613</v>
       </c>
     </row>
     <row r="370">
@@ -22277,13 +22277,13 @@
       </c>
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="n">
-        <v>-0.0006457116026427433</v>
+        <v>-0.0007765477536741609</v>
       </c>
       <c r="P370" t="n">
         <v>0.0202</v>
       </c>
       <c r="Q370" t="n">
-        <v>0.00021889623329589</v>
+        <v>0.0002632496884955405</v>
       </c>
     </row>
     <row r="371">
@@ -22336,13 +22336,13 @@
       </c>
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="n">
-        <v>-0.0005092886733620214</v>
+        <v>-0.0005703026508563273</v>
       </c>
       <c r="P371" t="n">
         <v>0.0354</v>
       </c>
       <c r="Q371" t="n">
-        <v>0.0001349614984409357</v>
+        <v>0.0001511302024769267</v>
       </c>
     </row>
     <row r="372">
@@ -22395,13 +22395,13 @@
       </c>
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="n">
-        <v>-0.0005099658186346262</v>
+        <v>-0.0004983680053448477</v>
       </c>
       <c r="P372" t="n">
         <v>0.0528</v>
       </c>
       <c r="Q372" t="n">
-        <v>0.0002330543791160242</v>
+        <v>0.0002277541784425954</v>
       </c>
     </row>
     <row r="373">
@@ -22454,13 +22454,13 @@
       </c>
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="n">
-        <v>-0.0006308351029300532</v>
+        <v>-0.0009031974515523227</v>
       </c>
       <c r="P373" t="n">
         <v>0.0257</v>
       </c>
       <c r="Q373" t="n">
-        <v>0.0002744132697745732</v>
+        <v>0.0003928908914252603</v>
       </c>
     </row>
     <row r="374">
@@ -22513,13 +22513,13 @@
       </c>
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="n">
-        <v>-0.0006999937478419381</v>
+        <v>-0.0007987394427185008</v>
       </c>
       <c r="P374" t="n">
         <v>0.037</v>
       </c>
       <c r="Q374" t="n">
-        <v>0.0001343987995856521</v>
+        <v>0.0001533579730019522</v>
       </c>
     </row>
     <row r="375">
@@ -22572,13 +22572,13 @@
       </c>
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="n">
-        <v>-0.0004530281376428196</v>
+        <v>-0.0009532650972267943</v>
       </c>
       <c r="P375" t="n">
         <v>0.0367</v>
       </c>
       <c r="Q375" t="n">
-        <v>4.000238455386097e-06</v>
+        <v>8.417330808512593e-06</v>
       </c>
     </row>
     <row r="376">
@@ -22631,13 +22631,13 @@
       </c>
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="n">
-        <v>-0.0008283226162928537</v>
+        <v>-0.001067256657435644</v>
       </c>
       <c r="P376" t="n">
         <v>0.0433</v>
       </c>
       <c r="Q376" t="n">
-        <v>5.516628624510406e-05</v>
+        <v>7.107929338521388e-05</v>
       </c>
     </row>
     <row r="377">
@@ -22690,13 +22690,13 @@
       </c>
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="n">
-        <v>-0.001241068154626163</v>
+        <v>-0.001341271120489774</v>
       </c>
       <c r="P377" t="n">
         <v>0.00524</v>
       </c>
       <c r="Q377" t="n">
-        <v>0.0009556224790621456</v>
+        <v>0.001032778762777126</v>
       </c>
     </row>
     <row r="378">
@@ -22749,13 +22749,13 @@
       </c>
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="n">
-        <v>-0.0007445668962166059</v>
+        <v>-0.0007815057342777433</v>
       </c>
       <c r="P378" t="n">
         <v>0.009209999999999999</v>
       </c>
       <c r="Q378" t="n">
-        <v>0.0007400994948393063</v>
+        <v>0.0007768166998720768</v>
       </c>
     </row>
     <row r="379">
@@ -22808,13 +22808,13 @@
       </c>
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="n">
-        <v>-0.0007026037799596511</v>
+        <v>-0.0006899777543444832</v>
       </c>
       <c r="P379" t="n">
         <v>0.0149</v>
       </c>
       <c r="Q379" t="n">
-        <v>5.69811665547277e-06</v>
+        <v>5.595719587733758e-06</v>
       </c>
     </row>
     <row r="380">
@@ -22867,13 +22867,13 @@
       </c>
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="n">
-        <v>-0.0005544094160040351</v>
+        <v>-0.0006078963980691372</v>
       </c>
       <c r="P380" t="n">
         <v>0.0217</v>
       </c>
       <c r="Q380" t="n">
-        <v>0.0001208612526888796</v>
+        <v>0.0001325214147790719</v>
       </c>
     </row>
     <row r="381">
@@ -22926,13 +22926,13 @@
       </c>
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="n">
-        <v>-0.001556041063100903</v>
+        <v>-0.001736764217579729</v>
       </c>
       <c r="P381" t="n">
         <v>0.00346</v>
       </c>
       <c r="Q381" t="n">
-        <v>3.687817319549139e-05</v>
+        <v>4.116131195663956e-05</v>
       </c>
     </row>
     <row r="382">
@@ -22985,13 +22985,13 @@
       </c>
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="n">
-        <v>-0.001182257814719109</v>
+        <v>-0.00123207898158426</v>
       </c>
       <c r="P382" t="n">
         <v>0.00561</v>
       </c>
       <c r="Q382" t="n">
-        <v>0.0005639369776210151</v>
+        <v>0.0005877016742156921</v>
       </c>
     </row>
     <row r="383">
@@ -23044,13 +23044,13 @@
       </c>
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="n">
-        <v>-0.001123927622405904</v>
+        <v>-0.001072993428058071</v>
       </c>
       <c r="P383" t="n">
         <v>0.00963</v>
       </c>
       <c r="Q383" t="n">
-        <v>0.004889085157465682</v>
+        <v>0.004667521412052609</v>
       </c>
     </row>
     <row r="384">
@@ -23103,13 +23103,13 @@
       </c>
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="n">
-        <v>-0.0009463778580756932</v>
+        <v>-0.0009976373684106824</v>
       </c>
       <c r="P384" t="n">
         <v>0.0121</v>
       </c>
       <c r="Q384" t="n">
-        <v>0.002848597352807836</v>
+        <v>0.003002888478916154</v>
       </c>
     </row>
     <row r="385">
@@ -23162,13 +23162,13 @@
       </c>
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="n">
-        <v>-0.001531552288940989</v>
+        <v>-0.001917471502767617</v>
       </c>
       <c r="P385" t="n">
         <v>0.00414</v>
       </c>
       <c r="Q385" t="n">
-        <v>0.00117623215790668</v>
+        <v>0.00147261811412553</v>
       </c>
     </row>
     <row r="386">
@@ -23221,13 +23221,13 @@
       </c>
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="n">
-        <v>-0.001653748048400351</v>
+        <v>-0.001755322388460575</v>
       </c>
       <c r="P386" t="n">
         <v>0.00633</v>
       </c>
       <c r="Q386" t="n">
-        <v>0.0007193804010541525</v>
+        <v>0.00076356523898035</v>
       </c>
     </row>
     <row r="387">
@@ -23280,13 +23280,13 @@
       </c>
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="n">
-        <v>-0.001945570030491367</v>
+        <v>-0.001774066615815662</v>
       </c>
       <c r="P387" t="n">
         <v>0.0101</v>
       </c>
       <c r="Q387" t="n">
-        <v>0.002704342342382999</v>
+        <v>0.002465952595983771</v>
       </c>
     </row>
     <row r="388">
@@ -23339,13 +23339,13 @@
       </c>
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="n">
-        <v>-0.001587254256335053</v>
+        <v>-0.001540207980731628</v>
       </c>
       <c r="P388" t="n">
         <v>0.014</v>
       </c>
       <c r="Q388" t="n">
-        <v>0.003158635970106755</v>
+        <v>0.003065013881655939</v>
       </c>
     </row>
     <row r="389">
@@ -23398,13 +23398,13 @@
       </c>
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="n">
-        <v>-0.001194593299603062</v>
+        <v>-0.001953744310516943</v>
       </c>
       <c r="P389" t="n">
         <v>0.00552</v>
       </c>
       <c r="Q389" t="n">
-        <v>0.0002974537316011624</v>
+        <v>0.0004864823333187189</v>
       </c>
     </row>
     <row r="390">
@@ -23457,13 +23457,13 @@
       </c>
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="n">
-        <v>-0.002075079208215143</v>
+        <v>-0.002324710210490065</v>
       </c>
       <c r="P390" t="n">
         <v>0.008070000000000001</v>
       </c>
       <c r="Q390" t="n">
-        <v>0.00813431049620336</v>
+        <v>0.009112864025121055</v>
       </c>
     </row>
     <row r="391">
@@ -23516,13 +23516,13 @@
       </c>
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="n">
-        <v>-0.002896110091808541</v>
+        <v>-0.002557404127709371</v>
       </c>
       <c r="P391" t="n">
         <v>0.0124</v>
       </c>
       <c r="Q391" t="n">
-        <v>0.001268496220212141</v>
+        <v>0.001120143007936705</v>
       </c>
     </row>
     <row r="392">
@@ -23575,13 +23575,13 @@
       </c>
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="n">
-        <v>-0.002616834124284941</v>
+        <v>-0.002340311312872646</v>
       </c>
       <c r="P392" t="n">
         <v>0.0187</v>
       </c>
       <c r="Q392" t="n">
-        <v>0.004343944646313002</v>
+        <v>0.003884916779368592</v>
       </c>
     </row>
     <row r="393">
@@ -23634,13 +23634,13 @@
       </c>
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="n">
-        <v>-0.003967013125666982</v>
+        <v>-0.004106672829976867</v>
       </c>
       <c r="P393" t="n">
         <v>0.00389</v>
       </c>
       <c r="Q393" t="n">
-        <v>0.003193445566161921</v>
+        <v>0.003305871628131378</v>
       </c>
     </row>
     <row r="394">
@@ -23693,13 +23693,13 @@
       </c>
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="n">
-        <v>-0.002413199427008265</v>
+        <v>-0.002447009798314858</v>
       </c>
       <c r="P394" t="n">
         <v>0.00637</v>
       </c>
       <c r="Q394" t="n">
-        <v>0.00082048780518281</v>
+        <v>0.0008319833314270518</v>
       </c>
     </row>
     <row r="395">
@@ -23752,13 +23752,13 @@
       </c>
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="n">
-        <v>-0.002201637296835658</v>
+        <v>-0.00214147889559043</v>
       </c>
       <c r="P395" t="n">
         <v>0.0109</v>
       </c>
       <c r="Q395" t="n">
-        <v>0.007133304841747532</v>
+        <v>0.006938391621712994</v>
       </c>
     </row>
     <row r="396">
@@ -23811,13 +23811,13 @@
       </c>
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="n">
-        <v>-0.001735875796887528</v>
+        <v>-0.00187599467455084</v>
       </c>
       <c r="P396" t="n">
         <v>0.0167</v>
       </c>
       <c r="Q396" t="n">
-        <v>0.004738940925502951</v>
+        <v>0.005121465461523793</v>
       </c>
     </row>
     <row r="397">
@@ -23870,13 +23870,13 @@
       </c>
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="n">
-        <v>-0.005121050027619234</v>
+        <v>-0.005311839060261303</v>
       </c>
       <c r="P397" t="n">
         <v>0.00264</v>
       </c>
       <c r="Q397" t="n">
-        <v>0.008500943045847928</v>
+        <v>0.008817652840033764</v>
       </c>
     </row>
     <row r="398">
@@ -23929,13 +23929,13 @@
       </c>
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="n">
-        <v>-0.003774586289378026</v>
+        <v>-0.003751835961980528</v>
       </c>
       <c r="P398" t="n">
         <v>0.00409</v>
       </c>
       <c r="Q398" t="n">
-        <v>0.001623072104432551</v>
+        <v>0.001613289463651627</v>
       </c>
     </row>
     <row r="399">
@@ -23988,13 +23988,13 @@
       </c>
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="n">
-        <v>-0.003650381127183471</v>
+        <v>-0.003426561840212822</v>
       </c>
       <c r="P399" t="n">
         <v>0.00695</v>
       </c>
       <c r="Q399" t="n">
-        <v>0.003391204067153444</v>
+        <v>0.003183275949557712</v>
       </c>
     </row>
     <row r="400">
@@ -24047,13 +24047,13 @@
       </c>
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="n">
-        <v>-0.002802923919426507</v>
+        <v>-0.002904158729513967</v>
       </c>
       <c r="P400" t="n">
         <v>0.00923</v>
       </c>
       <c r="Q400" t="n">
-        <v>0.01785462536674685</v>
+        <v>0.01849949110700397</v>
       </c>
     </row>
     <row r="401">
@@ -24106,13 +24106,13 @@
       </c>
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="n">
-        <v>-0.005111645115411104</v>
+        <v>-0.005598326026990084</v>
       </c>
       <c r="P401" t="n">
         <v>0.00318</v>
       </c>
       <c r="Q401" t="n">
-        <v>0.004232442155560394</v>
+        <v>0.004635413950347789</v>
       </c>
     </row>
     <row r="402">
@@ -24165,13 +24165,13 @@
       </c>
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="n">
-        <v>-0.005415487576474243</v>
+        <v>-0.005283078116630605</v>
       </c>
       <c r="P402" t="n">
         <v>0.00472</v>
       </c>
       <c r="Q402" t="n">
-        <v>0.005577952203768471</v>
+        <v>0.005441570460129524</v>
       </c>
     </row>
     <row r="403">
@@ -24224,13 +24224,13 @@
       </c>
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="n">
-        <v>-0.005980575908257194</v>
+        <v>-0.005298157972599436</v>
       </c>
       <c r="P403" t="n">
         <v>0.0074</v>
       </c>
       <c r="Q403" t="n">
-        <v>0.009389504175963794</v>
+        <v>0.008318108016981116</v>
       </c>
     </row>
     <row r="404">
@@ -24283,13 +24283,13 @@
       </c>
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="n">
-        <v>-0.005000481595068413</v>
+        <v>-0.004741190708041012</v>
       </c>
       <c r="P404" t="n">
         <v>0.0106</v>
       </c>
       <c r="Q404" t="n">
-        <v>0.002030195527597776</v>
+        <v>0.001924923427464651</v>
       </c>
     </row>
     <row r="405">
@@ -24342,13 +24342,13 @@
       </c>
       <c r="N405" t="inlineStr"/>
       <c r="O405" t="n">
-        <v>-0.00417319704934802</v>
+        <v>-0.005390604043502769</v>
       </c>
       <c r="P405" t="n">
         <v>0.00417</v>
       </c>
       <c r="Q405" t="n">
-        <v>0.002441320273868591</v>
+        <v>0.00315350336544912</v>
       </c>
     </row>
     <row r="406">
@@ -24401,13 +24401,13 @@
       </c>
       <c r="N406" t="inlineStr"/>
       <c r="O406" t="n">
-        <v>-0.007119109766329176</v>
+        <v>-0.006976177412352544</v>
       </c>
       <c r="P406" t="n">
         <v>0.0063</v>
       </c>
       <c r="Q406" t="n">
-        <v>0.001701467234152673</v>
+        <v>0.001667306401552258</v>
       </c>
     </row>
     <row r="407">
@@ -24460,13 +24460,13 @@
       </c>
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="n">
-        <v>-0.009829311794144105</v>
+        <v>-0.008230534318167677</v>
       </c>
       <c r="P407" t="n">
         <v>0.00967</v>
       </c>
       <c r="Q407" t="n">
-        <v>0.01739788187563506</v>
+        <v>0.01456804574315679</v>
       </c>
     </row>
     <row r="408">
@@ -24519,13 +24519,13 @@
       </c>
       <c r="N408" t="inlineStr"/>
       <c r="O408" t="n">
-        <v>-0.009335106556601993</v>
+        <v>-0.007958655260503903</v>
       </c>
       <c r="P408" t="n">
         <v>0.0135</v>
       </c>
       <c r="Q408" t="n">
-        <v>0.006646595868300619</v>
+        <v>0.005666562545478779</v>
       </c>
     </row>
     <row r="409">
@@ -24578,13 +24578,13 @@
       </c>
       <c r="N409" t="inlineStr"/>
       <c r="O409" t="n">
-        <v>-0.01357872983471215</v>
+        <v>-0.01345531757438724</v>
       </c>
       <c r="P409" t="n">
         <v>0.00375</v>
       </c>
       <c r="Q409" t="n">
-        <v>0.01112097973462925</v>
+        <v>0.01101990509342315</v>
       </c>
     </row>
     <row r="410">
@@ -24637,13 +24637,13 @@
       </c>
       <c r="N410" t="inlineStr"/>
       <c r="O410" t="n">
-        <v>-0.008308079924207427</v>
+        <v>-0.008211906892034304</v>
       </c>
       <c r="P410" t="n">
         <v>0.00638</v>
       </c>
       <c r="Q410" t="n">
-        <v>0.003871565244680661</v>
+        <v>0.003826748611687986</v>
       </c>
     </row>
     <row r="411">
@@ -24696,13 +24696,13 @@
       </c>
       <c r="N411" t="inlineStr"/>
       <c r="O411" t="n">
-        <v>-0.007420744389598045</v>
+        <v>-0.007157773335120556</v>
       </c>
       <c r="P411" t="n">
         <v>0.009379999999999999</v>
       </c>
       <c r="Q411" t="n">
-        <v>2.166857361762629</v>
+        <v>2.090069813855203</v>
       </c>
     </row>
     <row r="412">
@@ -24755,13 +24755,13 @@
       </c>
       <c r="N412" t="inlineStr"/>
       <c r="O412" t="n">
-        <v>-0.005848579375948336</v>
+        <v>-0.006208840400322551</v>
       </c>
       <c r="P412" t="n">
         <v>0.0149</v>
       </c>
       <c r="Q412" t="n">
-        <v>0.002608466401672958</v>
+        <v>0.002769142818543858</v>
       </c>
     </row>
     <row r="413">
@@ -24814,13 +24814,13 @@
       </c>
       <c r="N413" t="inlineStr"/>
       <c r="O413" t="n">
-        <v>-0.01765824540159931</v>
+        <v>-0.0171882625853859</v>
       </c>
       <c r="P413" t="n">
         <v>0.00259</v>
       </c>
       <c r="Q413" t="n">
-        <v>0.02436837865420704</v>
+        <v>0.02371980236783254</v>
       </c>
     </row>
     <row r="414">
@@ -24873,13 +24873,13 @@
       </c>
       <c r="N414" t="inlineStr"/>
       <c r="O414" t="n">
-        <v>-0.01284030712238547</v>
+        <v>-0.01230737596471903</v>
       </c>
       <c r="P414" t="n">
         <v>0.004</v>
       </c>
       <c r="Q414" t="n">
-        <v>0.001810483304256351</v>
+        <v>0.001735340011025383</v>
       </c>
     </row>
     <row r="415">
@@ -24932,13 +24932,13 @@
       </c>
       <c r="N415" t="inlineStr"/>
       <c r="O415" t="n">
-        <v>-0.01242271723663433</v>
+        <v>-0.01148885215927444</v>
       </c>
       <c r="P415" t="n">
         <v>0.00611</v>
       </c>
       <c r="Q415" t="n">
-        <v>0.02434852578380329</v>
+        <v>0.0225181502321779</v>
       </c>
     </row>
     <row r="416">
@@ -24991,13 +24991,13 @@
       </c>
       <c r="N416" t="inlineStr"/>
       <c r="O416" t="n">
-        <v>-0.01023929653271283</v>
+        <v>-0.01029827955132094</v>
       </c>
       <c r="P416" t="n">
         <v>0.008580000000000001</v>
       </c>
       <c r="Q416" t="n">
-        <v>0.004556486957057207</v>
+        <v>0.004582734400337818</v>
       </c>
     </row>
     <row r="417">
@@ -25050,13 +25050,13 @@
       </c>
       <c r="N417" t="inlineStr"/>
       <c r="O417" t="n">
-        <v>-0.01793410091235026</v>
+        <v>-0.01752272432798755</v>
       </c>
       <c r="P417" t="n">
         <v>0.00319</v>
       </c>
       <c r="Q417" t="n">
-        <v>0.01972751100358529</v>
+        <v>0.0192749967607863</v>
       </c>
     </row>
     <row r="418">
@@ -25109,13 +25109,13 @@
       </c>
       <c r="N418" t="inlineStr"/>
       <c r="O418" t="n">
-        <v>-0.0187923060919682</v>
+        <v>-0.01721027516492813</v>
       </c>
       <c r="P418" t="n">
         <v>0.00481</v>
       </c>
       <c r="Q418" t="n">
-        <v>0.02856430525979166</v>
+        <v>0.02615961825069076</v>
       </c>
     </row>
     <row r="419">
@@ -25168,13 +25168,13 @@
       </c>
       <c r="N419" t="inlineStr"/>
       <c r="O419" t="n">
-        <v>-0.02084388084213852</v>
+        <v>-0.01801119819590523</v>
       </c>
       <c r="P419" t="n">
         <v>0.00706</v>
       </c>
       <c r="Q419" t="n">
-        <v>0.005544472304008848</v>
+        <v>0.004790978720110791</v>
       </c>
     </row>
     <row r="420">
@@ -25227,13 +25227,13 @@
       </c>
       <c r="N420" t="inlineStr"/>
       <c r="O420" t="n">
-        <v>-0.0181241069585817</v>
+        <v>-0.01657999318655005</v>
       </c>
       <c r="P420" t="n">
         <v>0.0107</v>
       </c>
       <c r="Q420" t="n">
-        <v>0.04059799958722301</v>
+        <v>0.03713918473787212</v>
       </c>
     </row>
     <row r="421">
@@ -25286,13 +25286,13 @@
       </c>
       <c r="N421" t="inlineStr"/>
       <c r="O421" t="n">
-        <v>-0.01503100075575587</v>
+        <v>-0.01624173662060281</v>
       </c>
       <c r="P421" t="n">
         <v>0.0044</v>
       </c>
       <c r="Q421" t="n">
-        <v>0.01608317080865879</v>
+        <v>0.01737865818404501</v>
       </c>
     </row>
     <row r="422">
@@ -25345,13 +25345,13 @@
       </c>
       <c r="N422" t="inlineStr"/>
       <c r="O422" t="n">
-        <v>-0.02559407180368893</v>
+        <v>-0.02265827906923304</v>
       </c>
       <c r="P422" t="n">
         <v>0.00656</v>
       </c>
       <c r="Q422" t="n">
-        <v>0.03608764124320139</v>
+        <v>0.03194817348761859</v>
       </c>
     </row>
     <row r="423">
@@ -25404,13 +25404,13 @@
       </c>
       <c r="N423" t="inlineStr"/>
       <c r="O423" t="n">
-        <v>-0.0339022331060372</v>
+        <v>-0.02716247123989048</v>
       </c>
       <c r="P423" t="n">
         <v>0.00932</v>
       </c>
       <c r="Q423" t="n">
-        <v>0.01973109966771365</v>
+        <v>0.01580855826161626</v>
       </c>
     </row>
     <row r="424">
@@ -25463,13 +25463,13 @@
       </c>
       <c r="N424" t="inlineStr"/>
       <c r="O424" t="n">
-        <v>-0.03152252659886887</v>
+        <v>-0.02584465757587634</v>
       </c>
       <c r="P424" t="n">
         <v>0.0138</v>
       </c>
       <c r="Q424" t="n">
-        <v>0.01900808353911793</v>
+        <v>0.01558432851825343</v>
       </c>
     </row>
     <row r="425">
@@ -25522,13 +25522,13 @@
       </c>
       <c r="N425" t="inlineStr"/>
       <c r="O425" t="n">
-        <v>-0.0417371786647585</v>
+        <v>-0.04014983058292201</v>
       </c>
       <c r="P425" t="n">
         <v>0.00411</v>
       </c>
       <c r="Q425" t="n">
-        <v>0.01828088425516422</v>
+        <v>0.01758562579531984</v>
       </c>
     </row>
     <row r="426">
@@ -25581,13 +25581,13 @@
       </c>
       <c r="N426" t="inlineStr"/>
       <c r="O426" t="n">
-        <v>-0.02564488356158524</v>
+        <v>-0.02503516009856262</v>
       </c>
       <c r="P426" t="n">
         <v>0.00673</v>
       </c>
       <c r="Q426" t="n">
-        <v>0.008719260410938984</v>
+        <v>0.008511954433511293</v>
       </c>
     </row>
     <row r="427">
@@ -25640,13 +25640,13 @@
       </c>
       <c r="N427" t="inlineStr"/>
       <c r="O427" t="n">
-        <v>-0.02268114297427811</v>
+        <v>-0.02172522949169029</v>
       </c>
       <c r="P427" t="n">
         <v>0.00976</v>
       </c>
       <c r="Q427" t="n">
-        <v>0.02812461728810486</v>
+        <v>0.02693928456969596</v>
       </c>
     </row>
     <row r="428">
@@ -25699,13 +25699,13 @@
       </c>
       <c r="N428" t="inlineStr"/>
       <c r="O428" t="n">
-        <v>-0.01801033773866366</v>
+        <v>-0.01849671034160609</v>
       </c>
       <c r="P428" t="n">
         <v>0.0176</v>
       </c>
       <c r="Q428" t="n">
-        <v>0.008717003465513209</v>
+        <v>0.008952407805337348</v>
       </c>
     </row>
     <row r="429">
@@ -25758,13 +25758,13 @@
       </c>
       <c r="N429" t="inlineStr"/>
       <c r="O429" t="n">
-        <v>-0.053825774789257</v>
+        <v>-0.05034068902782295</v>
       </c>
       <c r="P429" t="n">
         <v>0.00274</v>
       </c>
       <c r="Q429" t="n">
-        <v>0.5597880578082728</v>
+        <v>0.5235431658893588</v>
       </c>
     </row>
     <row r="430">
@@ -25817,13 +25817,13 @@
       </c>
       <c r="N430" t="inlineStr"/>
       <c r="O430" t="n">
-        <v>-0.03930474028680236</v>
+        <v>-0.03696315224606535</v>
       </c>
       <c r="P430" t="n">
         <v>0.00426</v>
       </c>
       <c r="Q430" t="n">
-        <v>0.00432352143154826</v>
+        <v>0.004065946747067188</v>
       </c>
     </row>
     <row r="431">
@@ -25876,13 +25876,13 @@
       </c>
       <c r="N431" t="inlineStr"/>
       <c r="O431" t="n">
-        <v>-0.037766264469809</v>
+        <v>-0.0347036649050475</v>
       </c>
       <c r="P431" t="n">
         <v>0.00634</v>
       </c>
       <c r="Q431" t="n">
-        <v>0.2216879724377789</v>
+        <v>0.2037105129926288</v>
       </c>
     </row>
     <row r="432">
@@ -25935,13 +25935,13 @@
       </c>
       <c r="N432" t="inlineStr"/>
       <c r="O432" t="n">
-        <v>-0.0318890585559845</v>
+        <v>-0.03119771334063042</v>
       </c>
       <c r="P432" t="n">
         <v>0.009339999999999999</v>
       </c>
       <c r="Q432" t="n">
-        <v>0.05134138427513505</v>
+        <v>0.05022831847841498</v>
       </c>
     </row>
     <row r="433">
@@ -25994,13 +25994,13 @@
       </c>
       <c r="N433" t="inlineStr"/>
       <c r="O433" t="n">
-        <v>-0.05491076364152297</v>
+        <v>-0.05049079599707881</v>
       </c>
       <c r="P433" t="n">
         <v>0.00343</v>
       </c>
       <c r="Q433" t="n">
-        <v>0.02740047105711996</v>
+        <v>0.02519490720254233</v>
       </c>
     </row>
     <row r="434">
@@ -26053,13 +26053,13 @@
       </c>
       <c r="N434" t="inlineStr"/>
       <c r="O434" t="n">
-        <v>-0.05815180240663572</v>
+        <v>-0.051699443333185</v>
       </c>
       <c r="P434" t="n">
         <v>0.00492</v>
       </c>
       <c r="Q434" t="n">
-        <v>0.02494712323244672</v>
+        <v>0.02217906118993637</v>
       </c>
     </row>
     <row r="435">
@@ -26112,13 +26112,13 @@
       </c>
       <c r="N435" t="inlineStr"/>
       <c r="O435" t="n">
-        <v>-0.06483087019297773</v>
+        <v>-0.05544992876914565</v>
       </c>
       <c r="P435" t="n">
         <v>0.00762</v>
       </c>
       <c r="Q435" t="n">
-        <v>0.09335645307788792</v>
+        <v>0.07984789742756973</v>
       </c>
     </row>
     <row r="436">
@@ -26171,13 +26171,13 @@
       </c>
       <c r="N436" t="inlineStr"/>
       <c r="O436" t="n">
-        <v>-0.05700154841646286</v>
+        <v>-0.05123403160255555</v>
       </c>
       <c r="P436" t="n">
         <v>0.0109</v>
       </c>
       <c r="Q436" t="n">
-        <v>0.1806949084801872</v>
+        <v>0.1624118801801011</v>
       </c>
     </row>
     <row r="437">
@@ -26230,13 +26230,13 @@
       </c>
       <c r="N437" t="inlineStr"/>
       <c r="O437" t="n">
-        <v>-0.0456994521335604</v>
+        <v>-0.04526252795864443</v>
       </c>
       <c r="P437" t="n">
         <v>0.00488</v>
       </c>
       <c r="Q437" t="n">
-        <v>0.04889841378290963</v>
+        <v>0.04843090491574954</v>
       </c>
     </row>
     <row r="438">
@@ -26289,13 +26289,13 @@
       </c>
       <c r="N438" t="inlineStr"/>
       <c r="O438" t="n">
-        <v>-0.07765823423086679</v>
+        <v>-0.06571196597427188</v>
       </c>
       <c r="P438" t="n">
         <v>0.00693</v>
       </c>
       <c r="Q438" t="n">
-        <v>0.01607525448578942</v>
+        <v>0.01360237695667428</v>
       </c>
     </row>
     <row r="439">
@@ -26348,13 +26348,13 @@
       </c>
       <c r="N439" t="inlineStr"/>
       <c r="O439" t="n">
-        <v>-0.1071573486494086</v>
+        <v>-0.08445514884979836</v>
       </c>
       <c r="P439" t="n">
         <v>0.009990000000000001</v>
       </c>
       <c r="Q439" t="n">
-        <v>0.2593207837315687</v>
+        <v>0.204381460216512</v>
       </c>
     </row>
     <row r="440">
@@ -26407,13 +26407,13 @@
       </c>
       <c r="N440" t="inlineStr"/>
       <c r="O440" t="n">
-        <v>-0.1001982661430767</v>
+        <v>-0.0806302978531671</v>
       </c>
       <c r="P440" t="n">
         <v>0.0165</v>
       </c>
       <c r="Q440" t="n">
-        <v>24.34817867276765</v>
+        <v>19.5931623783196</v>
       </c>
     </row>
     <row r="441">
@@ -26466,13 +26466,13 @@
       </c>
       <c r="N441" t="inlineStr"/>
       <c r="O441" t="n">
-        <v>-0.09628936290055486</v>
+        <v>-0.09500256630440473</v>
       </c>
       <c r="P441" t="n">
         <v>0.00502</v>
       </c>
       <c r="Q441" t="n">
-        <v>0.2012447684621596</v>
+        <v>0.1985553635762059</v>
       </c>
     </row>
     <row r="442">
@@ -26525,13 +26525,13 @@
       </c>
       <c r="N442" t="inlineStr"/>
       <c r="O442" t="n">
-        <v>-0.06055560147327049</v>
+        <v>-0.0607789236523932</v>
       </c>
       <c r="P442" t="n">
         <v>0.008019999999999999</v>
       </c>
       <c r="Q442" t="n">
-        <v>0.1077889706224215</v>
+        <v>0.1081864841012599</v>
       </c>
     </row>
     <row r="443">
@@ -26584,13 +26584,13 @@
       </c>
       <c r="N443" t="inlineStr"/>
       <c r="O443" t="n">
-        <v>-0.05709577783350703</v>
+        <v>-0.05606984062784823</v>
       </c>
       <c r="P443" t="n">
         <v>0.0136</v>
       </c>
       <c r="Q443" t="n">
-        <v>0.03905351203811881</v>
+        <v>0.0383517709894482</v>
       </c>
     </row>
     <row r="444">
@@ -26643,13 +26643,13 @@
       </c>
       <c r="N444" t="inlineStr"/>
       <c r="O444" t="n">
-        <v>-0.04856958666726588</v>
+        <v>-0.04998774490821431</v>
       </c>
       <c r="P444" t="n">
         <v>0.019</v>
       </c>
       <c r="Q444" t="n">
-        <v>0.1078244824013303</v>
+        <v>0.1109727936962358</v>
       </c>
     </row>
     <row r="445">
@@ -26702,13 +26702,13 @@
       </c>
       <c r="N445" t="inlineStr"/>
       <c r="O445" t="n">
-        <v>-0.1246084464275432</v>
+        <v>-0.1205986598326358</v>
       </c>
       <c r="P445" t="n">
         <v>0.00347</v>
       </c>
       <c r="Q445" t="n">
-        <v>0.04922033633887957</v>
+        <v>0.04763647063389114</v>
       </c>
     </row>
     <row r="446">
@@ -26761,13 +26761,13 @@
       </c>
       <c r="N446" t="inlineStr"/>
       <c r="O446" t="n">
-        <v>-0.09282884364978547</v>
+        <v>-0.09073101145659113</v>
       </c>
       <c r="P446" t="n">
         <v>0.00523</v>
       </c>
       <c r="Q446" t="n">
-        <v>0.1290320926732018</v>
+        <v>0.1261161059246617</v>
       </c>
     </row>
     <row r="447">
@@ -26820,13 +26820,13 @@
       </c>
       <c r="N447" t="inlineStr"/>
       <c r="O447" t="n">
-        <v>-0.09181479220555154</v>
+        <v>-0.08723931872541217</v>
       </c>
       <c r="P447" t="n">
         <v>0.00763</v>
       </c>
       <c r="Q447" t="n">
-        <v>0.17812069687877</v>
+        <v>0.1692442783272996</v>
       </c>
     </row>
     <row r="448">
@@ -26879,13 +26879,13 @@
       </c>
       <c r="N448" t="inlineStr"/>
       <c r="O448" t="n">
-        <v>-0.08071991712992346</v>
+        <v>-0.07963480710426685</v>
       </c>
       <c r="P448" t="n">
         <v>0.0115</v>
       </c>
       <c r="Q448" t="n">
-        <v>0.1840414110562255</v>
+        <v>0.1815673601977284</v>
       </c>
     </row>
     <row r="449">
@@ -26938,13 +26938,13 @@
       </c>
       <c r="N449" t="inlineStr"/>
       <c r="O449" t="n">
-        <v>-0.125995537871818</v>
+        <v>-0.1218788331777218</v>
       </c>
       <c r="P449" t="n">
         <v>0.00437</v>
       </c>
       <c r="Q449" t="n">
-        <v>0.03994058550536631</v>
+        <v>0.03863559011733782</v>
       </c>
     </row>
     <row r="450">
@@ -26997,13 +26997,13 @@
       </c>
       <c r="N450" t="inlineStr"/>
       <c r="O450" t="n">
-        <v>-0.13511373195169</v>
+        <v>-0.1270544845700319</v>
       </c>
       <c r="P450" t="n">
         <v>0.00644</v>
       </c>
       <c r="Q450" t="n">
-        <v>0.09444449863423129</v>
+        <v>0.0888110847144523</v>
       </c>
     </row>
     <row r="451">
@@ -27056,13 +27056,13 @@
       </c>
       <c r="N451" t="inlineStr"/>
       <c r="O451" t="n">
-        <v>-0.1557158244315868</v>
+        <v>-0.1396257467673674</v>
       </c>
       <c r="P451" t="n">
         <v>0.00929</v>
       </c>
       <c r="Q451" t="n">
-        <v>0.1572729826759026</v>
+        <v>0.1410220042350411</v>
       </c>
     </row>
     <row r="452">
@@ -27115,13 +27115,13 @@
       </c>
       <c r="N452" t="inlineStr"/>
       <c r="O452" t="n">
-        <v>-0.1468838912360935</v>
+        <v>-0.1344582059547267</v>
       </c>
       <c r="P452" t="n">
         <v>0.0133</v>
       </c>
       <c r="Q452" t="n">
-        <v>0.09532764541222466</v>
+        <v>0.08726337566461764</v>
       </c>
     </row>
     <row r="453">
@@ -27174,13 +27174,13 @@
       </c>
       <c r="N453" t="inlineStr"/>
       <c r="O453" t="n">
-        <v>-0.1004295573511259</v>
+        <v>-0.1075184842392277</v>
       </c>
       <c r="P453" t="n">
         <v>0.00631</v>
       </c>
       <c r="Q453" t="n">
-        <v>0.2048762969962968</v>
+        <v>0.2193377078480246</v>
       </c>
     </row>
     <row r="454">
@@ -27233,13 +27233,13 @@
       </c>
       <c r="N454" t="inlineStr"/>
       <c r="O454" t="n">
-        <v>-0.1782850079527126</v>
+        <v>-0.1626130005724157</v>
       </c>
       <c r="P454" t="n">
         <v>0.008970000000000001</v>
       </c>
       <c r="Q454" t="n">
-        <v>0.03173473141558283</v>
+        <v>0.02894511410189</v>
       </c>
     </row>
     <row r="455">
@@ -27292,13 +27292,13 @@
       </c>
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="n">
-        <v>-0.2560628059975802</v>
+        <v>-0.2168447884442325</v>
       </c>
       <c r="P455" t="n">
         <v>0.013</v>
       </c>
       <c r="Q455" t="n">
-        <v>0.1398102920746788</v>
+        <v>0.118397254490551</v>
       </c>
     </row>
     <row r="456">
@@ -27351,13 +27351,13 @@
       </c>
       <c r="N456" t="inlineStr"/>
       <c r="O456" t="n">
-        <v>-0.2451975925085623</v>
+        <v>-0.205493389261476</v>
       </c>
       <c r="P456" t="n">
         <v>0.0177</v>
       </c>
       <c r="Q456" t="n">
-        <v>0.2108699295573636</v>
+        <v>0.1767243147648693</v>
       </c>
     </row>
     <row r="457">
@@ -27410,13 +27410,13 @@
       </c>
       <c r="N457" t="inlineStr"/>
       <c r="O457" t="n">
-        <v>-0.1978959049339047</v>
+        <v>-0.2078133294074251</v>
       </c>
       <c r="P457" t="n">
         <v>0.0141</v>
       </c>
       <c r="Q457" t="n">
-        <v>12.38828364886244</v>
+        <v>13.00911442090481</v>
       </c>
     </row>
     <row r="458">
@@ -27469,13 +27469,13 @@
       </c>
       <c r="N458" t="inlineStr"/>
       <c r="O458" t="n">
-        <v>-0.1393042666698533</v>
+        <v>-0.1455175651994422</v>
       </c>
       <c r="P458" t="n">
         <v>0.0222</v>
       </c>
       <c r="Q458" t="n">
-        <v>0.2813946186731038</v>
+        <v>0.2939454817028732</v>
       </c>
     </row>
     <row r="459">
@@ -27528,13 +27528,13 @@
       </c>
       <c r="N459" t="inlineStr"/>
       <c r="O459" t="n">
-        <v>-0.1263412712382874</v>
+        <v>-0.1276101291618278</v>
       </c>
       <c r="P459" t="n">
         <v>0.0321</v>
       </c>
       <c r="Q459" t="n">
-        <v>36.25994484538847</v>
+        <v>36.62410706944458</v>
       </c>
     </row>
     <row r="460">
@@ -27587,13 +27587,13 @@
       </c>
       <c r="N460" t="inlineStr"/>
       <c r="O460" t="n">
-        <v>-0.1119349512009591</v>
+        <v>-0.1140518586108047</v>
       </c>
       <c r="P460" t="n">
         <v>0.0519</v>
       </c>
       <c r="Q460" t="n">
-        <v>0.09066731047277685</v>
+        <v>0.09238200547475185</v>
       </c>
     </row>
     <row r="461">
@@ -27646,13 +27646,13 @@
       </c>
       <c r="N461" t="inlineStr"/>
       <c r="O461" t="n">
-        <v>-0.2376852543373578</v>
+        <v>-0.2539143243215073</v>
       </c>
       <c r="P461" t="n">
         <v>0.0105</v>
       </c>
       <c r="Q461" t="n">
-        <v>0.1145642925906064</v>
+        <v>0.1223867043229665</v>
       </c>
     </row>
     <row r="462">
@@ -27705,13 +27705,13 @@
       </c>
       <c r="N462" t="inlineStr"/>
       <c r="O462" t="n">
-        <v>-0.1920828436720413</v>
+        <v>-0.2017856048760174</v>
       </c>
       <c r="P462" t="n">
         <v>0.0146</v>
       </c>
       <c r="Q462" t="n">
-        <v>0.06069817860036504</v>
+        <v>0.0637642511408215</v>
       </c>
     </row>
     <row r="463">
@@ -27764,13 +27764,13 @@
       </c>
       <c r="N463" t="inlineStr"/>
       <c r="O463" t="n">
-        <v>-0.1979698266005476</v>
+        <v>-0.1984879594110692</v>
       </c>
       <c r="P463" t="n">
         <v>0.021</v>
       </c>
       <c r="Q463" t="n">
-        <v>4.097975410631335</v>
+        <v>4.108700759809133</v>
       </c>
     </row>
     <row r="464">
@@ -27823,13 +27823,13 @@
       </c>
       <c r="N464" t="inlineStr"/>
       <c r="O464" t="n">
-        <v>-0.1775735521171833</v>
+        <v>-0.1788739715567119</v>
       </c>
       <c r="P464" t="n">
         <v>0.0306</v>
       </c>
       <c r="Q464" t="n">
-        <v>0.3462684266285075</v>
+        <v>0.3488042445355882</v>
       </c>
     </row>
     <row r="465">
@@ -27882,13 +27882,13 @@
       </c>
       <c r="N465" t="inlineStr"/>
       <c r="O465" t="n">
-        <v>-0.2240321477267002</v>
+        <v>-0.2571977694127541</v>
       </c>
       <c r="P465" t="n">
         <v>0.0153</v>
       </c>
       <c r="Q465" t="n">
-        <v>0.09902220929520147</v>
+        <v>0.1136814140804373</v>
       </c>
     </row>
     <row r="466">
@@ -27941,13 +27941,13 @@
       </c>
       <c r="N466" t="inlineStr"/>
       <c r="O466" t="n">
-        <v>-0.2691321854216701</v>
+        <v>-0.2911303138190004</v>
       </c>
       <c r="P466" t="n">
         <v>0.0187</v>
       </c>
       <c r="Q466" t="n">
-        <v>0.3095020132349206</v>
+        <v>0.3347998608918504</v>
       </c>
     </row>
     <row r="467">
@@ -28000,13 +28000,13 @@
       </c>
       <c r="N467" t="inlineStr"/>
       <c r="O467" t="n">
-        <v>-0.3215703730962124</v>
+        <v>-0.3192913650873502</v>
       </c>
       <c r="P467" t="n">
         <v>0.0248</v>
       </c>
       <c r="Q467" t="n">
-        <v>0.5402382268016368</v>
+        <v>0.5364094933467483</v>
       </c>
     </row>
     <row r="468">
@@ -28059,13 +28059,13 @@
       </c>
       <c r="N468" t="inlineStr"/>
       <c r="O468" t="n">
-        <v>-0.3055772730801439</v>
+        <v>-0.2976373026418632</v>
       </c>
       <c r="P468" t="n">
         <v>0.0324</v>
       </c>
       <c r="Q468" t="n">
-        <v>4.675332278126202</v>
+        <v>4.553850730420507</v>
       </c>
     </row>
     <row r="469">
@@ -28118,13 +28118,13 @@
       </c>
       <c r="N469" t="inlineStr"/>
       <c r="O469" t="n">
-        <v>-0.1615561373348705</v>
+        <v>-0.2321808139081122</v>
       </c>
       <c r="P469" t="n">
         <v>0.0174</v>
       </c>
       <c r="Q469" t="n">
-        <v>0.1664028214549166</v>
+        <v>0.2391462383253556</v>
       </c>
     </row>
     <row r="470">
@@ -28177,13 +28177,13 @@
       </c>
       <c r="N470" t="inlineStr"/>
       <c r="O470" t="n">
-        <v>-0.3230903995399689</v>
+        <v>-0.3706746208992546</v>
       </c>
       <c r="P470" t="n">
         <v>0.0293</v>
       </c>
       <c r="Q470" t="n">
-        <v>0.6687971270477355</v>
+        <v>0.7672964652614569</v>
       </c>
     </row>
     <row r="471">
@@ -28236,13 +28236,13 @@
       </c>
       <c r="N471" t="inlineStr"/>
       <c r="O471" t="n">
-        <v>-0.4945021282885449</v>
+        <v>-0.4956087809689205</v>
       </c>
       <c r="P471" t="n">
         <v>0.0382</v>
       </c>
       <c r="Q471" t="n">
-        <v>1.048344511971715</v>
+        <v>1.050690615654111</v>
       </c>
     </row>
     <row r="472">
@@ -28295,13 +28295,13 @@
       </c>
       <c r="N472" t="inlineStr"/>
       <c r="O472" t="n">
-        <v>-0.5576936516928612</v>
+        <v>-0.5309164823373265</v>
       </c>
       <c r="P472" t="n">
         <v>0.0475</v>
       </c>
       <c r="Q472" t="n">
-        <v>0.3150969132064665</v>
+        <v>0.2999678125205894</v>
       </c>
     </row>
     <row r="473">
@@ -28354,13 +28354,13 @@
       </c>
       <c r="N473" t="inlineStr"/>
       <c r="O473" t="n">
-        <v>-0.004850972106681601</v>
+        <v>-0.00500497867823497</v>
       </c>
       <c r="P473" t="n">
         <v>0.0183</v>
       </c>
       <c r="Q473" t="n">
-        <v>0.0002250851057500263</v>
+        <v>0.0002322310106701026</v>
       </c>
     </row>
     <row r="474">
@@ -28413,13 +28413,13 @@
       </c>
       <c r="N474" t="inlineStr"/>
       <c r="O474" t="n">
-        <v>-0.003001699825089763</v>
+        <v>-0.003057634860562668</v>
       </c>
       <c r="P474" t="n">
         <v>0.0338</v>
       </c>
       <c r="Q474" t="n">
-        <v>0.001215688429161354</v>
+        <v>0.001238342118527881</v>
       </c>
     </row>
     <row r="475">
@@ -28472,13 +28472,13 @@
       </c>
       <c r="N475" t="inlineStr"/>
       <c r="O475" t="n">
-        <v>-0.002670452050999647</v>
+        <v>-0.002625761082846992</v>
       </c>
       <c r="P475" t="n">
         <v>0.0515</v>
       </c>
       <c r="Q475" t="n">
-        <v>0.001308521504989827</v>
+        <v>0.001286622930595026</v>
       </c>
     </row>
     <row r="476">
@@ -28531,13 +28531,13 @@
       </c>
       <c r="N476" t="inlineStr"/>
       <c r="O476" t="n">
-        <v>-0.002139132712053882</v>
+        <v>-0.002357982964901988</v>
       </c>
       <c r="P476" t="n">
         <v>0.0839</v>
       </c>
       <c r="Q476" t="n">
-        <v>0.0008128704305804753</v>
+        <v>0.0008960335266627556</v>
       </c>
     </row>
     <row r="477">
@@ -28590,13 +28590,13 @@
       </c>
       <c r="N477" t="inlineStr"/>
       <c r="O477" t="n">
-        <v>-0.006241558854989167</v>
+        <v>-0.006414851882071494</v>
       </c>
       <c r="P477" t="n">
         <v>0.0123</v>
       </c>
       <c r="Q477" t="n">
-        <v>0.004150636638567797</v>
+        <v>0.004265876501577543</v>
       </c>
     </row>
     <row r="478">
@@ -28649,13 +28649,13 @@
       </c>
       <c r="N478" t="inlineStr"/>
       <c r="O478" t="n">
-        <v>-0.004609106769673595</v>
+        <v>-0.004572802979319934</v>
       </c>
       <c r="P478" t="n">
         <v>0.0196</v>
       </c>
       <c r="Q478" t="n">
-        <v>0.000380712219175039</v>
+        <v>0.0003777135260918266</v>
       </c>
     </row>
     <row r="479">
@@ -28708,13 +28708,13 @@
       </c>
       <c r="N479" t="inlineStr"/>
       <c r="O479" t="n">
-        <v>-0.004457075555990145</v>
+        <v>-0.004210870741465932</v>
       </c>
       <c r="P479" t="n">
         <v>0.0306</v>
       </c>
       <c r="Q479" t="n">
-        <v>0.007309603911823837</v>
+        <v>0.006905828016004129</v>
       </c>
     </row>
     <row r="480">
@@ -28767,13 +28767,13 @@
       </c>
       <c r="N480" t="inlineStr"/>
       <c r="O480" t="n">
-        <v>-0.003771689547476718</v>
+        <v>-0.003938047986819838</v>
       </c>
       <c r="P480" t="n">
         <v>0.0493</v>
       </c>
       <c r="Q480" t="n">
-        <v>0.003243653010829978</v>
+        <v>0.00338672126866506</v>
       </c>
     </row>
     <row r="481">
@@ -28826,13 +28826,13 @@
       </c>
       <c r="N481" t="inlineStr"/>
       <c r="O481" t="n">
-        <v>-0.006259041138505859</v>
+        <v>-0.00668250616911564</v>
       </c>
       <c r="P481" t="n">
         <v>0.0138</v>
       </c>
       <c r="Q481" t="n">
-        <v>0.003667798107164433</v>
+        <v>0.003915948615101765</v>
       </c>
     </row>
     <row r="482">
@@ -28885,13 +28885,13 @@
       </c>
       <c r="N482" t="inlineStr"/>
       <c r="O482" t="n">
-        <v>-0.006692686225702035</v>
+        <v>-0.006439294587302969</v>
       </c>
       <c r="P482" t="n">
         <v>0.0219</v>
       </c>
       <c r="Q482" t="n">
-        <v>0.01077522482338028</v>
+        <v>0.01036726428555778</v>
       </c>
     </row>
     <row r="483">
@@ -28944,13 +28944,13 @@
       </c>
       <c r="N483" t="inlineStr"/>
       <c r="O483" t="n">
-        <v>-0.007549618424587951</v>
+        <v>-0.006692427256656375</v>
       </c>
       <c r="P483" t="n">
         <v>0.0346</v>
       </c>
       <c r="Q483" t="n">
-        <v>0.003986198528182439</v>
+        <v>0.003533601591514566</v>
       </c>
     </row>
     <row r="484">
@@ -29003,13 +29003,13 @@
       </c>
       <c r="N484" t="inlineStr"/>
       <c r="O484" t="n">
-        <v>-0.006492282555771692</v>
+        <v>-0.006177925610015894</v>
       </c>
       <c r="P484" t="n">
         <v>0.0502</v>
       </c>
       <c r="Q484" t="n">
-        <v>0.003843431273016841</v>
+        <v>0.003657331961129409</v>
       </c>
     </row>
     <row r="485">
@@ -29062,13 +29062,13 @@
       </c>
       <c r="N485" t="inlineStr"/>
       <c r="O485" t="n">
-        <v>-0.005100248491946747</v>
+        <v>-0.006303485993535858</v>
       </c>
       <c r="P485" t="n">
         <v>0.018</v>
       </c>
       <c r="Q485" t="n">
-        <v>0.008568417466470534</v>
+        <v>0.01058985646914024</v>
       </c>
     </row>
     <row r="486">
@@ -29121,13 +29121,13 @@
       </c>
       <c r="N486" t="inlineStr"/>
       <c r="O486" t="n">
-        <v>-0.008836250768831991</v>
+        <v>-0.008442476944433537</v>
       </c>
       <c r="P486" t="n">
         <v>0.0271</v>
       </c>
       <c r="Q486" t="n">
-        <v>0.003225231530623677</v>
+        <v>0.003081504084718241</v>
       </c>
     </row>
     <row r="487">
@@ -29180,13 +29180,13 @@
       </c>
       <c r="N487" t="inlineStr"/>
       <c r="O487" t="n">
-        <v>-0.01191576155147242</v>
+        <v>-0.009924673460544247</v>
       </c>
       <c r="P487" t="n">
         <v>0.0434</v>
       </c>
       <c r="Q487" t="n">
-        <v>0.001572880524794359</v>
+        <v>0.001310056896791841</v>
       </c>
     </row>
     <row r="488">
@@ -29239,13 +29239,13 @@
       </c>
       <c r="N488" t="inlineStr"/>
       <c r="O488" t="n">
-        <v>-0.01102657411495903</v>
+        <v>-0.009408169341013108</v>
       </c>
       <c r="P488" t="n">
         <v>0.0606</v>
       </c>
       <c r="Q488" t="n">
-        <v>0.01609879820784018</v>
+        <v>0.01373592723787914</v>
       </c>
     </row>
     <row r="489">
@@ -29298,13 +29298,13 @@
       </c>
       <c r="N489" t="inlineStr"/>
       <c r="O489" t="n">
-        <v>-0.01340961488694021</v>
+        <v>-0.01339131378078634</v>
       </c>
       <c r="P489" t="n">
         <v>0.00937</v>
       </c>
       <c r="Q489" t="n">
-        <v>0.009319682346423445</v>
+        <v>0.009306963077646507</v>
       </c>
     </row>
     <row r="490">
@@ -29357,13 +29357,13 @@
       </c>
       <c r="N490" t="inlineStr"/>
       <c r="O490" t="n">
-        <v>-0.008194745039158546</v>
+        <v>-0.008185926317266883</v>
       </c>
       <c r="P490" t="n">
         <v>0.0155</v>
       </c>
       <c r="Q490" t="n">
-        <v>0.01376717166578636</v>
+        <v>0.01375235621300836</v>
       </c>
     </row>
     <row r="491">
@@ -29416,13 +29416,13 @@
       </c>
       <c r="N491" t="inlineStr"/>
       <c r="O491" t="n">
-        <v>-0.007411380938751732</v>
+        <v>-0.007244714062485308</v>
       </c>
       <c r="P491" t="n">
         <v>0.0246</v>
       </c>
       <c r="Q491" t="n">
-        <v>0.008300746651401941</v>
+        <v>0.008114079749983545</v>
       </c>
     </row>
     <row r="492">
@@ -29475,13 +29475,13 @@
       </c>
       <c r="N492" t="inlineStr"/>
       <c r="O492" t="n">
-        <v>-0.006020771926312733</v>
+        <v>-0.00651160047209774</v>
       </c>
       <c r="P492" t="n">
         <v>0.0366</v>
       </c>
       <c r="Q492" t="n">
-        <v>0.004413225821987233</v>
+        <v>0.004773003146047643</v>
       </c>
     </row>
     <row r="493">
@@ -29534,13 +29534,13 @@
       </c>
       <c r="N493" t="inlineStr"/>
       <c r="O493" t="n">
-        <v>-0.01719459767567618</v>
+        <v>-0.01685031813243797</v>
       </c>
       <c r="P493" t="n">
         <v>0.00625</v>
       </c>
       <c r="Q493" t="n">
-        <v>0.004092314246810931</v>
+        <v>0.004010375715520238</v>
       </c>
     </row>
     <row r="494">
@@ -29593,13 +29593,13 @@
       </c>
       <c r="N494" t="inlineStr"/>
       <c r="O494" t="n">
-        <v>-0.01274190563522724</v>
+        <v>-0.01229498665172607</v>
       </c>
       <c r="P494" t="n">
         <v>0.009979999999999999</v>
       </c>
       <c r="Q494" t="n">
-        <v>0.002255317297435221</v>
+        <v>0.002176212637355515</v>
       </c>
     </row>
     <row r="495">
@@ -29652,13 +29652,13 @@
       </c>
       <c r="N495" t="inlineStr"/>
       <c r="O495" t="n">
-        <v>-0.01251726420513807</v>
+        <v>-0.01172407448441249</v>
       </c>
       <c r="P495" t="n">
         <v>0.0153</v>
       </c>
       <c r="Q495" t="n">
-        <v>0.01627244346667949</v>
+        <v>0.01524129682973624</v>
       </c>
     </row>
     <row r="496">
@@ -29711,13 +29711,13 @@
       </c>
       <c r="N496" t="inlineStr"/>
       <c r="O496" t="n">
-        <v>-0.01050794067854737</v>
+        <v>-0.01078373013509527</v>
       </c>
       <c r="P496" t="n">
         <v>0.0237</v>
       </c>
       <c r="Q496" t="n">
-        <v>0.005979018246093456</v>
+        <v>0.006135942446869208</v>
       </c>
     </row>
     <row r="497">
@@ -29770,13 +29770,13 @@
       </c>
       <c r="N497" t="inlineStr"/>
       <c r="O497" t="n">
-        <v>-0.01771672904192927</v>
+        <v>-0.01735396634781607</v>
       </c>
       <c r="P497" t="n">
         <v>0.00723</v>
       </c>
       <c r="Q497" t="n">
-        <v>0.00559848637724965</v>
+        <v>0.005483853365909879</v>
       </c>
     </row>
     <row r="498">
@@ -29829,13 +29829,13 @@
       </c>
       <c r="N498" t="inlineStr"/>
       <c r="O498" t="n">
-        <v>-0.01857802175467138</v>
+        <v>-0.01705517177361377</v>
       </c>
       <c r="P498" t="n">
         <v>0.0111</v>
       </c>
       <c r="Q498" t="n">
-        <v>0.04774551590950545</v>
+        <v>0.0438317914581874</v>
       </c>
     </row>
     <row r="499">
@@ -29888,13 +29888,13 @@
       </c>
       <c r="N499" t="inlineStr"/>
       <c r="O499" t="n">
-        <v>-0.02113508567768097</v>
+        <v>-0.01839195865335171</v>
       </c>
       <c r="P499" t="n">
         <v>0.0171</v>
       </c>
       <c r="Q499" t="n">
-        <v>0.004459503077990685</v>
+        <v>0.00388070327585721</v>
       </c>
     </row>
     <row r="500">
@@ -29947,13 +29947,13 @@
       </c>
       <c r="N500" t="inlineStr"/>
       <c r="O500" t="n">
-        <v>-0.0183734296842883</v>
+        <v>-0.0170939110480897</v>
       </c>
       <c r="P500" t="n">
         <v>0.0251</v>
       </c>
       <c r="Q500" t="n">
-        <v>0.002462039577694633</v>
+        <v>0.002290584080444019</v>
       </c>
     </row>
     <row r="501">
@@ -30006,13 +30006,13 @@
       </c>
       <c r="N501" t="inlineStr"/>
       <c r="O501" t="n">
-        <v>-0.01457762908729777</v>
+        <v>-0.01574459094630809</v>
       </c>
       <c r="P501" t="n">
         <v>0.009259999999999999</v>
       </c>
       <c r="Q501" t="n">
-        <v>3.236233657380104e-05</v>
+        <v>3.495299190080397e-05</v>
       </c>
     </row>
     <row r="502">
@@ -30065,13 +30065,13 @@
       </c>
       <c r="N502" t="inlineStr"/>
       <c r="O502" t="n">
-        <v>-0.02553995808926458</v>
+        <v>-0.02253437442020968</v>
       </c>
       <c r="P502" t="n">
         <v>0.0136</v>
       </c>
       <c r="Q502" t="n">
-        <v>0.02515685871792561</v>
+        <v>0.02219635880390654</v>
       </c>
     </row>
     <row r="503">
@@ -30124,13 +30124,13 @@
       </c>
       <c r="N503" t="inlineStr"/>
       <c r="O503" t="n">
-        <v>-0.035383298085035</v>
+        <v>-0.02841005014144138</v>
       </c>
       <c r="P503" t="n">
         <v>0.0202</v>
       </c>
       <c r="Q503" t="n">
-        <v>0.0155686511574154</v>
+        <v>0.01250042206223421</v>
       </c>
     </row>
     <row r="504">
@@ -30183,13 +30183,13 @@
       </c>
       <c r="N504" t="inlineStr"/>
       <c r="O504" t="n">
-        <v>-0.03260132693777863</v>
+        <v>-0.02708647168787997</v>
       </c>
       <c r="P504" t="n">
         <v>0.0301</v>
       </c>
       <c r="Q504" t="n">
-        <v>0.009747796754395811</v>
+        <v>0.008098855034676109</v>
       </c>
     </row>
     <row r="505">
@@ -30242,13 +30242,13 @@
       </c>
       <c r="N505" t="inlineStr"/>
       <c r="O505" t="n">
-        <v>-0.03996249481050949</v>
+        <v>-0.03887472696478238</v>
       </c>
       <c r="P505" t="n">
         <v>0.00848</v>
       </c>
       <c r="Q505" t="n">
-        <v>0.04236024449914007</v>
+        <v>0.04120721058266933</v>
       </c>
     </row>
     <row r="506">
@@ -30301,13 +30301,13 @@
       </c>
       <c r="N506" t="inlineStr"/>
       <c r="O506" t="n">
-        <v>-0.02495381279025444</v>
+        <v>-0.02461404833600223</v>
       </c>
       <c r="P506" t="n">
         <v>0.0138</v>
       </c>
       <c r="Q506" t="n">
-        <v>0.001409890422649376</v>
+        <v>0.001390693730984126</v>
       </c>
     </row>
     <row r="507">
@@ -30360,13 +30360,13 @@
       </c>
       <c r="N507" t="inlineStr"/>
       <c r="O507" t="n">
-        <v>-0.02276423634252947</v>
+        <v>-0.02213125762181513</v>
       </c>
       <c r="P507" t="n">
         <v>0.0223</v>
       </c>
       <c r="Q507" t="n">
-        <v>0.03164228851611596</v>
+        <v>0.03076244809432302</v>
       </c>
     </row>
     <row r="508">
@@ -30419,13 +30419,13 @@
       </c>
       <c r="N508" t="inlineStr"/>
       <c r="O508" t="n">
-        <v>-0.01896098706317157</v>
+        <v>-0.02000258816490207</v>
       </c>
       <c r="P508" t="n">
         <v>0.0341</v>
       </c>
       <c r="Q508" t="n">
-        <v>0.1952981667506672</v>
+        <v>0.2060266580984913</v>
       </c>
     </row>
     <row r="509">
@@ -30478,13 +30478,13 @@
       </c>
       <c r="N509" t="inlineStr"/>
       <c r="O509" t="n">
-        <v>-0.0518315943748266</v>
+        <v>-0.04896076033248249</v>
       </c>
       <c r="P509" t="n">
         <v>0.00575</v>
       </c>
       <c r="Q509" t="n">
-        <v>0.0144091832362018</v>
+        <v>0.01361109137243013</v>
       </c>
     </row>
     <row r="510">
@@ -30537,13 +30537,13 @@
       </c>
       <c r="N510" t="inlineStr"/>
       <c r="O510" t="n">
-        <v>-0.0388899452225719</v>
+        <v>-0.03690676063630831</v>
       </c>
       <c r="P510" t="n">
         <v>0.009090000000000001</v>
       </c>
       <c r="Q510" t="n">
-        <v>0.02527846439467174</v>
+        <v>0.0239893944136004</v>
       </c>
     </row>
     <row r="511">
@@ -30596,13 +30596,13 @@
       </c>
       <c r="N511" t="inlineStr"/>
       <c r="O511" t="n">
-        <v>-0.03842849555518721</v>
+        <v>-0.03574815222201987</v>
       </c>
       <c r="P511" t="n">
         <v>0.0137</v>
       </c>
       <c r="Q511" t="n">
-        <v>0.04572990971067278</v>
+        <v>0.04254030114420364</v>
       </c>
     </row>
     <row r="512">
@@ -30655,13 +30655,13 @@
       </c>
       <c r="N512" t="inlineStr"/>
       <c r="O512" t="n">
-        <v>-0.03314145366113056</v>
+        <v>-0.03313004488468888</v>
       </c>
       <c r="P512" t="n">
         <v>0.021</v>
       </c>
       <c r="Q512" t="n">
-        <v>0.003579276995402101</v>
+        <v>0.003578044847546398</v>
       </c>
     </row>
     <row r="513">
@@ -30714,13 +30714,13 @@
       </c>
       <c r="N513" t="inlineStr"/>
       <c r="O513" t="n">
-        <v>-0.05317045518161769</v>
+        <v>-0.04925318936862569</v>
       </c>
       <c r="P513" t="n">
         <v>0.0067</v>
       </c>
       <c r="Q513" t="n">
-        <v>0.009623852387872802</v>
+        <v>0.00891482727572125</v>
       </c>
     </row>
     <row r="514">
@@ -30773,13 +30773,13 @@
       </c>
       <c r="N514" t="inlineStr"/>
       <c r="O514" t="n">
-        <v>-0.05609976517830206</v>
+        <v>-0.05016384540640464</v>
       </c>
       <c r="P514" t="n">
         <v>0.0101</v>
       </c>
       <c r="Q514" t="n">
-        <v>0.005379967480599167</v>
+        <v>0.004810712774474204</v>
       </c>
     </row>
     <row r="515">
@@ -30832,13 +30832,13 @@
       </c>
       <c r="N515" t="inlineStr"/>
       <c r="O515" t="n">
-        <v>-0.06421582926464778</v>
+        <v>-0.05539859214454362</v>
       </c>
       <c r="P515" t="n">
         <v>0.0149</v>
       </c>
       <c r="Q515" t="n">
-        <v>0.02215446109630348</v>
+        <v>0.01911251428986755</v>
       </c>
     </row>
     <row r="516">
@@ -30891,13 +30891,13 @@
       </c>
       <c r="N516" t="inlineStr"/>
       <c r="O516" t="n">
-        <v>-0.0583458354974299</v>
+        <v>-0.05320847362533097</v>
       </c>
       <c r="P516" t="n">
         <v>0.0219</v>
       </c>
       <c r="Q516" t="n">
-        <v>0.006301350233722429</v>
+        <v>0.005746515151535745</v>
       </c>
     </row>
     <row r="517">
@@ -30950,13 +30950,13 @@
       </c>
       <c r="N517" t="inlineStr"/>
       <c r="O517" t="n">
-        <v>-0.04392799278760016</v>
+        <v>-0.04381641345922475</v>
       </c>
       <c r="P517" t="n">
         <v>0.00868</v>
       </c>
       <c r="Q517" t="n">
-        <v>0.0006062063004688823</v>
+        <v>0.0006046665057373016</v>
       </c>
     </row>
     <row r="518">
@@ -31009,13 +31009,13 @@
       </c>
       <c r="N518" t="inlineStr"/>
       <c r="O518" t="n">
-        <v>-0.07721117245608868</v>
+        <v>-0.06544817540604476</v>
       </c>
       <c r="P518" t="n">
         <v>0.0128</v>
       </c>
       <c r="Q518" t="n">
-        <v>0.002061538304577568</v>
+        <v>0.001747466283341395</v>
       </c>
     </row>
     <row r="519">
@@ -31068,13 +31068,13 @@
       </c>
       <c r="N519" t="inlineStr"/>
       <c r="O519" t="n">
-        <v>-0.1088871207502481</v>
+        <v>-0.08631081237248824</v>
       </c>
       <c r="P519" t="n">
         <v>0.0185</v>
       </c>
       <c r="Q519" t="n">
-        <v>0.02428182792730533</v>
+        <v>0.01924731115906488</v>
       </c>
     </row>
     <row r="520">
@@ -31127,13 +31127,13 @@
       </c>
       <c r="N520" t="inlineStr"/>
       <c r="O520" t="n">
-        <v>-0.1045760163233651</v>
+        <v>-0.08518542801681595</v>
       </c>
       <c r="P520" t="n">
         <v>0.0277</v>
       </c>
       <c r="Q520" t="n">
-        <v>0.0969419671317595</v>
+        <v>0.07896689177158839</v>
       </c>
     </row>
     <row r="521">
@@ -31186,13 +31186,13 @@
       </c>
       <c r="N521" t="inlineStr"/>
       <c r="O521" t="n">
-        <v>-0.09666885426252023</v>
+        <v>-0.09632079684884548</v>
       </c>
       <c r="P521" t="n">
         <v>0.009849999999999999</v>
       </c>
       <c r="Q521" t="n">
-        <v>0.01411365272232795</v>
+        <v>0.01406283633993144</v>
       </c>
     </row>
     <row r="522">
@@ -31245,13 +31245,13 @@
       </c>
       <c r="N522" t="inlineStr"/>
       <c r="O522" t="n">
-        <v>-0.06227503133143446</v>
+        <v>-0.06312962563914812</v>
       </c>
       <c r="P522" t="n">
         <v>0.016</v>
       </c>
       <c r="Q522" t="n">
-        <v>0.0641432822713775</v>
+        <v>0.06502351440832256</v>
       </c>
     </row>
     <row r="523">
@@ -31304,13 +31304,13 @@
       </c>
       <c r="N523" t="inlineStr"/>
       <c r="O523" t="n">
-        <v>-0.05817453750538827</v>
+        <v>-0.05782646431921461</v>
       </c>
       <c r="P523" t="n">
         <v>0.0257</v>
       </c>
       <c r="Q523" t="n">
-        <v>0.06166500975571157</v>
+        <v>0.06129605217836748</v>
       </c>
     </row>
     <row r="524">
@@ -31363,13 +31363,13 @@
       </c>
       <c r="N524" t="inlineStr"/>
       <c r="O524" t="n">
-        <v>-0.0502846754662888</v>
+        <v>-0.05280513535244633</v>
       </c>
       <c r="P524" t="n">
         <v>0.0395</v>
       </c>
       <c r="Q524" t="n">
-        <v>0.1141462133084756</v>
+        <v>0.1198676572500532</v>
       </c>
     </row>
     <row r="525">
@@ -31422,13 +31422,13 @@
       </c>
       <c r="N525" t="inlineStr"/>
       <c r="O525" t="n">
-        <v>-0.1239989755497462</v>
+        <v>-0.121110374976232</v>
       </c>
       <c r="P525" t="n">
         <v>0.00673</v>
       </c>
       <c r="Q525" t="n">
-        <v>0.02529579101214822</v>
+        <v>0.02470651649515132</v>
       </c>
     </row>
     <row r="526">
@@ -31481,13 +31481,13 @@
       </c>
       <c r="N526" t="inlineStr"/>
       <c r="O526" t="n">
-        <v>-0.09476432280651761</v>
+        <v>-0.09346983225482591</v>
       </c>
       <c r="P526" t="n">
         <v>0.0106</v>
       </c>
       <c r="Q526" t="n">
-        <v>0.0311774622033443</v>
+        <v>0.03075157481183773</v>
       </c>
     </row>
     <row r="527">
@@ -31540,13 +31540,13 @@
       </c>
       <c r="N527" t="inlineStr"/>
       <c r="O527" t="n">
-        <v>-0.09774388282536295</v>
+        <v>-0.09396130839077207</v>
       </c>
       <c r="P527" t="n">
         <v>0.0161</v>
       </c>
       <c r="Q527" t="n">
-        <v>0.05698468368718659</v>
+        <v>0.05477944279182011</v>
       </c>
     </row>
     <row r="528">
@@ -31599,13 +31599,13 @@
       </c>
       <c r="N528" t="inlineStr"/>
       <c r="O528" t="n">
-        <v>-0.0861342302863457</v>
+        <v>-0.08651029726658113</v>
       </c>
       <c r="P528" t="n">
         <v>0.0244</v>
       </c>
       <c r="Q528" t="n">
-        <v>0.1050837609493418</v>
+        <v>0.105542562665229</v>
       </c>
     </row>
     <row r="529">
@@ -31658,13 +31658,13 @@
       </c>
       <c r="N529" t="inlineStr"/>
       <c r="O529" t="n">
-        <v>-0.1246221098362159</v>
+        <v>-0.1217579312764267</v>
       </c>
       <c r="P529" t="n">
         <v>0.008109999999999999</v>
       </c>
       <c r="Q529" t="n">
-        <v>0.02255660188035507</v>
+        <v>0.02203818556103323</v>
       </c>
     </row>
     <row r="530">
@@ -31717,13 +31717,13 @@
       </c>
       <c r="N530" t="inlineStr"/>
       <c r="O530" t="n">
-        <v>-0.13663551643549</v>
+        <v>-0.1294115213416926</v>
       </c>
       <c r="P530" t="n">
         <v>0.012</v>
       </c>
       <c r="Q530" t="n">
-        <v>0.0233646733104688</v>
+        <v>0.02212937014942944</v>
       </c>
     </row>
     <row r="531">
@@ -31776,13 +31776,13 @@
       </c>
       <c r="N531" t="inlineStr"/>
       <c r="O531" t="n">
-        <v>-0.1608090680598596</v>
+        <v>-0.1458680148738612</v>
       </c>
       <c r="P531" t="n">
         <v>0.0181</v>
       </c>
       <c r="Q531" t="n">
-        <v>0.06657495417678189</v>
+        <v>0.06038935815777854</v>
       </c>
     </row>
     <row r="532">
@@ -31835,13 +31835,13 @@
       </c>
       <c r="N532" t="inlineStr"/>
       <c r="O532" t="n">
-        <v>-0.1510087017209075</v>
+        <v>-0.1408827113604508</v>
       </c>
       <c r="P532" t="n">
         <v>0.0274</v>
       </c>
       <c r="Q532" t="n">
-        <v>0.135454805443654</v>
+        <v>0.1263717920903243</v>
       </c>
     </row>
     <row r="533">
@@ -31894,13 +31894,13 @@
       </c>
       <c r="N533" t="inlineStr"/>
       <c r="O533" t="n">
-        <v>-0.09593535919204897</v>
+        <v>-0.105277826932128</v>
       </c>
       <c r="P533" t="n">
         <v>0.0107</v>
       </c>
       <c r="Q533" t="n">
-        <v>0.009296136305709546</v>
+        <v>0.0102014214297232</v>
       </c>
     </row>
     <row r="534">
@@ -31953,13 +31953,13 @@
       </c>
       <c r="N534" t="inlineStr"/>
       <c r="O534" t="n">
-        <v>-0.1811118772208155</v>
+        <v>-0.1663109374398712</v>
       </c>
       <c r="P534" t="n">
         <v>0.0159</v>
       </c>
       <c r="Q534" t="n">
-        <v>0.06483805204505193</v>
+        <v>0.05953931560347388</v>
       </c>
     </row>
     <row r="535">
@@ -32012,13 +32012,13 @@
       </c>
       <c r="N535" t="inlineStr"/>
       <c r="O535" t="n">
-        <v>-0.260733565618224</v>
+        <v>-0.2212333759869612</v>
       </c>
       <c r="P535" t="n">
         <v>0.0233</v>
       </c>
       <c r="Q535" t="n">
-        <v>0.002737702438991353</v>
+        <v>0.002322950447863093</v>
       </c>
     </row>
     <row r="536">
@@ -32071,13 +32071,13 @@
       </c>
       <c r="N536" t="inlineStr"/>
       <c r="O536" t="n">
-        <v>-0.2667187934904874</v>
+        <v>-0.2278664110085209</v>
       </c>
       <c r="P536" t="n">
         <v>0.0349</v>
       </c>
       <c r="Q536" t="n">
-        <v>0.08348298236252255</v>
+        <v>0.07132218664566703</v>
       </c>
     </row>
     <row r="537">
@@ -32130,13 +32130,13 @@
       </c>
       <c r="N537" t="inlineStr"/>
       <c r="O537" t="n">
-        <v>-0.2063376927756283</v>
+        <v>-0.2180755756820816</v>
       </c>
       <c r="P537" t="n">
         <v>0.0242</v>
       </c>
       <c r="Q537" t="n">
-        <v>0.4271190240455506</v>
+        <v>0.451416441661909</v>
       </c>
     </row>
     <row r="538">
@@ -32189,13 +32189,13 @@
       </c>
       <c r="N538" t="inlineStr"/>
       <c r="O538" t="n">
-        <v>-0.1404787034337167</v>
+        <v>-0.14775869102843</v>
       </c>
       <c r="P538" t="n">
         <v>0.0411</v>
       </c>
       <c r="Q538" t="n">
-        <v>0.1489074256397397</v>
+        <v>0.1566242124901358</v>
       </c>
     </row>
     <row r="539">
@@ -32248,13 +32248,13 @@
       </c>
       <c r="N539" t="inlineStr"/>
       <c r="O539" t="n">
-        <v>-0.1349571563486232</v>
+        <v>-0.1371688240401189</v>
       </c>
       <c r="P539" t="n">
         <v>0.0618</v>
       </c>
       <c r="Q539" t="n">
-        <v>0.05492756263388963</v>
+        <v>0.05582771138432838</v>
       </c>
     </row>
     <row r="540">
@@ -32307,13 +32307,13 @@
       </c>
       <c r="N540" t="inlineStr"/>
       <c r="O540" t="n">
-        <v>-0.1185961115360831</v>
+        <v>-0.122629259567286</v>
       </c>
       <c r="P540" t="n">
         <v>0.09180000000000001</v>
       </c>
       <c r="Q540" t="n">
-        <v>0.03676479457618578</v>
+        <v>0.03801507046585865</v>
       </c>
     </row>
     <row r="541">
@@ -32366,13 +32366,13 @@
       </c>
       <c r="N541" t="inlineStr"/>
       <c r="O541" t="n">
-        <v>-0.2503352211497177</v>
+        <v>-0.2695191455818238</v>
       </c>
       <c r="P541" t="n">
         <v>0.0169</v>
       </c>
       <c r="Q541" t="n">
-        <v>0.2007688473620736</v>
+        <v>0.2161543547566227</v>
       </c>
     </row>
     <row r="542">
@@ -32425,13 +32425,13 @@
       </c>
       <c r="N542" t="inlineStr"/>
       <c r="O542" t="n">
-        <v>-0.2078796833384067</v>
+        <v>-0.2195369690600477</v>
       </c>
       <c r="P542" t="n">
         <v>0.0258</v>
       </c>
       <c r="Q542" t="n">
-        <v>0.07504456568516482</v>
+        <v>0.07925284583067722</v>
       </c>
     </row>
     <row r="543">
@@ -32484,13 +32484,13 @@
       </c>
       <c r="N543" t="inlineStr"/>
       <c r="O543" t="n">
-        <v>-0.2230054718427192</v>
+        <v>-0.2244358122660213</v>
       </c>
       <c r="P543" t="n">
         <v>0.041</v>
       </c>
       <c r="Q543" t="n">
-        <v>0.2943672228323894</v>
+        <v>0.2962552721911481</v>
       </c>
     </row>
     <row r="544">
@@ -32543,13 +32543,13 @@
       </c>
       <c r="N544" t="inlineStr"/>
       <c r="O544" t="n">
-        <v>-0.1998837290654423</v>
+        <v>-0.2026535765468332</v>
       </c>
       <c r="P544" t="n">
         <v>0.0615</v>
       </c>
       <c r="Q544" t="n">
-        <v>0.03877744343869581</v>
+        <v>0.03931479385008563</v>
       </c>
     </row>
     <row r="545">
@@ -32602,13 +32602,13 @@
       </c>
       <c r="N545" t="inlineStr"/>
       <c r="O545" t="n">
-        <v>-0.234170951493902</v>
+        <v>-0.2729251382726396</v>
       </c>
       <c r="P545" t="n">
         <v>0.0209</v>
       </c>
       <c r="Q545" t="n">
-        <v>0.07914978160493889</v>
+        <v>0.09224869673615219</v>
       </c>
     </row>
     <row r="546">
@@ -32661,13 +32661,13 @@
       </c>
       <c r="N546" t="inlineStr"/>
       <c r="O546" t="n">
-        <v>-0.2788613774573162</v>
+        <v>-0.3018671775902268</v>
       </c>
       <c r="P546" t="n">
         <v>0.0303</v>
       </c>
       <c r="Q546" t="n">
-        <v>0.2286663295149992</v>
+        <v>0.247531085623986</v>
       </c>
     </row>
     <row r="547">
@@ -32720,13 +32720,13 @@
       </c>
       <c r="N547" t="inlineStr"/>
       <c r="O547" t="n">
-        <v>-0.3506018548508471</v>
+        <v>-0.3507937890455887</v>
       </c>
       <c r="P547" t="n">
         <v>0.0474</v>
       </c>
       <c r="Q547" t="n">
-        <v>0.06310833387315248</v>
+        <v>0.06314288202820596</v>
       </c>
     </row>
     <row r="548">
@@ -32779,13 +32779,13 @@
       </c>
       <c r="N548" t="inlineStr"/>
       <c r="O548" t="n">
-        <v>-0.3419167886381489</v>
+        <v>-0.336061122056863</v>
       </c>
       <c r="P548" t="n">
         <v>0.0683</v>
       </c>
       <c r="Q548" t="n">
-        <v>0.5539051975938012</v>
+        <v>0.5444190177321181</v>
       </c>
     </row>
     <row r="549">
@@ -32838,13 +32838,13 @@
       </c>
       <c r="N549" t="inlineStr"/>
       <c r="O549" t="n">
-        <v>-0.1669884327342731</v>
+        <v>-0.2416325575646422</v>
       </c>
       <c r="P549" t="n">
         <v>0.0303</v>
       </c>
       <c r="Q549" t="n">
-        <v>0.01359285842456983</v>
+        <v>0.01966889018576188</v>
       </c>
     </row>
     <row r="550">
@@ -32897,13 +32897,13 @@
       </c>
       <c r="N550" t="inlineStr"/>
       <c r="O550" t="n">
-        <v>-0.3301147761345321</v>
+        <v>-0.3803788576416269</v>
       </c>
       <c r="P550" t="n">
         <v>0.0441</v>
       </c>
       <c r="Q550" t="n">
-        <v>0.05215813462925607</v>
+        <v>0.06009985950737705</v>
       </c>
     </row>
     <row r="551">
@@ -32956,13 +32956,13 @@
       </c>
       <c r="N551" t="inlineStr"/>
       <c r="O551" t="n">
-        <v>-0.5174501451295128</v>
+        <v>-0.5175915524013522</v>
       </c>
       <c r="P551" t="n">
         <v>0.0653</v>
       </c>
       <c r="Q551" t="n">
-        <v>0.3099526369325782</v>
+        <v>0.31003733988841</v>
       </c>
     </row>
     <row r="552">
@@ -33015,13 +33015,13 @@
       </c>
       <c r="N552" t="inlineStr"/>
       <c r="O552" t="n">
-        <v>-0.5428560445413499</v>
+        <v>-0.5174005634940058</v>
       </c>
       <c r="P552" t="n">
         <v>0.1</v>
       </c>
       <c r="Q552" t="n">
-        <v>0.2649137497361788</v>
+        <v>0.2524914749850748</v>
       </c>
     </row>
     <row r="553">
@@ -33074,13 +33074,13 @@
       </c>
       <c r="N553" t="inlineStr"/>
       <c r="O553" t="n">
-        <v>-0.01952629794557092</v>
+        <v>-0.01943164828463438</v>
       </c>
       <c r="P553" t="n">
         <v>0.167</v>
       </c>
       <c r="Q553" t="n">
-        <v>0.01784703632225182</v>
+        <v>0.01776052653215582</v>
       </c>
     </row>
     <row r="554">
@@ -33133,13 +33133,13 @@
       </c>
       <c r="N554" t="inlineStr"/>
       <c r="O554" t="n">
-        <v>-0.02603755780843425</v>
+        <v>-0.02518351475983414</v>
       </c>
       <c r="P554" t="n">
         <v>0.095</v>
       </c>
       <c r="Q554" t="n">
-        <v>0.3254694726054281</v>
+        <v>0.3147939344979267</v>
       </c>
     </row>
     <row r="555">
@@ -33192,13 +33192,13 @@
       </c>
       <c r="N555" t="inlineStr"/>
       <c r="O555" t="n">
-        <v>-0.01842002021719038</v>
+        <v>-0.01787421376867545</v>
       </c>
       <c r="P555" t="n">
         <v>0.178</v>
       </c>
       <c r="Q555" t="n">
-        <v>0.002007782203673751</v>
+        <v>0.001948289300785624</v>
       </c>
     </row>
     <row r="556">
@@ -33251,13 +33251,13 @@
       </c>
       <c r="N556" t="inlineStr"/>
       <c r="O556" t="n">
-        <v>-0.02662394679531853</v>
+        <v>-0.02561848000687418</v>
       </c>
       <c r="P556" t="n">
         <v>0.13</v>
       </c>
       <c r="Q556" t="n">
-        <v>0.002409467184976327</v>
+        <v>0.002318472440622113</v>
       </c>
     </row>
     <row r="557">
@@ -33310,13 +33310,13 @@
       </c>
       <c r="N557" t="inlineStr"/>
       <c r="O557" t="n">
-        <v>-0.02834788238791311</v>
+        <v>-0.02574183763622191</v>
       </c>
       <c r="P557" t="n">
         <v>0.234</v>
       </c>
       <c r="Q557" t="n">
-        <v>0.07710624009512367</v>
+        <v>0.07001779837052359</v>
       </c>
     </row>
     <row r="558">
@@ -33369,13 +33369,13 @@
       </c>
       <c r="N558" t="inlineStr"/>
       <c r="O558" t="n">
-        <v>-0.02261621164679452</v>
+        <v>-0.02302678120009255</v>
       </c>
       <c r="P558" t="n">
         <v>0.179</v>
       </c>
       <c r="Q558" t="n">
-        <v>0.00189750015716606</v>
+        <v>0.001931946942687765</v>
       </c>
     </row>
     <row r="559">
@@ -33428,13 +33428,13 @@
       </c>
       <c r="N559" t="inlineStr"/>
       <c r="O559" t="n">
-        <v>-0.04069452965511289</v>
+        <v>-0.03494306170361979</v>
       </c>
       <c r="P559" t="n">
         <v>0.22</v>
       </c>
       <c r="Q559" t="n">
-        <v>0.03133478783443693</v>
+        <v>0.02690615751178724</v>
       </c>
     </row>
     <row r="560">
@@ -33487,13 +33487,13 @@
       </c>
       <c r="N560" t="inlineStr"/>
       <c r="O560" t="n">
-        <v>-0.04293574374156667</v>
+        <v>-0.04207225933785544</v>
       </c>
       <c r="P560" t="n">
         <v>0.0288</v>
       </c>
       <c r="Q560" t="n">
-        <v>0.04280693651034197</v>
+        <v>0.04194604255984187</v>
       </c>
     </row>
     <row r="561">
@@ -33546,13 +33546,13 @@
       </c>
       <c r="N561" t="inlineStr"/>
       <c r="O561" t="n">
-        <v>-0.02679813454671211</v>
+        <v>-0.02669608258142032</v>
       </c>
       <c r="P561" t="n">
         <v>0.0519</v>
       </c>
       <c r="Q561" t="n">
-        <v>0.01361345234972975</v>
+        <v>0.01356160995136152</v>
       </c>
     </row>
     <row r="562">
@@ -33605,13 +33605,13 @@
       </c>
       <c r="N562" t="inlineStr"/>
       <c r="O562" t="n">
-        <v>-0.02656363923514058</v>
+        <v>-0.02612526235707751</v>
       </c>
       <c r="P562" t="n">
         <v>0.0902</v>
       </c>
       <c r="Q562" t="n">
-        <v>0.0221275114828721</v>
+        <v>0.02176234354344557</v>
       </c>
     </row>
     <row r="563">
@@ -33664,13 +33664,13 @@
       </c>
       <c r="N563" t="inlineStr"/>
       <c r="O563" t="n">
-        <v>-0.02067739724182383</v>
+        <v>-0.02208719498136315</v>
       </c>
       <c r="P563" t="n">
         <v>0.147</v>
       </c>
       <c r="Q563" t="n">
-        <v>0.02088417121424207</v>
+        <v>0.02230806693117679</v>
       </c>
     </row>
     <row r="564">
@@ -33723,13 +33723,13 @@
       </c>
       <c r="N564" t="inlineStr"/>
       <c r="O564" t="n">
-        <v>-0.0556587519333942</v>
+        <v>-0.05291119039636356</v>
       </c>
       <c r="P564" t="n">
         <v>0.0188</v>
       </c>
       <c r="Q564" t="n">
-        <v>0.004692032787985131</v>
+        <v>0.004460413350413448</v>
       </c>
     </row>
     <row r="565">
@@ -33782,13 +33782,13 @@
       </c>
       <c r="N565" t="inlineStr"/>
       <c r="O565" t="n">
-        <v>-0.04107028059604713</v>
+        <v>-0.03928471830767372</v>
       </c>
       <c r="P565" t="n">
         <v>0.032</v>
       </c>
       <c r="Q565" t="n">
-        <v>0.07556931629672672</v>
+        <v>0.07228388168611964</v>
       </c>
     </row>
     <row r="566">
@@ -33841,13 +33841,13 @@
       </c>
       <c r="N566" t="inlineStr"/>
       <c r="O566" t="n">
-        <v>-0.04199398918882763</v>
+        <v>-0.03944739458193777</v>
       </c>
       <c r="P566" t="n">
         <v>0.0477</v>
       </c>
       <c r="Q566" t="n">
-        <v>0.3321724544836265</v>
+        <v>0.3120288911431277</v>
       </c>
     </row>
     <row r="567">
@@ -33900,13 +33900,13 @@
       </c>
       <c r="N567" t="inlineStr"/>
       <c r="O567" t="n">
-        <v>-0.03479378919353347</v>
+        <v>-0.0356715392947731</v>
       </c>
       <c r="P567" t="n">
         <v>0.08450000000000001</v>
       </c>
       <c r="Q567" t="n">
-        <v>0.1144715664467251</v>
+        <v>0.1173593642798035</v>
       </c>
     </row>
     <row r="568">
@@ -33959,13 +33959,13 @@
       </c>
       <c r="N568" t="inlineStr"/>
       <c r="O568" t="n">
-        <v>-0.05717016050875685</v>
+        <v>-0.05316620115769977</v>
       </c>
       <c r="P568" t="n">
         <v>0.0209</v>
       </c>
       <c r="Q568" t="n">
-        <v>0.01274894579345278</v>
+        <v>0.01185606285816705</v>
       </c>
     </row>
     <row r="569">
@@ -34018,13 +34018,13 @@
       </c>
       <c r="N569" t="inlineStr"/>
       <c r="O569" t="n">
-        <v>-0.06201532063702417</v>
+        <v>-0.05572777301447609</v>
       </c>
       <c r="P569" t="n">
         <v>0.0357</v>
       </c>
       <c r="Q569" t="n">
-        <v>0.02964332326449755</v>
+        <v>0.02663787550091957</v>
       </c>
     </row>
     <row r="570">
@@ -34077,13 +34077,13 @@
       </c>
       <c r="N570" t="inlineStr"/>
       <c r="O570" t="n">
-        <v>-0.0692917985600837</v>
+        <v>-0.06024498506608977</v>
       </c>
       <c r="P570" t="n">
         <v>0.0547</v>
       </c>
       <c r="Q570" t="n">
-        <v>0.1732294964002093</v>
+        <v>0.1506124626652244</v>
       </c>
     </row>
     <row r="571">
@@ -34136,13 +34136,13 @@
       </c>
       <c r="N571" t="inlineStr"/>
       <c r="O571" t="n">
-        <v>-0.06557585401837805</v>
+        <v>-0.06050074082852552</v>
       </c>
       <c r="P571" t="n">
         <v>0.08939999999999999</v>
       </c>
       <c r="Q571" t="n">
-        <v>0.02662379673146149</v>
+        <v>0.02456330077638136</v>
       </c>
     </row>
     <row r="572">
@@ -34195,13 +34195,13 @@
       </c>
       <c r="N572" t="inlineStr"/>
       <c r="O572" t="n">
-        <v>-0.04680428848311676</v>
+        <v>-0.04708088940593882</v>
       </c>
       <c r="P572" t="n">
         <v>0.0263</v>
       </c>
       <c r="Q572" t="n">
-        <v>0.03454156490054017</v>
+        <v>0.03474569638158285</v>
       </c>
     </row>
     <row r="573">
@@ -34254,13 +34254,13 @@
       </c>
       <c r="N573" t="inlineStr"/>
       <c r="O573" t="n">
-        <v>-0.08328104242722403</v>
+        <v>-0.07084148621713914</v>
       </c>
       <c r="P573" t="n">
         <v>0.0424</v>
       </c>
       <c r="Q573" t="n">
-        <v>0.03830927951652306</v>
+        <v>0.032587083659884</v>
       </c>
     </row>
     <row r="574">
@@ -34313,13 +34313,13 @@
       </c>
       <c r="N574" t="inlineStr"/>
       <c r="O574" t="n">
-        <v>-0.1182525241344755</v>
+        <v>-0.09412636338562913</v>
       </c>
       <c r="P574" t="n">
         <v>0.06710000000000001</v>
       </c>
       <c r="Q574" t="n">
-        <v>0.1797438366844027</v>
+        <v>0.1430720723461563</v>
       </c>
     </row>
     <row r="575">
@@ -34372,13 +34372,13 @@
       </c>
       <c r="N575" t="inlineStr"/>
       <c r="O575" t="n">
-        <v>-0.1160161309176676</v>
+        <v>-0.09547577111184199</v>
       </c>
       <c r="P575" t="n">
         <v>0.101</v>
       </c>
       <c r="Q575" t="n">
-        <v>0.2366729070720419</v>
+        <v>0.1947705730681577</v>
       </c>
     </row>
     <row r="576">
@@ -34431,13 +34431,13 @@
       </c>
       <c r="N576" t="inlineStr"/>
       <c r="O576" t="n">
-        <v>-0.1001079515737415</v>
+        <v>-0.1007804180440007</v>
       </c>
       <c r="P576" t="n">
         <v>0.0252</v>
       </c>
       <c r="Q576" t="n">
-        <v>0.08759445762702384</v>
+        <v>0.08818286578850065</v>
       </c>
     </row>
     <row r="577">
@@ -34490,13 +34490,13 @@
       </c>
       <c r="N577" t="inlineStr"/>
       <c r="O577" t="n">
-        <v>-0.06329184674446525</v>
+        <v>-0.06475833283981858</v>
       </c>
       <c r="P577" t="n">
         <v>0.0472</v>
       </c>
       <c r="Q577" t="n">
-        <v>0.06519060214679921</v>
+        <v>0.06670108282501314</v>
       </c>
     </row>
     <row r="578">
@@ -34549,13 +34549,13 @@
       </c>
       <c r="N578" t="inlineStr"/>
       <c r="O578" t="n">
-        <v>-0.06114561015845531</v>
+        <v>-0.06143181480594497</v>
       </c>
       <c r="P578" t="n">
         <v>0.0829</v>
       </c>
       <c r="Q578" t="n">
-        <v>0.1363547106533553</v>
+        <v>0.1369929470172573</v>
       </c>
     </row>
     <row r="579">
@@ -34608,13 +34608,13 @@
       </c>
       <c r="N579" t="inlineStr"/>
       <c r="O579" t="n">
-        <v>-0.05088534726877689</v>
+        <v>-0.05460247309016825</v>
       </c>
       <c r="P579" t="n">
         <v>0.13</v>
       </c>
       <c r="Q579" t="n">
-        <v>0.03114183252849145</v>
+        <v>0.03341671353118297</v>
       </c>
     </row>
     <row r="580">
@@ -34667,13 +34667,13 @@
       </c>
       <c r="N580" t="inlineStr"/>
       <c r="O580" t="n">
-        <v>-0.1277881585115641</v>
+        <v>-0.125964211548935</v>
       </c>
       <c r="P580" t="n">
         <v>0.0167</v>
       </c>
       <c r="Q580" t="n">
-        <v>0.03399165016407604</v>
+        <v>0.03350648027201672</v>
       </c>
     </row>
     <row r="581">
@@ -34726,13 +34726,13 @@
       </c>
       <c r="N581" t="inlineStr"/>
       <c r="O581" t="n">
-        <v>-0.09767434338700336</v>
+        <v>-0.09704009950644471</v>
       </c>
       <c r="P581" t="n">
         <v>0.0276</v>
       </c>
       <c r="Q581" t="n">
-        <v>0.06466041532219623</v>
+        <v>0.0642405458732664</v>
       </c>
     </row>
     <row r="582">
@@ -34785,13 +34785,13 @@
       </c>
       <c r="N582" t="inlineStr"/>
       <c r="O582" t="n">
-        <v>-0.0999330584786397</v>
+        <v>-0.09685099929406463</v>
       </c>
       <c r="P582" t="n">
         <v>0.0468</v>
       </c>
       <c r="Q582" t="n">
-        <v>0.06455675577720126</v>
+        <v>0.06256574554396575</v>
       </c>
     </row>
     <row r="583">
@@ -34844,13 +34844,13 @@
       </c>
       <c r="N583" t="inlineStr"/>
       <c r="O583" t="n">
-        <v>-0.09075832836871653</v>
+        <v>-0.09304674530750867</v>
       </c>
       <c r="P583" t="n">
         <v>0.07099999999999999</v>
       </c>
       <c r="Q583" t="n">
-        <v>0.08821709517439247</v>
+        <v>0.09044143643889843</v>
       </c>
     </row>
     <row r="584">
@@ -34903,13 +34903,13 @@
       </c>
       <c r="N584" t="inlineStr"/>
       <c r="O584" t="n">
-        <v>-0.1253150681925096</v>
+        <v>-0.1237570059536237</v>
       </c>
       <c r="P584" t="n">
         <v>0.0189</v>
       </c>
       <c r="Q584" t="n">
-        <v>0.002293265747922926</v>
+        <v>0.002264753208951314</v>
       </c>
     </row>
     <row r="585">
@@ -34962,13 +34962,13 @@
       </c>
       <c r="N585" t="inlineStr"/>
       <c r="O585" t="n">
-        <v>-0.1394624351065304</v>
+        <v>-0.1331295785811982</v>
       </c>
       <c r="P585" t="n">
         <v>0.0297</v>
       </c>
       <c r="Q585" t="n">
-        <v>0.0467199157606877</v>
+        <v>0.0445984088247014</v>
       </c>
     </row>
     <row r="586">
@@ -35021,13 +35021,13 @@
       </c>
       <c r="N586" t="inlineStr"/>
       <c r="O586" t="n">
-        <v>-0.1657917094898331</v>
+        <v>-0.1517831354212174</v>
       </c>
       <c r="P586" t="n">
         <v>0.0454</v>
       </c>
       <c r="Q586" t="n">
-        <v>0.04973751284694994</v>
+        <v>0.04553494062636523</v>
       </c>
     </row>
     <row r="587">
@@ -35080,13 +35080,13 @@
       </c>
       <c r="N587" t="inlineStr"/>
       <c r="O587" t="n">
-        <v>-0.1585231174359356</v>
+        <v>-0.1500415743288314</v>
       </c>
       <c r="P587" t="n">
         <v>0.0785</v>
       </c>
       <c r="Q587" t="n">
-        <v>0.05469047551539776</v>
+        <v>0.05176434314344684</v>
       </c>
     </row>
     <row r="588">
@@ -35139,13 +35139,13 @@
       </c>
       <c r="N588" t="inlineStr"/>
       <c r="O588" t="n">
-        <v>-0.09652062210978531</v>
+        <v>-0.1076983764437951</v>
       </c>
       <c r="P588" t="n">
         <v>0.0236</v>
       </c>
       <c r="Q588" t="n">
-        <v>0.02557796485909311</v>
+        <v>0.02854006975760569</v>
       </c>
     </row>
     <row r="589">
@@ -35198,13 +35198,13 @@
       </c>
       <c r="N589" t="inlineStr"/>
       <c r="O589" t="n">
-        <v>-0.188238802039926</v>
+        <v>-0.1745284756562249</v>
       </c>
       <c r="P589" t="n">
         <v>0.0395</v>
       </c>
       <c r="Q589" t="n">
-        <v>0.09430763982200291</v>
+        <v>0.08743876630376869</v>
       </c>
     </row>
     <row r="590">
@@ -35257,13 +35257,13 @@
       </c>
       <c r="N590" t="inlineStr"/>
       <c r="O590" t="n">
-        <v>-0.267820556294102</v>
+        <v>-0.2280036811112028</v>
       </c>
       <c r="P590" t="n">
         <v>0.059</v>
       </c>
       <c r="Q590" t="n">
-        <v>0.1173054036568167</v>
+        <v>0.09986561232670682</v>
       </c>
     </row>
     <row r="591">
@@ -35316,13 +35316,13 @@
       </c>
       <c r="N591" t="inlineStr"/>
       <c r="O591" t="n">
-        <v>-0.2782242526352827</v>
+        <v>-0.2407235008963077</v>
       </c>
       <c r="P591" t="n">
         <v>0.101</v>
       </c>
       <c r="Q591" t="n">
-        <v>2.005996861500388</v>
+        <v>1.735616441462379</v>
       </c>
     </row>
     <row r="592">
@@ -35375,13 +35375,13 @@
       </c>
       <c r="N592" t="inlineStr"/>
       <c r="O592" t="n">
-        <v>-0.215302023872357</v>
+        <v>-0.2288466866497359</v>
       </c>
       <c r="P592" t="n">
         <v>0.0589</v>
       </c>
       <c r="Q592" t="n">
-        <v>0.4715114322804619</v>
+        <v>0.5011742437629216</v>
       </c>
     </row>
     <row r="593">
@@ -35434,13 +35434,13 @@
       </c>
       <c r="N593" t="inlineStr"/>
       <c r="O593" t="n">
-        <v>-0.1551173018032556</v>
+        <v>-0.1638013009778152</v>
       </c>
       <c r="P593" t="n">
         <v>0.103</v>
       </c>
       <c r="Q593" t="n">
-        <v>0.2280224336507857</v>
+        <v>0.2407879124373883</v>
       </c>
     </row>
     <row r="594">
@@ -35493,13 +35493,13 @@
       </c>
       <c r="N594" t="inlineStr"/>
       <c r="O594" t="n">
-        <v>-0.1475909394959002</v>
+        <v>-0.1506870299735849</v>
       </c>
       <c r="P594" t="n">
         <v>0.251</v>
       </c>
       <c r="Q594" t="n">
-        <v>0.3719291675296685</v>
+        <v>0.3797313155334339</v>
       </c>
     </row>
     <row r="595">
@@ -35552,13 +35552,13 @@
       </c>
       <c r="N595" t="inlineStr"/>
       <c r="O595" t="n">
-        <v>-0.2676593547581336</v>
+        <v>-0.2895285452550432</v>
       </c>
       <c r="P595" t="n">
         <v>0.0439</v>
       </c>
       <c r="Q595" t="n">
-        <v>0.0963573677129281</v>
+        <v>0.1042302762918155</v>
       </c>
     </row>
     <row r="596">
@@ -35611,13 +35611,13 @@
       </c>
       <c r="N596" t="inlineStr"/>
       <c r="O596" t="n">
-        <v>-0.2233144284771221</v>
+        <v>-0.2368398975007849</v>
       </c>
       <c r="P596" t="n">
         <v>0.0697</v>
       </c>
       <c r="Q596" t="n">
-        <v>0.1232695645193714</v>
+        <v>0.1307356234204333</v>
       </c>
     </row>
     <row r="597">
@@ -35670,13 +35670,13 @@
       </c>
       <c r="N597" t="inlineStr"/>
       <c r="O597" t="n">
-        <v>-0.2381666000289226</v>
+        <v>-0.2409129240697513</v>
       </c>
       <c r="P597" t="n">
         <v>0.121</v>
       </c>
       <c r="Q597" t="n">
-        <v>1.533792904186262</v>
+        <v>1.551479231009198</v>
       </c>
     </row>
     <row r="598">
@@ -35729,13 +35729,13 @@
       </c>
       <c r="N598" t="inlineStr"/>
       <c r="O598" t="n">
-        <v>-0.2275928915833575</v>
+        <v>-0.2319804570366295</v>
       </c>
       <c r="P598" t="n">
         <v>0.167</v>
       </c>
       <c r="Q598" t="n">
-        <v>0.1176655249485959</v>
+        <v>0.1199338962879374</v>
       </c>
     </row>
     <row r="599">
@@ -35788,13 +35788,13 @@
       </c>
       <c r="N599" t="inlineStr"/>
       <c r="O599" t="n">
-        <v>-0.2450193978665973</v>
+        <v>-0.2866319677753891</v>
       </c>
       <c r="P599" t="n">
         <v>0.0482</v>
       </c>
       <c r="Q599" t="n">
-        <v>0.06346002404744869</v>
+        <v>0.07423767965382577</v>
       </c>
     </row>
     <row r="600">
@@ -35847,13 +35847,13 @@
       </c>
       <c r="N600" t="inlineStr"/>
       <c r="O600" t="n">
-        <v>-0.2979273305800543</v>
+        <v>-0.3238010547654228</v>
       </c>
       <c r="P600" t="n">
         <v>0.07489999999999999</v>
       </c>
       <c r="Q600" t="n">
-        <v>0.1057642023559193</v>
+        <v>0.1149493744417251</v>
       </c>
     </row>
     <row r="601">
@@ -35906,13 +35906,13 @@
       </c>
       <c r="N601" t="inlineStr"/>
       <c r="O601" t="n">
-        <v>-0.3828272067248524</v>
+        <v>-0.3841551591063759</v>
       </c>
       <c r="P601" t="n">
         <v>0.124</v>
       </c>
       <c r="Q601" t="n">
-        <v>0.7235434207099709</v>
+        <v>0.7260532507110504</v>
       </c>
     </row>
     <row r="602">
@@ -35965,13 +35965,13 @@
       </c>
       <c r="N602" t="inlineStr"/>
       <c r="O602" t="n">
-        <v>-0.3894864967583359</v>
+        <v>-0.3845526258578165</v>
       </c>
       <c r="P602" t="n">
         <v>0.211</v>
       </c>
       <c r="Q602" t="n">
-        <v>0.934767592220006</v>
+        <v>0.9229263020587595</v>
       </c>
     </row>
     <row r="603">
@@ -36024,13 +36024,13 @@
       </c>
       <c r="N603" t="inlineStr"/>
       <c r="O603" t="n">
-        <v>-0.1695693111015023</v>
+        <v>-0.2492077723151603</v>
       </c>
       <c r="P603" t="n">
         <v>0.0737</v>
       </c>
       <c r="Q603" t="n">
-        <v>1.297205229926492</v>
+        <v>1.906439458210976</v>
       </c>
     </row>
     <row r="604">
@@ -36083,13 +36083,13 @@
       </c>
       <c r="N604" t="inlineStr"/>
       <c r="O604" t="n">
-        <v>-0.364553186665101</v>
+        <v>-0.41948027273959</v>
       </c>
       <c r="P604" t="n">
         <v>0.103</v>
       </c>
       <c r="Q604" t="n">
-        <v>0.01604034021326444</v>
+        <v>0.01845713200054196</v>
       </c>
     </row>
     <row r="605">
@@ -36142,13 +36142,13 @@
       </c>
       <c r="N605" t="inlineStr"/>
       <c r="O605" t="n">
-        <v>-0.5471174769829988</v>
+        <v>-0.5517629878566743</v>
       </c>
       <c r="P605" t="n">
         <v>0.174</v>
       </c>
       <c r="Q605" t="n">
-        <v>0.3003674948636664</v>
+        <v>0.3029178803333142</v>
       </c>
     </row>
     <row r="606">
@@ -36201,13 +36201,13 @@
       </c>
       <c r="N606" t="inlineStr"/>
       <c r="O606" t="n">
-        <v>-0.6084491639399742</v>
+        <v>-0.5876644209622721</v>
       </c>
       <c r="P606" t="n">
         <v>0.209</v>
       </c>
       <c r="Q606" t="n">
-        <v>1.502869434931736</v>
+        <v>1.451531119776812</v>
       </c>
     </row>
     <row r="607">
@@ -36260,13 +36260,13 @@
       </c>
       <c r="N607" t="inlineStr"/>
       <c r="O607" t="n">
-        <v>-0.1313138432926498</v>
+        <v>-0.1353550301753882</v>
       </c>
       <c r="P607" t="n">
         <v>0.191</v>
       </c>
       <c r="Q607" t="n">
-        <v>0.07576808757985892</v>
+        <v>0.078099852411199</v>
       </c>
     </row>
     <row r="608">
@@ -36319,13 +36319,13 @@
       </c>
       <c r="N608" t="inlineStr"/>
       <c r="O608" t="n">
-        <v>-0.08118626738342664</v>
+        <v>-0.08484542355830797</v>
       </c>
       <c r="P608" t="n">
         <v>0.298</v>
       </c>
       <c r="Q608" t="n">
-        <v>0.03344874216197177</v>
+        <v>0.03495631450602289</v>
       </c>
     </row>
     <row r="609">
@@ -36378,13 +36378,13 @@
       </c>
       <c r="N609" t="inlineStr"/>
       <c r="O609" t="n">
-        <v>-0.1602109240350272</v>
+        <v>-0.1633268607064093</v>
       </c>
       <c r="P609" t="n">
         <v>0.116</v>
       </c>
       <c r="Q609" t="n">
-        <v>0.323626066550755</v>
+        <v>0.3299202586269467</v>
       </c>
     </row>
     <row r="610">
@@ -36437,13 +36437,13 @@
       </c>
       <c r="N610" t="inlineStr"/>
       <c r="O610" t="n">
-        <v>-0.1276064359665612</v>
+        <v>-0.130119584107044</v>
       </c>
       <c r="P610" t="n">
         <v>0.253</v>
       </c>
       <c r="Q610" t="n">
-        <v>0.4619352981989517</v>
+        <v>0.4710328944674993</v>
       </c>
     </row>
     <row r="611">
@@ -36496,13 +36496,13 @@
       </c>
       <c r="N611" t="inlineStr"/>
       <c r="O611" t="n">
-        <v>-0.1526141473904589</v>
+        <v>-0.1583668457395667</v>
       </c>
       <c r="P611" t="n">
         <v>0.124</v>
       </c>
       <c r="Q611" t="n">
-        <v>0.2365519284552113</v>
+        <v>0.2454686108963284</v>
       </c>
     </row>
     <row r="612">
@@ -36555,13 +36555,13 @@
       </c>
       <c r="N612" t="inlineStr"/>
       <c r="O612" t="n">
-        <v>-0.1784958134962944</v>
+        <v>-0.1779774640528812</v>
       </c>
       <c r="P612" t="n">
         <v>0.251</v>
       </c>
       <c r="Q612" t="n">
-        <v>0.4016155803666624</v>
+        <v>0.4004492941189828</v>
       </c>
     </row>
     <row r="613">
@@ -36614,13 +36614,13 @@
       </c>
       <c r="N613" t="inlineStr"/>
       <c r="O613" t="n">
-        <v>-0.1025296270225577</v>
+        <v>-0.1270098380213819</v>
       </c>
       <c r="P613" t="n">
         <v>0.174</v>
       </c>
       <c r="Q613" t="n">
-        <v>0.1127825897248134</v>
+        <v>0.1397108218235201</v>
       </c>
     </row>
     <row r="614">
@@ -36673,13 +36673,13 @@
       </c>
       <c r="N614" t="inlineStr"/>
       <c r="O614" t="n">
-        <v>-0.2384408855052098</v>
+        <v>-0.2538930410947392</v>
       </c>
       <c r="P614" t="n">
         <v>0.22</v>
       </c>
       <c r="Q614" t="n">
-        <v>0.001094443664468913</v>
+        <v>0.001165369058624853</v>
       </c>
     </row>
     <row r="615">
@@ -36732,13 +36732,13 @@
       </c>
       <c r="N615" t="inlineStr"/>
       <c r="O615" t="n">
-        <v>-0.2938035818612136</v>
+        <v>-0.3191988180142837</v>
       </c>
       <c r="P615" t="n">
         <v>0.14</v>
       </c>
       <c r="Q615" t="n">
-        <v>1.216346828905424</v>
+        <v>1.321483106579135</v>
       </c>
     </row>
     <row r="616">
@@ -36791,13 +36791,13 @@
       </c>
       <c r="N616" t="inlineStr"/>
       <c r="O616" t="n">
-        <v>-0.2673155390393128</v>
+        <v>-0.3164173800323632</v>
       </c>
       <c r="P616" t="n">
         <v>0.178</v>
       </c>
       <c r="Q616" t="n">
-        <v>0.315432336066389</v>
+        <v>0.3733725084381885</v>
       </c>
     </row>
     <row r="617">
@@ -36850,13 +36850,13 @@
       </c>
       <c r="N617" t="inlineStr"/>
       <c r="O617" t="n">
-        <v>-0.2136148687575272</v>
+        <v>-0.3034768102430445</v>
       </c>
       <c r="P617" t="n">
         <v>0.214</v>
       </c>
       <c r="Q617" t="n">
-        <v>0.4421827783280813</v>
+        <v>0.6281969972031021</v>
       </c>
     </row>
   </sheetData>
